--- a/Data/dataset_merged.xlsx
+++ b/Data/dataset_merged.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +437,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Content</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Topic</t>
         </is>
@@ -455,19 +460,22 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cậu bé Việt được mệnh danh 'thần đồng' hội họa</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TP HCMBốn tuổi, năng khiếu hội họa của Xèo Chu phát lộ. Đến tuổi 12, cậu bé được ví như danh họa Jackson Pollock, với những bức tranh được trả giá hàng trăm nghìn USD.</t>
+          <t>cậu bé việt được mệnh danh thần đồng hội họa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>tp hcmbốn tuổi năng khiếu hội họa của xèo chu phát lộ đến tuổi 12 cậu bé được ví như danh họa jackson pollock với những bức tranh được trả giá hàng trăm nghìn usd</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -475,19 +483,22 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tết ở tâm dịch Chí Linh</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HẢI DƯƠNGĐặt mâm cơm cúng tất niên lên bàn thờ xong, Nguyễn Đông bất giác nhận ra chẳng còn gì để làm. Bằng thời gian này năm ngoái, anh "chạy không kịp thở".</t>
+          <t>tết ở tâm dịch chí linh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>hải dươngđặt mâm cơm cúng tất niên lên bàn thờ xong nguyễn đông bất giác nhận ra chẳng còn gì để làm bằng thời gian này năm ngoái anh chạy không kịp thở</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -495,19 +506,22 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Loạt sản phẩm ga gối bán giá ưu đãi xuyên Tết</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nhiều bộ sản phẩm gồm ga bọc, vỏ gối nằm, vỏ gối ôm, vỏ chăn... làm từ chất liệu vải thoáng khí đang bán ưu đãi 35% trên Shop VnExpress suốt dịp Tết.</t>
+          <t>loạt sản phẩm ga gối bán giá ưu đãi xuyên tết</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>nhiều bộ sản phẩm gồm ga bọc vỏ gối nằm vỏ gối ôm vỏ chăn làm từ chất liệu vải thoáng khí đang bán ưu đãi 35 trên shop vnexpress suốt dịp tết</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -515,19 +529,22 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Thực đơn chay cho ngày mồng 1 chỉ tốn 120.000 đồng</t>
-        </is>
+      <c r="B5" t="n">
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ăn chay được nhiều gia đình lựa chọn vào mồng 1 Tết vừa thanh tịnh, vừa cân bằng dinh dưỡng, tránh lãng phí thực phẩm.</t>
+          <t>thực đơn chay cho ngày mồng 1 chỉ tốn 120000 đồng</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>ăn chay được nhiều gia đình lựa chọn vào mồng 1 tết vừa thanh tịnh vừa cân bằng dinh dưỡng tránh lãng phí thực phẩm</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -535,19 +552,22 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chàng trai mua nhà cũ bất ngờ tìm thấy kho báu</t>
-        </is>
+      <c r="B6" t="n">
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CANADAAlex Archbold chi 10.000 USD mua toàn bộ đồ đạc của một bà giáo dạy nhạc mới qua đời mà không ngờ, anh được cả một kho báu trị giá hàng triệu USD.</t>
+          <t>chàng trai mua nhà cũ bất ngờ tìm thấy kho báu</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>canadaalex archbold chi 10000 usd mua toàn bộ đồ đạc của một bà giáo dạy nhạc mới qua đời mà không ngờ anh được cả một kho báu trị giá hàng triệu usd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -555,19 +575,22 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Những câu không nên hỏi ngày Tết</t>
-        </is>
+      <c r="B7" t="n">
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tết là dịp sum họp để mọi người hỏi thăm nhau sau một năm. Tuy nhiên, một số câu hỏi khiến người nhận vô cùng khó chịu.</t>
+          <t>những câu không nên hỏi ngày tết</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>tết là dịp sum họp để mọi người hỏi thăm nhau sau một năm tuy nhiên một số câu hỏi khiến người nhận vô cùng khó chịu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -575,19 +598,22 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Chàng trai đan túi tặng bác sĩ trong khu cách ly</t>
-        </is>
+      <c r="B8" t="n">
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>KHÁNH HÒASáng dậy, nhìn thấy ở giường của Lê Thành Đô treo túi xách, những người cách ly cùng phòng thắc mắc: "Sao mày xài đồ phụ nữ". Đô bảo: "Em tự đan".</t>
+          <t>chàng trai đan túi tặng bác sĩ trong khu cách ly</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>khánh hòasáng dậy nhìn thấy ở giường của lê thành đô treo túi xách những người cách ly cùng phòng thắc mắc sao mày xài đồ phụ nữ đô bảo em tự đan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -595,19 +621,22 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Nàng dâu 'mê' Tết nhà chồng</t>
-        </is>
+      <c r="B9" t="n">
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sau bữa cơm chiều cuối năm, Minh Hòa (29 tuổi, ở Tuyên Quang) không phải rửa bát bởi hai chị chồng đã "thuê" em trai 500 nghìn đồng làm thay.</t>
+          <t>nàng dâu mê tết nhà chồng</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>sau bữa cơm chiều cuối năm minh hòa 29 tuổi ở tuyên quang không phải rửa bát bởi hai chị chồng đã thuê em trai 500 nghìn đồng làm thay</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -615,19 +644,22 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Làm sao giúp trẻ ăn Tết vui ở nhà</t>
-        </is>
+      <c r="B10" t="n">
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trong bối cảnh dịch bệnh, nhiều gia đình không thể về quê hoặc buộc phải ở nhà vì thuộc khu vực bị phong tỏa, trẻ em sẽ chịu ảnh hưởng không nhỏ về mặt tâm lý.</t>
+          <t>làm sao giúp trẻ ăn tết vui ở nhà</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>trong bối cảnh dịch bệnh nhiều gia đình không thể về quê hoặc buộc phải ở nhà vì thuộc khu vực bị phong tỏa trẻ em sẽ chịu ảnh hưởng không nhỏ về mặt tâm lý</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -635,19 +667,22 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Đón Tết khởi sắc từ những điều giản đơn</t>
-        </is>
+      <c r="B11" t="n">
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lên thực đơn Tết lành mạnh hay tham gia đóng góp thiện nguyện... là một trong những cách đơn giản, ý nghĩa góp phần mang đến khởi đầu hứng khởi cho năm mới.</t>
+          <t>đón tết khởi sắc từ những điều giản đơn</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>lên thực đơn tết lành mạnh hay tham gia đóng góp thiện nguyện là một trong những cách đơn giản ý nghĩa góp phần mang đến khởi đầu hứng khởi cho năm mới</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -655,19 +690,22 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>GDucky: 'Càng xa nhà lại càng quý Tết'</t>
-        </is>
+      <c r="B12" t="n">
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rapper cho biết sẽ kết thúc công việc sớm để dành thời gian cho gia đình, nấu các món ngon như cách lan tỏa yêu thương, tinh thần tích cực dịp Tết.</t>
+          <t>gducky càng xa nhà lại càng quý tết</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>rapper cho biết sẽ kết thúc công việc sớm để dành thời gian cho gia đình nấu các món ngon như cách lan tỏa yêu thương tinh thần tích cực dịp tết</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -675,19 +713,22 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Maggi tặng 10.000 phần quà cho quán cơm Nụ Cười 4</t>
-        </is>
+      <c r="B13" t="n">
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Maggi trao tặng 10.000 phần quà là sản phẩm nước tương, dầu hào, tương ớt, hạt nêm..., hỗ trợ quán cơm có thêm nhiều suất ăn giá rẻ, lan tỏa yêu thương dịp Tết.</t>
+          <t>maggi tặng 10000 phần quà cho quán cơm nụ cười 4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>maggi trao tặng 10000 phần quà là sản phẩm nước tương dầu hào tương ớt hạt nêm hỗ trợ quán cơm có thêm nhiều suất ăn giá rẻ lan tỏa yêu thương dịp tết</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -695,19 +736,22 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4 món cháo thanh đạm 'chống ngấy' ngày Tết</t>
-        </is>
+      <c r="B14" t="n">
+        <v>12</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cháo tôm, cháo hàu, cháo thịt bò, cháo sườn non vừa thơm ngon, dễ tiêu hóa, đủ chất dinh dưỡng lại 'chống ngấy' hiệu quả trong ngày Tết.</t>
+          <t>4 món cháo thanh đạm chống ngấy ngày tết</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>cháo tôm cháo hàu cháo thịt bò cháo sườn non vừa thơm ngon dễ tiêu hóa đủ chất dinh dưỡng lại chống ngấy hiệu quả trong ngày tết</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -715,19 +759,22 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Cách làm mâm cơm tất niên ngày 30 Tết</t>
-        </is>
+      <c r="B15" t="n">
+        <v>13</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mâm cơm chiều 30 Tết miền Bắc không thể thiếu xôi gấc, gà luộc, nem rán, thịt đông… Còn mâm cơm của miền Nam là thịt kho trứng, canh khổ qua, bánh tét.</t>
+          <t>cách làm mâm cơm tất niên ngày 30 tết</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>mâm cơm chiều 30 tết miền bắc không thể thiếu xôi gấc gà luộc nem rán thịt đông còn mâm cơm của miền nam là thịt kho trứng canh khổ qua bánh tét</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -735,19 +782,22 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>'Bữa tối giao thừa một mình' đắt khách</t>
-        </is>
+      <c r="B16" t="n">
+        <v>14</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TRUNG QUỐCTừ các siêu thị, thương mại trực tuyến đến nhà hàng, "bữa tối đêm giao thừa một mình" đang trở thành lựa chọn cho những người không về quê nghỉ Tết.</t>
+          <t>bữa tối giao thừa một mình đắt khách</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>trung quốctừ các siêu thị thương mại trực tuyến đến nhà hàng bữa tối đêm giao thừa một mình đang trở thành lựa chọn cho những người không về quê nghỉ tết</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -755,19 +805,22 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Bí mật của người phụ nữ nghèo có xe sang, nhà triệu đô</t>
-        </is>
+      <c r="B17" t="n">
+        <v>15</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ANHGemma Bird, sống ở Essex, đã tiết kiệm 'từng đồng xu lẻ' từ năm 10 tuổi và đang bật mí các mẹo cho người khác về cách tiết kiệm.</t>
+          <t>bí mật của người phụ nữ nghèo có xe sang nhà triệu đô</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>anhgemma bird sống ở essex đã tiết kiệm từng đồng xu lẻ từ năm 10 tuổi và đang bật mí các mẹo cho người khác về cách tiết kiệm</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -775,19 +828,22 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Bố đoàn tụ với con trai sau 55 năm</t>
-        </is>
+      <c r="B18" t="n">
+        <v>16</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ANHRichard Standen ôm con trai được hai phút vào ngày cậu bé chào đời, không hề biết sẽ bị chia cắt khỏi con suốt 55 năm.</t>
+          <t>bố đoàn tụ với con trai sau 55 năm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>anhrichard standen ôm con trai được hai phút vào ngày cậu bé chào đời không hề biết sẽ bị chia cắt khỏi con suốt 55 năm</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -795,19 +851,22 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Những lý do khiến bạn stress trong Tết</t>
-        </is>
+      <c r="B19" t="n">
+        <v>17</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tết thường đi cùng niềm vui, sự lạc quan nhưng với một số người, nó lại đem tới căng thẳng, nhất là trong bối cảnh dịch bệnh.</t>
+          <t>những lý do khiến bạn stress trong tết</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>tết thường đi cùng niềm vui sự lạc quan nhưng với một số người nó lại đem tới căng thẳng nhất là trong bối cảnh dịch bệnh</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -815,19 +874,22 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Căn hộ phong cách công nghiệp 'đậm chất lãng mạn'</t>
-        </is>
+      <c r="B20" t="n">
+        <v>18</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HƯNG YÊNCăn hộ thông tầng với tổng diện tích 180 m2 của một người đàn ông độc thân, làm trong ngành xây dựng và có tính cách nghệ sĩ.</t>
+          <t>căn hộ phong cách công nghiệp đậm chất lãng mạn</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>hưng yêncăn hộ thông tầng với tổng diện tích 180 m2 của một người đàn ông độc thân làm trong ngành xây dựng và có tính cách nghệ sĩ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -835,19 +897,22 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Những phụ nữ không muốn làm vợ lần nữa</t>
-        </is>
+      <c r="B21" t="n">
+        <v>19</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ANHKhi Julia Suzuki lắc ly rượu vang trong căn phòng thắp nến, không có người đàn ông nào ngồi trên chiếc ghế sofa ấm cúng cạnh cô.</t>
+          <t>những phụ nữ không muốn làm vợ lần nữa</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>anh khi julia suzuki lắc ly rượu vang trong căn phòng thắp nến không có người đàn ông nào ngồi trên chiếc ghế sofa ấm cúng cạnh cô</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -855,19 +920,22 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Minh Tú: 'Ký ức ngày Tết gắn với bữa cơm gia đình'</t>
-        </is>
+      <c r="B22" t="n">
+        <v>20</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nhắc đến Tết, Minh Tú nghĩ ngay đến bữa cơm sum vầy với các món ngon mẹ nấu như thịt kho, bánh tét, canh khổ qua.</t>
+          <t>minh tú ký ức ngày tết gắn với bữa cơm gia đình</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>nhắc đến tết minh tú nghĩ ngay đến bữa cơm sum vầy với các món ngon mẹ nấu như thịt kho bánh tét canh khổ qua</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -875,19 +943,22 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Những người đón Tết xa quê</t>
-        </is>
+      <c r="B23" t="n">
+        <v>21</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Người đau ốm trong bệnh viện, người xa quê vì dịch covid-19 bùng phát cùng chia sẻ câu chuyện trong chương trình “Tết cách ly - Không cách lòng”.</t>
+          <t>những người đón tết xa quê</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>người đau ốm trong bệnh viện người xa quê vì dịch covid19 bùng phát cùng chia sẻ câu chuyện trong chương trình tết cách ly  không cách lòng</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -895,19 +966,22 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Hoài Linh trăn trở chuyện chăm trẻ qua bài rap</t>
-        </is>
+      <c r="B24" t="n">
+        <v>22</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Hoài Linh và Nhật Anh Trắng trổ tài rap thể hiện nỗi trăn trở con cháu nhà mình cứ mãi thấp còi so với bạn bè đồng trang lứa.</t>
+          <t>hoài linh trăn trở chuyện chăm trẻ qua bài rap</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>hoài linh và nhật anh trắng trổ tài rap thể hiện nỗi trăn trở con cháu nhà mình cứ mãi thấp còi so với bạn bè đồng trang lứa</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -915,19 +989,22 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Trẻ uống nhiều nước thông minh hơn</t>
-        </is>
+      <c r="B25" t="n">
+        <v>23</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Các nhà nghiên cứu tin rằng việc uống nước giúp làm giảm sự lo lắng và cải thiện năng lực tư duy ở trẻ.</t>
+          <t>trẻ uống nhiều nước thông minh hơn</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>các nhà nghiên cứu tin rằng việc uống nước giúp làm giảm sự lo lắng và cải thiện năng lực tư duy ở trẻ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -935,19 +1012,22 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Cách làm nem ốc cho dịp Tết</t>
-        </is>
+      <c r="B26" t="n">
+        <v>24</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Vỏ nem giòn rụm, nhân ngọt thơm và có chút dai sần sật từ ốc, kết hợp với nước chấm mắm chua ngọt sẽ khiến bạn ngỡ ngàng.</t>
+          <t>cách làm nem ốc cho dịp tết</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>vỏ nem giòn rụm nhân ngọt thơm và có chút dai sần sật từ ốc kết hợp với nước chấm mắm chua ngọt sẽ khiến bạn ngỡ ngàng</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -955,19 +1035,22 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Cưới vội vì Covid-19</t>
-        </is>
+      <c r="B27" t="n">
+        <v>25</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MỸTrong khoảng thời gian khó khăn, con người có xu hướng đưa ra những quyết định quan trọng như kết hôn với mong muốn lấy lại sự kiểm soát.</t>
+          <t>cưới vội vì covid19</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>mỹ trong khoảng thời gian khó khăn con người có xu hướng đưa ra những quyết định quan trọng như kết hôn với mong muốn lấy lại sự kiểm soát</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -975,19 +1058,22 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cặp đôi cạo trọc đầu cho nhau trong ngày cưới</t>
-        </is>
+      <c r="B28" t="n">
+        <v>26</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NEW ZEALANDKhi cô dâu Jony và Alistair bước lên sân khấu, mọi người tưởng họ sẽ cùng nhảy điệu truyền thống của Philippines nhưng họ lại quay sang cắt trụi tóc của nhau.</t>
+          <t>cặp đôi cạo trọc đầu cho nhau trong ngày cưới</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>new zealandkhi cô dâu jony và alistair bước lên sân khấu mọi người tưởng họ sẽ cùng nhảy điệu truyền thống của philippines nhưng họ lại quay sang cắt trụi tóc của nhau</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -995,19 +1081,22 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Tình yêu của cô gái 113 kg và anh chàng 63 kg</t>
-        </is>
+      <c r="B29" t="n">
+        <v>27</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CANADABrittany Jacques từng nghĩ sẽ không yêu ai nữa khi bị bạn trai chia tay vì thân hình "quá khổ" của mình, nhưng anh Matt Montgomery đã thay đổi cô.</t>
+          <t>tình yêu của cô gái 113 kg và anh chàng 63 kg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>canadabrittany jacques từng nghĩ sẽ không yêu ai nữa khi bị bạn trai chia tay vì thân hình quá khổ của mình nhưng anh matt montgomery đã thay đổi cô</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1015,19 +1104,22 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Những điều bạn nên dạy con về Tết</t>
-        </is>
+      <c r="B30" t="n">
+        <v>28</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Đón ngày đầu năm mới là trải nghiệm ấm áp, ký ức tuổi thơ ý nghĩa đối với mỗi đứa trẻ và cha mẹ cần giúp con lưu giữ những điều đó.</t>
+          <t>những điều bạn nên dạy con về tết</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>đón ngày đầu năm mới là trải nghiệm ấm áp ký ức tuổi thơ ý nghĩa đối với mỗi đứa trẻ và cha mẹ cần giúp con lưu giữ những điều đó</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1035,19 +1127,22 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>‘Ông đồ nhí’ nổi danh đất Sài Gòn</t>
-        </is>
+      <c r="B31" t="n">
+        <v>29</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tay cầm bút lông, nhìn thẳng vào người ngồi đối diện, cậu bé 13 tuổi Trần Thiên Phú ngẫm nghĩ một thoáng rồi chấm mực, "múa" trên giấy.</t>
+          <t>ông đồ nhí nổi danh đất sài gòn</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>tay cầm bút lông nhìn thẳng vào người ngồi đối diện cậu bé 13 tuổi trần thiên phú ngẫm nghĩ một thoáng rồi chấm mực múa trên giấy</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1055,19 +1150,22 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Gia dụng tiện ích cho dân văn phòng</t>
-        </is>
+      <c r="B32" t="n">
+        <v>30</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ca nấu mì siêu tốc, phích giữ nhiệt, hộp hâm cơm hay quạt cầm tay... giúp dân văn phòng cảm thấy tiện nghi, đủ thiết bị như ở nhà.</t>
+          <t>gia dụng tiện ích cho dân văn phòng</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>ca nấu mì siêu tốc phích giữ nhiệt hộp hâm cơm hay quạt cầm tay giúp dân văn phòng cảm thấy tiện nghi đủ thiết bị như ở nhà</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1075,19 +1173,22 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Gia dụng tiện ích cho dân văn phòng</t>
-        </is>
+      <c r="B33" t="n">
+        <v>31</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ca nấu mì siêu tốc, phích giữ nhiệt, hộp hâm cơm hay quạt cầm tay... giúp dân văn phòng cảm thấy tiện nghi, đủ thiết bị như ở nhà.</t>
+          <t>gia dụng tiện ích cho dân văn phòng</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>ca nấu mì siêu tốc phích giữ nhiệt hộp hâm cơm hay quạt cầm tay giúp dân văn phòng cảm thấy tiện nghi đủ thiết bị như ở nhà</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1095,19 +1196,22 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Trà mật ong Boncha, món quà thanh mát cho sức khỏe</t>
-        </is>
+      <c r="B34" t="n">
+        <v>32</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Trà mật ong Boncha với sự kết hợp của mật ong nguyên chất và lá trà xanh không chỉ giúp giải khát mà còn mang lại nhiều lợi ích sức khỏe cho người dùng.</t>
+          <t>trà mật ong boncha món quà thanh mát cho sức khỏe</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>trà mật ong boncha với sự kết hợp của mật ong nguyên chất và lá trà xanh không chỉ giúp giải khát mà còn mang lại nhiều lợi ích sức khỏe cho người dùng</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1115,19 +1219,22 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Trà mật ong Boncha, món quà thanh mát cho sức khỏe</t>
-        </is>
+      <c r="B35" t="n">
+        <v>33</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Trà mật ong Boncha với sự kết hợp của mật ong nguyên chất và lá trà xanh không chỉ giúp giải khát mà còn mang lại nhiều lợi ích sức khỏe cho người dùng.</t>
+          <t>trà mật ong boncha món quà thanh mát cho sức khỏe</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>trà mật ong boncha với sự kết hợp của mật ong nguyên chất và lá trà xanh không chỉ giúp giải khát mà còn mang lại nhiều lợi ích sức khỏe cho người dùng</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1135,19 +1242,22 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Bí quyết làm cá chiên xù trong 30 phút</t>
-        </is>
+      <c r="B36" t="n">
+        <v>34</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cá chiên xù bên ngoài vàng ươm, giòn rụm, bên trong mềm ngọt tự nhiên, được nhiều trẻ em yêu thích.</t>
+          <t>bí quyết làm cá chiên xù trong 30 phút</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>cá chiên xù bên ngoài vàng ươm giòn rụm bên trong mềm ngọt tự nhiên được nhiều trẻ em yêu thích</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1155,19 +1265,22 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Bí quyết làm cá chiên xù trong 30 phút</t>
-        </is>
+      <c r="B37" t="n">
+        <v>35</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cá chiên xù bên ngoài vàng ươm, giòn rụm, bên trong mềm ngọt tự nhiên, được nhiều trẻ em yêu thích.</t>
+          <t>bí quyết làm cá chiên xù trong 30 phút</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>cá chiên xù bên ngoài vàng ươm giòn rụm bên trong mềm ngọt tự nhiên được nhiều trẻ em yêu thích</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1175,19 +1288,22 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Những nguyên tắc cơ bản khi thiết kế nhà vệ sinh</t>
-        </is>
+      <c r="B38" t="n">
+        <v>36</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Diện tích không lớn song phòng vệ sinh đòi hỏi sự phối hợp khéo léo, hợp lý trên nhiều yếu tố, từ công năng, thẩm mỹ đến kỹ thuật.</t>
+          <t>những nguyên tắc cơ bản khi thiết kế nhà vệ sinh</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>diện tích không lớn song phòng vệ sinh đòi hỏi sự phối hợp khéo léo hợp lý trên nhiều yếu tố từ công năng thẩm mỹ đến kỹ thuật</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1195,19 +1311,22 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Những nguyên tắc cơ bản khi thiết kế nhà vệ sinh</t>
-        </is>
+      <c r="B39" t="n">
+        <v>37</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Diện tích không lớn song phòng vệ sinh đòi hỏi sự phối hợp khéo léo, hợp lý trên nhiều yếu tố, từ công năng, thẩm mỹ đến kỹ thuật.</t>
+          <t>những nguyên tắc cơ bản khi thiết kế nhà vệ sinh</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>diện tích không lớn song phòng vệ sinh đòi hỏi sự phối hợp khéo léo hợp lý trên nhiều yếu tố từ công năng thẩm mỹ đến kỹ thuật</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1215,19 +1334,22 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Diyas Sky thỏa ước mơ an cư của người trẻ</t>
-        </is>
+      <c r="B40" t="n">
+        <v>38</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Căn hộ Diyas Sky có giá chỉ từ 800 triệu đồng, giúp người trẻ thỏa ước mơ an cư lạc nghiệp và thỏa sức sáng tạo phong cách riêng.</t>
+          <t>diyas sky thỏa ước mơ an cư của người trẻ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>căn hộ diyas sky có giá chỉ từ 800 triệu đồng giúp người trẻ thỏa ước mơ an cư lạc nghiệp và thỏa sức sáng tạo phong cách riêng</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1235,19 +1357,22 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Diyas Sky thỏa ước mơ an cư của người trẻ</t>
-        </is>
+      <c r="B41" t="n">
+        <v>39</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Căn hộ Diyas Sky có giá chỉ từ 800 triệu đồng, giúp người trẻ thỏa ước mơ an cư lạc nghiệp và thỏa sức sáng tạo phong cách riêng.</t>
+          <t>diyas sky thỏa ước mơ an cư của người trẻ</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>căn hộ diyas sky có giá chỉ từ 800 triệu đồng giúp người trẻ thỏa ước mơ an cư lạc nghiệp và thỏa sức sáng tạo phong cách riêng</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1255,19 +1380,22 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Nhà 'lô cốt' với 6 mảnh vườn</t>
-        </is>
+      <c r="B42" t="n">
+        <v>40</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HÀ NỘINhìn bên ngoài, ngôi nhà ba tầng ở Thanh Trì giống một lô cốt quân sự nhưng đó là tổ ấm của gia đình năm người, có diện tích 290 m2, thiết kế tối giản.</t>
+          <t>nhà lô cốt với 6 mảnh vườn</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>hà nộinhìn bên ngoài ngôi nhà ba tầng ở thanh trì giống một lô cốt quân sự nhưng đó là tổ ấm của gia đình năm người có diện tích 290 m2 thiết kế tối giản</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1275,19 +1403,22 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Nhà 'lô cốt' với 6 mảnh vườn</t>
-        </is>
+      <c r="B43" t="n">
+        <v>41</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HÀ NỘINhìn bên ngoài, ngôi nhà ba tầng ở Thanh Trì giống một lô cốt quân sự nhưng đó là tổ ấm của gia đình năm người, có diện tích 290 m2, thiết kế tối giản.</t>
+          <t>nhà lô cốt với 6 mảnh vườn</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>hà nộinhìn bên ngoài ngôi nhà ba tầng ở thanh trì giống một lô cốt quân sự nhưng đó là tổ ấm của gia đình năm người có diện tích 290 m2 thiết kế tối giản</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1295,19 +1426,22 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Phân biệt giới tính trong phỏng vấn xin việc</t>
-        </is>
+      <c r="B44" t="n">
+        <v>42</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TRUNG QUỐCKhông may mắn trong tình yêu có thể đồng nghĩa với không may mắn khi xin việc, bởi một số nhà tuyển dụng yêu cầu ứng viên nữ phải kê khai cả "lịch sử hẹn hò".</t>
+          <t>phân biệt giới tính trong phỏng vấn xin việc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>trung quốckhông may mắn trong tình yêu có thể đồng nghĩa với không may mắn khi xin việc bởi một số nhà tuyển dụng yêu cầu ứng viên nữ phải kê khai cả lịch sử hẹn hò</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1315,19 +1449,22 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Phân biệt giới tính trong phỏng vấn xin việc</t>
-        </is>
+      <c r="B45" t="n">
+        <v>43</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TRUNG QUỐCKhông may mắn trong tình yêu có thể đồng nghĩa với không may mắn khi xin việc, bởi một số nhà tuyển dụng yêu cầu ứng viên nữ phải kê khai cả "lịch sử hẹn hò".</t>
+          <t>phân biệt giới tính trong phỏng vấn xin việc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>trung quốckhông may mắn trong tình yêu có thể đồng nghĩa với không may mắn khi xin việc bởi một số nhà tuyển dụng yêu cầu ứng viên nữ phải kê khai cả lịch sử hẹn hò</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1335,19 +1472,22 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Phụ nữ có nên được 'trả lương' cho việc nhà?</t>
-        </is>
+      <c r="B46" t="n">
+        <v>44</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Luật pháp của nhiều quốc gia cho rằng, việc chăm sóc nhà cửa, con cái mà người vợ làm hàng ngày cần phải được trả công như những công việc khác trong xã hội.</t>
+          <t>phụ nữ có nên được trả lương cho việc nhà</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>luật pháp của nhiều quốc gia cho rằng việc chăm sóc nhà cửa con cái mà người vợ làm hàng ngày cần phải được trả công như những công việc khác trong xã hội</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1355,19 +1495,22 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Phụ nữ có nên được 'trả lương' cho việc nhà?</t>
-        </is>
+      <c r="B47" t="n">
+        <v>45</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Luật pháp của nhiều quốc gia cho rằng, việc chăm sóc nhà cửa, con cái mà người vợ làm hàng ngày cần phải được trả công như những công việc khác trong xã hội.</t>
+          <t>phụ nữ có nên được trả lương cho việc nhà</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>luật pháp của nhiều quốc gia cho rằng việc chăm sóc nhà cửa con cái mà người vợ làm hàng ngày cần phải được trả công như những công việc khác trong xã hội</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1375,19 +1518,22 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>8 câu không nên nói với con</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Với cùng một hành động, nhưng cha mẹ có cách nhận xét, thể hiện cảm xúc khác nhau, có thể giúp con trở nên tốt hơn, hoặc ngược lại.</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>với cùng một hành động nhưng cha mẹ có cách nhận xét thể hiện cảm xúc khác nhau có thể giúp con trở nên tốt hơn hoặc ngược lại</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1395,19 +1541,22 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>8 câu không nên nói với con</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Với cùng một hành động, nhưng cha mẹ có cách nhận xét, thể hiện cảm xúc khác nhau, có thể giúp con trở nên tốt hơn, hoặc ngược lại.</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>với cùng một hành động nhưng cha mẹ có cách nhận xét thể hiện cảm xúc khác nhau có thể giúp con trở nên tốt hơn hoặc ngược lại</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1415,19 +1564,22 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Đoán tính cách qua việc bếp núc</t>
-        </is>
+      <c r="B50" t="n">
+        <v>48</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Món ngon ngày Tết không chỉ thỏa mãn vị giác mà còn thể hiện cá tính người nấu, thuộc trường phái vào bếp siêu tốc hay theo hướng ngon và khỏe.</t>
+          <t>đoán tính cách qua việc bếp núc</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>món ngon ngày tết không chỉ thỏa mãn vị giác mà còn thể hiện cá tính người nấu thuộc trường phái vào bếp siêu tốc hay theo hướng ngon và khỏe</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1435,19 +1587,22 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Đoán tính cách qua việc bếp núc</t>
-        </is>
+      <c r="B51" t="n">
+        <v>49</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Món ngon ngày Tết không chỉ thỏa mãn vị giác mà còn thể hiện cá tính người nấu, thuộc trường phái vào bếp siêu tốc hay theo hướng ngon và khỏe.</t>
+          <t>đoán tính cách qua việc bếp núc</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>món ngon ngày tết không chỉ thỏa mãn vị giác mà còn thể hiện cá tính người nấu thuộc trường phái vào bếp siêu tốc hay theo hướng ngon và khỏe</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1455,19 +1610,22 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>MC Thùy Minh: 'Nấu nướng giúp tôi giải tỏa áp lực'</t>
-        </is>
+      <c r="B52" t="n">
+        <v>50</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mỗi khi công việc áp lực, Thùy Minh thường tìm niềm vui bằng cách vào bếp làm món cá hồi kho tộ, tôm càng sốt trứng muối… cho gia đình.</t>
+          <t>mc thùy minh nấu nướng giúp tôi giải tỏa áp lực</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>mỗi khi công việc áp lực thùy minh thường tìm niềm vui bằng cách vào bếp làm món cá hồi kho tộ tôm càng sốt trứng muối cho gia đình</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1475,19 +1633,22 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>MC Thùy Minh: 'Nấu nướng giúp tôi giải tỏa áp lực'</t>
-        </is>
+      <c r="B53" t="n">
+        <v>51</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mỗi khi công việc áp lực, Thùy Minh thường tìm niềm vui bằng cách vào bếp làm món cá hồi kho tộ, tôm càng sốt trứng muối… cho gia đình.</t>
+          <t>mc thùy minh nấu nướng giúp tôi giải tỏa áp lực</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>mỗi khi công việc áp lực thùy minh thường tìm niềm vui bằng cách vào bếp làm món cá hồi kho tộ tôm càng sốt trứng muối cho gia đình</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1495,19 +1656,22 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Giáo sư sử học Lê Văn Lan chia sẻ chuyện bếp núc xưa và nay</t>
-        </is>
+      <c r="B54" t="n">
+        <v>52</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nếu phụ nữ xưa phần lớn chỉ lo chuyện bếp núc thì chị em thời nay còn vươn lên khẳng định vị thế trong xã hội.</t>
+          <t>giáo sư sử học lê văn lan chia sẻ chuyện bếp núc xưa và nay</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>nếu phụ nữ xưa phần lớn chỉ lo chuyện bếp núc thì chị em thời nay còn vươn lên khẳng định vị thế trong xã hội</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1515,19 +1679,22 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Giáo sư sử học Lê Văn Lan chia sẻ chuyện bếp núc xưa và nay</t>
-        </is>
+      <c r="B55" t="n">
+        <v>53</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nếu phụ nữ xưa phần lớn chỉ lo chuyện bếp núc thì chị em thời nay còn vươn lên khẳng định vị thế trong xã hội.</t>
+          <t>giáo sư sử học lê văn lan chia sẻ chuyện bếp núc xưa và nay</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>nếu phụ nữ xưa phần lớn chỉ lo chuyện bếp núc thì chị em thời nay còn vươn lên khẳng định vị thế trong xã hội</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1535,19 +1702,22 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Người phụ nữ 'vẽ tranh' bằng đất sét</t>
-        </is>
+      <c r="B56" t="n">
+        <v>54</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TP HCMSau khi học làm hoa đất sét và vẽ tranh, chị Phạm Thị Giáng Sinh, 39 tuổi, nảy ra ý tưởng làm tranh bằng loại vật liệu mới này.</t>
+          <t>người phụ nữ vẽ tranh bằng đất sét</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>tp hcmsau khi học làm hoa đất sét và vẽ tranh chị phạm thị giáng sinh 39 tuổi nảy ra ý tưởng làm tranh bằng loại vật liệu mới này</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1555,19 +1725,22 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Người phụ nữ 'vẽ tranh' bằng đất sét</t>
-        </is>
+      <c r="B57" t="n">
+        <v>55</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TP HCMSau khi học làm hoa đất sét và vẽ tranh, chị Phạm Thị Giáng Sinh, 39 tuổi, nảy ra ý tưởng làm tranh bằng loại vật liệu mới này.</t>
+          <t>người phụ nữ vẽ tranh bằng đất sét</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>tp hcmsau khi học làm hoa đất sét và vẽ tranh chị phạm thị giáng sinh 39 tuổi nảy ra ý tưởng làm tranh bằng loại vật liệu mới này</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1575,19 +1748,22 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Những phụ nữ mang thai hộ ở Mỹ</t>
-        </is>
+      <c r="B58" t="n">
+        <v>56</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Không nhắm đến tiền bồi dưỡng, nhiều phụ nữ đồng ý mang thai hộ với mong ước giúp người khác xây dựng một gia đình đúng nghĩa.</t>
+          <t>những phụ nữ mang thai hộ ở mỹ</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>không nhắm đến tiền bồi dưỡng nhiều phụ nữ đồng ý mang thai hộ với mong ước giúp người khác xây dựng một gia đình đúng nghĩa</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1595,19 +1771,22 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Những phụ nữ mang thai hộ ở Mỹ</t>
-        </is>
+      <c r="B59" t="n">
+        <v>57</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Không nhắm đến tiền bồi dưỡng, nhiều phụ nữ đồng ý mang thai hộ với mong ước giúp người khác xây dựng một gia đình đúng nghĩa.</t>
+          <t>những phụ nữ mang thai hộ ở mỹ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>không nhắm đến tiền bồi dưỡng nhiều phụ nữ đồng ý mang thai hộ với mong ước giúp người khác xây dựng một gia đình đúng nghĩa</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1615,19 +1794,22 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Bác sĩ Anh Thơ: 'Yêu thương tạo nên sức mạnh'</t>
-        </is>
+      <c r="B60" t="n">
+        <v>58</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bác sĩ Anh Thơ (Bệnh viện Chợ Rẫy) yên tâm tham gia chống dịch vì phía sau luôn có người thân hỗ trợ, động viên; đồng đội cùng sát cánh.</t>
+          <t>bác sĩ anh thơ yêu thương tạo nên sức mạnh</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>bác sĩ anh thơ bệnh viện chợ rẫy yên tâm tham gia chống dịch vì phía sau luôn có người thân hỗ trợ động viên đồng đội cùng sát cánh</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1635,19 +1817,22 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Bác sĩ Anh Thơ: 'Yêu thương tạo nên sức mạnh'</t>
-        </is>
+      <c r="B61" t="n">
+        <v>59</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bác sĩ Anh Thơ (Bệnh viện Chợ Rẫy) yên tâm tham gia chống dịch vì phía sau luôn có người thân hỗ trợ, động viên; đồng đội cùng sát cánh.</t>
+          <t>bác sĩ anh thơ yêu thương tạo nên sức mạnh</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Đời sống</t>
+          <t>bác sĩ anh thơ bệnh viện chợ rẫy yên tâm tham gia chống dịch vì phía sau luôn có người thân hỗ trợ động viên đồng đội cùng sát cánh</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>đời sống</t>
         </is>
       </c>
     </row>
@@ -1655,19 +1840,22 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Đại học Thương mại tăng chỉ tiêu tuyển sinh</t>
-        </is>
+      <c r="B62" t="n">
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Năm nay, Đại học Thương mại tuyển 4.000 sinh viên, tăng 200 so với năm ngoái, cho hơn 20 ngành và chuyên ngành đào tạo.</t>
+          <t>đại học thương mại tăng chỉ tiêu tuyển sinh</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>năm nay đại học thương mại tuyển 4000 sinh viên tăng 200 so với năm ngoái cho hơn 20 ngành và chuyên ngành đào tạo</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1675,19 +1863,22 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Bài tập về giới từ 'of' và 'from'</t>
-        </is>
+      <c r="B63" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"He's suffering ____ prostate cancer". Bạn cần điền "of" hay "from" vào chỗ trống trong câu?</t>
+          <t>bài tập về giới từ of và from</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>hes suffering ____ prostate cancer bạn cần điền of hay from vào chỗ trống trong câu</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1695,19 +1886,22 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Giúp trẻ sáng tạo với màu vẽ</t>
-        </is>
+      <c r="B64" t="n">
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Thay vì dùng cọ vẽ thông thường, bạn có thể để trẻ dùng thân hoặc lá cây, vẽ bằng chân hoặc chơi trò vẽ theo bảng chữ cái.</t>
+          <t>giúp trẻ sáng tạo với màu vẽ</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>thay vì dùng cọ vẽ thông thường bạn có thể để trẻ dùng thân hoặc lá cây vẽ bằng chân hoặc chơi trò vẽ theo bảng chữ cái</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1715,19 +1909,22 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Đại học Luật TP HCM tuyển thẳng hơn 700 sinh viên</t>
-        </is>
+      <c r="B65" t="n">
+        <v>3</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Tuyển 2.100 chỉ tiêu, Đại học Luật TP HCM dành 35% cho phương thức xét tuyển thẳng và ưu tiên xét tuyển thẳng cho học sinh giỏi hoặc có trình độ ngoại ngữ cao.</t>
+          <t>đại học luật tp hcm tuyển thẳng hơn 700 sinh viên</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>tuyển 2100 chỉ tiêu đại học luật tp hcm dành 35 cho phương thức xét tuyển thẳng và ưu tiên xét tuyển thẳng cho học sinh giỏi hoặc có trình độ ngoại ngữ cao</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1735,19 +1932,22 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Ai là tác giả 'Những người khốn khổ'?</t>
-        </is>
+      <c r="B66" t="n">
+        <v>4</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ông sinh năm 1802, mất 1885 và là tác giả của hai tác phẩm nổi tiếng "Nhà thờ Đức Bà Paris" và "Những người khốn khổ".</t>
+          <t>ai là tác giả những người khốn khổ</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>ông sinh năm 1802 mất 1885 và là tác giả của hai tác phẩm nổi tiếng nhà thờ đức bà paris và những người khốn khổ</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1755,19 +1955,22 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>So sánh ba bài thi đánh giá năng lực năm 2021</t>
-        </is>
+      <c r="B67" t="n">
+        <v>5</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Bài thi đánh giá năng lực của ĐH Quốc gia Hà Nội, ĐH Quốc gia TP HCM hoàn toàn trắc nghiệm, của ĐH Bách khoa Hà Nội có một phần tự luận.</t>
+          <t>so sánh ba bài thi đánh giá năng lực năm 2021</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>bài thi đánh giá năng lực của đh quốc gia hà nội đh quốc gia tp hcm hoàn toàn trắc nghiệm của đh bách khoa hà nội có một phần tự luận</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1775,19 +1978,22 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Xông vào trường bắt, đánh 3 học sinh</t>
-        </is>
+      <c r="B68" t="n">
+        <v>6</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ĐỒNG THÁPHai nhóm thanh niên đến hai trường THPT ở huyện Tháp Mười bắt ba nam sinh lớp 11 và 12 chở đến nơi vắng đánh đập, phải nhập viện.</t>
+          <t>xông vào trường bắt đánh 3 học sinh</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>đồng tháphai nhóm thanh niên đến hai trường thpt ở huyện tháp mười bắt ba nam sinh lớp 11 và 12 chở đến nơi vắng đánh đập phải nhập viện</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -1795,19 +2001,22 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Học sinh TP HCM trở lại trường ngày 1/3</t>
-        </is>
+      <c r="B69" t="n">
+        <v>7</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Hơn 1,74 triệu học sinh toàn thành phố sẽ học tập trung từ ngày 1/3, thực hiện nghiêm các biện pháp phòng chống Covid-19.</t>
+          <t>học sinh tp hcm trở lại trường ngày 13</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>hơn 174 triệu học sinh toàn thành phố sẽ học tập trung từ ngày 13 thực hiện nghiêm các biện pháp phòng chống covid19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1815,19 +2024,22 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Nỗi lo học sinh hổng kiến thức khi học online</t>
-        </is>
+      <c r="B70" t="n">
+        <v>8</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Thầy Nguyễn Xuân Khang, Hiệu trưởng trường Marie Curie, Hà Nội, cho rằng hiệu quả học online chỉ khoảng 50% so với học trực tiếp, học sinh cuối cấp thiệt thòi.</t>
+          <t>nỗi lo học sinh hổng kiến thức khi học online</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>thầy nguyễn xuân khang hiệu trưởng trường marie curie hà nội cho rằng hiệu quả học online chỉ khoảng 50 so với học trực tiếp học sinh cuối cấp thiệt thòi</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1835,19 +2047,22 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Bảy cách học tiếng Anh khi không có Internet</t>
-        </is>
+      <c r="B71" t="n">
+        <v>9</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Không có Internet, bạn vẫn có thể học tiếng Anh thông qua trò chơi, gặp gỡ nhóm, ghi nhật ký từ vựng hay tận dụng chế độ offline trên các ứng dụng tiếng Anh.</t>
+          <t>bảy cách học tiếng anh khi không có internet</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>không có internet bạn vẫn có thể học tiếng anh thông qua trò chơi gặp gỡ nhóm ghi nhật ký từ vựng hay tận dụng chế độ offline trên các ứng dụng tiếng anh</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1855,19 +2070,22 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>5 phương thức tuyển sinh của Đại học Mỏ - Địa chất</t>
-        </is>
+      <c r="B72" t="n">
+        <v>10</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Năm 2021, Đại học Mỏ - Địa chất sẽ tuyển sinh theo 5 phương thức, trong đó bổ sung tuyển theo điểm thi đánh giá tư duy của Đại học Bách khoa Hà Nội.</t>
+          <t>5 phương thức tuyển sinh của đại học mỏ  địa chất</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>năm 2021 đại học mỏ  địa chất sẽ tuyển sinh theo 5 phương thức trong đó bổ sung tuyển theo điểm thi đánh giá tư duy của đại học bách khoa hà nội</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1875,19 +2093,22 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Dạy trẻ làm thiệp thủ công</t>
-        </is>
+      <c r="B73" t="n">
+        <v>11</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Từ giấy màu và bìa cứng, bạn có thể hướng dẫn trẻ sáng tạo những tấm thiệp thủ công đơn giản nhưng vẫn rất xinh xắn</t>
+          <t>dạy trẻ làm thiệp thủ công</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>từ giấy màu và bìa cứng bạn có thể hướng dẫn trẻ sáng tạo những tấm thiệp thủ công đơn giản nhưng vẫn rất xinh xắn</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1895,19 +2116,22 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Đề xuất học sinh TP HCM trở lại trường ngày 1/3</t>
-        </is>
+      <c r="B74" t="n">
+        <v>12</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sở Giáo dục và Đào tạo TP HCM cho rằng ngày 1/3 là thời điểm phù hợp để hơn 1,74 triệu học sinh đi học trở lại, căn cứ theo tình hình phòng chống Covid-19.</t>
+          <t>đề xuất học sinh tp hcm trở lại trường ngày 13</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>sở giáo dục và đào tạo tp hcm cho rằng ngày 13 là thời điểm phù hợp để hơn 174 triệu học sinh đi học trở lại căn cứ theo tình hình phòng chống covid19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1915,19 +2139,22 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Hải Phòng xem xét giảm một môn thi vào lớp 10</t>
-        </is>
+      <c r="B75" t="n">
+        <v>13</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HẢI PHÒNGThay vì thi 4 môn vào lớp 10 công lập, Sở Giáo dục và Đào tạo thành phố kiến nghị thi 3 môn để giảm áp lực cho học sinh trong bối cảnh Covid-19.</t>
+          <t>hải phòng xem xét giảm một môn thi vào lớp 10</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>hải phòngthay vì thi 4 môn vào lớp 10 công lập sở giáo dục và đào tạo thành phố kiến nghị thi 3 môn để giảm áp lực cho học sinh trong bối cảnh covid19</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1935,19 +2162,22 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Tên 24 loại quả trong tiếng Anh</t>
-        </is>
+      <c r="B76" t="n">
+        <v>14</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Cantaloupe" là dưa lưới, "fig" là quả sung, "mangosteen" là quả măng cụt.</t>
+          <t>tên 24 loại quả trong tiếng anh</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>cantaloupe là dưa lưới fig là quả sung mangosteen là quả măng cụt</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1955,19 +2185,22 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Trường học tìm cách bảo mật lớp học online</t>
-        </is>
+      <c r="B77" t="n">
+        <v>15</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Để tránh người lạ xâm nhập phá lớp học, hoặc liên tục bị thoát, nhiều trường học đã mua, hoặc xin phép dùng phần mềm có bản quyền.</t>
+          <t>trường học tìm cách bảo mật lớp học online</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>để tránh người lạ xâm nhập phá lớp học hoặc liên tục bị thoát nhiều trường học đã mua hoặc xin phép dùng phần mềm có bản quyền</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1975,19 +2208,22 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Tìm người có hành động không phù hợp</t>
-        </is>
+      <c r="B78" t="n">
+        <v>16</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Trong mỗi bức tranh, một người đang dùng đồ vật không phù hợp với thời đại. Liệu bạn có tinh mắt, hiểu biết về các giai đoạn lịch sử để tìm ra?</t>
+          <t>tìm người có hành động không phù hợp</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>trong mỗi bức tranh một người đang dùng đồ vật không phù hợp với thời đại liệu bạn có tinh mắt hiểu biết về các giai đoạn lịch sử để tìm ra</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -1995,19 +2231,22 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Dạy trẻ biến đồ gia dụng thành đồ chơi</t>
-        </is>
+      <c r="B79" t="n">
+        <v>17</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Với chiếc rổ quay salad, bạn có thể giúp trẻ học về sự chuyển động hoặc tạo ra một màn "trình diễn ánh sáng" với màu nước và đèn pin.</t>
+          <t>dạy trẻ biến đồ gia dụng thành đồ chơi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>với chiếc rổ quay salad bạn có thể giúp trẻ học về sự chuyển động hoặc tạo ra một màn trình diễn ánh sáng với màu nước và đèn pin</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2015,19 +2254,22 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Đại học Giao thông Vận tải tuyển 4.200 sinh viên</t>
-        </is>
+      <c r="B80" t="n">
+        <v>18</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Năm 2021, Đại học Giao thông Vận tải (Hà Nội) dự kiến tuyển 4.200 sinh viên bằng bốn phương thức tuyển sinh.</t>
+          <t>đại học giao thông vận tải tuyển 4200 sinh viên</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>năm 2021 đại học giao thông vận tải hà nội dự kiến tuyển 4200 sinh viên bằng bốn phương thức tuyển sinh</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2035,19 +2277,22 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Thầy giáo biến xe ba bánh thành lớp học lưu động</t>
-        </is>
+      <c r="B81" t="n">
+        <v>19</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GUATEMALAGerardo Ixcoy, 27 tuổi, giáo viên tại Santa Cruz Del Quiche, đã đầu tư tiền tiết kiệm để biến chiếc xe ba bánh thành lớp học lưu động.</t>
+          <t>thầy giáo biến xe ba bánh thành lớp học lưu động</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>guatemalagerardo ixcoy 27 tuổi giáo viên tại santa cruz del quiche đã đầu tư tiền tiết kiệm để biến chiếc xe ba bánh thành lớp học lưu động</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2055,19 +2300,22 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Tìm hình ẩn trong tranh</t>
-        </is>
+      <c r="B82" t="n">
+        <v>20</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Giữa đầm sen, liệu bạn có thể tìm ra con ếch hoặc phát hiện một chiếc chuông ẩn dưới hàng chục chìa khóa khác nhau?</t>
+          <t>tìm hình ẩn trong tranh</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>giữa đầm sen liệu bạn có thể tìm ra con ếch hoặc phát hiện một chiếc chuông ẩn dưới hàng chục chìa khóa khác nhau</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2075,19 +2323,22 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Học sinh Hải Dương đang học thế nào?</t>
-        </is>
+      <c r="B83" t="n">
+        <v>21</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Trong khi trường học ở nơi ít ca nhiễm dạy online suôn sẻ, trường học có học sinh F1 phải hoãn học và lên kế hoạch dạy bù dài ngày.</t>
+          <t>học sinh hải dương đang học thế nào</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>trong khi trường học ở nơi ít ca nhiễm dạy online suôn sẻ trường học có học sinh f1 phải hoãn học và lên kế hoạch dạy bù dài ngày</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2095,19 +2346,22 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Hải Phòng dừng dạy học online với trẻ lớp 1, 2</t>
-        </is>
+      <c r="B84" t="n">
+        <v>22</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Từ ngày 22/2, Sở Giáo dục và Đào tạo TP Hải Phòng dừng dạy học online với học sinh lớp 1, 2 do không hiệu quả.</t>
+          <t>hải phòng dừng dạy học online với trẻ lớp 1 2</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>từ ngày 222 sở giáo dục và đào tạo tp hải phòng dừng dạy học online với học sinh lớp 1 2 do không hiệu quả</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2115,19 +2369,22 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Kỳ thi 'sinh tử' của Trung Quốc được tổ chức đầu tháng 6</t>
-        </is>
+      <c r="B85" t="n">
+        <v>23</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ngày 19/2, Bộ Giáo dục Trung Quốc ấn định kỳ thi đại học (gaokao) của nước này sẽ diễn ra trong hai ngày 7-8/6, sớm hơn năm ngoái một tháng.</t>
+          <t>kỳ thi sinh tử của trung quốc được tổ chức đầu tháng 6</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>ngày 192 bộ giáo dục trung quốc ấn định kỳ thi đại học gaokao của nước này sẽ diễn ra trong hai ngày 786 sớm hơn năm ngoái một tháng</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2135,19 +2392,22 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Phương án tuyển sinh các trường thuộc Đại học Quốc gia TP HCM</t>
-        </is>
+      <c r="B86" t="n">
+        <v>24</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>8 trường, khoa, thuộc Đại học Quốc gia TP HCM đã công bố phương án tuyển sinh dự kiến năm 2021 với khoảng 20.000 chỉ tiêu và hàng loạt ngành mới.</t>
+          <t>phương án tuyển sinh các trường thuộc đại học quốc gia tp hcm</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>8 trường khoa thuộc đại học quốc gia tp hcm đã công bố phương án tuyển sinh dự kiến năm 2021 với khoảng 20000 chỉ tiêu và hàng loạt ngành mới</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2155,19 +2415,22 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Học viện Nông nghiệp Việt Nam giảm chỉ tiêu tuyển sinh</t>
-        </is>
+      <c r="B87" t="n">
+        <v>25</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Năm 2021, Học viện Nông nghiệp Việt Nam tuyển 4.671 sinh viên tại 55 ngành, thấp hơn năm ngoái gần 1.000 dù số ngành tăng thêm 3.</t>
+          <t>học viện nông nghiệp việt nam giảm chỉ tiêu tuyển sinh</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>năm 2021 học viện nông nghiệp việt nam tuyển 4671 sinh viên tại 55 ngành thấp hơn năm ngoái gần 1000 dù số ngành tăng thêm 3</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2175,19 +2438,22 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>19 tỉnh, thành điều chỉnh lịch đến trường</t>
-        </is>
+      <c r="B88" t="n">
+        <v>26</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Đến sáng 22/2, 19 tỉnh, thành đã điều chỉnh thời gian đến trường của học sinh, nhiều nơi quyết định học tập trung từ 22/2.</t>
+          <t>19 tỉnh thành điều chỉnh lịch đến trường</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>đến sáng 222 19 tỉnh thành đã điều chỉnh thời gian đến trường của học sinh nhiều nơi quyết định học tập trung từ 222</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2195,19 +2461,22 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Cách mô tả hương vị món ăn bằng tiếng Anh</t>
-        </is>
+      <c r="B89" t="n">
+        <v>27</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Nếu món ăn ngon, bạn có thể nói "Tastes great!", "Wow, [this food] is amazing!" hoặc sử dụng một số tính từ như "yummy", "mouth-watering" thay cho "delicious".</t>
+          <t>cách mô tả hương vị món ăn bằng tiếng anh</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>nếu món ăn ngon bạn có thể nói tastes great wow this food is amazing hoặc sử dụng một số tính từ như yummy mouthwatering thay cho delicious</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2215,19 +2484,22 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Tìm người khác biệt</t>
-        </is>
+      <c r="B90" t="n">
+        <v>28</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Bạn có 10 giây để tìm ra người có đặc điểm hoặc hành động khác biệt so với những người còn lại trong mỗi hình.</t>
+          <t>tìm người khác biệt</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>bạn có 10 giây để tìm ra người có đặc điểm hoặc hành động khác biệt so với những người còn lại trong mỗi hình</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2235,19 +2507,22 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>CATS Academy Boston cấp học bổng toàn phần</t>
-        </is>
+      <c r="B91" t="n">
+        <v>29</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CATS Academy Boston cấp 15 suất học bổng Merit với mức tài trợ từ 20% đến 50% và 5 suất học bổng IVY toàn phần.</t>
+          <t>cats academy boston cấp học bổng toàn phần</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>cats academy boston cấp 15 suất học bổng merit với mức tài trợ từ 20 đến 50 và 5 suất học bổng ivy toàn phần</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2255,19 +2530,22 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>CATS Academy Boston cấp học bổng toàn phần</t>
-        </is>
+      <c r="B92" t="n">
+        <v>30</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CATS Academy Boston cấp 15 suất học bổng Merit với mức tài trợ từ 20% đến 50% và 5 suất học bổng IVY toàn phần.</t>
+          <t>cats academy boston cấp học bổng toàn phần</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>cats academy boston cấp 15 suất học bổng merit với mức tài trợ từ 20 đến 50 và 5 suất học bổng ivy toàn phần</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2275,19 +2553,22 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Nữ sinh Việt chia sẻ bí quyết giành học bổng 100% ĐH Melbourne</t>
-        </is>
+      <c r="B93" t="n">
+        <v>31</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Đàm Hạnh Chi, cựu học sinh trường THPT Amsterdam, đã đạt GPA 9.9/10, IELTS 8.0, SAT 1500/1600 để giành được học bổng 100% học phí từ Đại học Melbourne (Unimelb).</t>
+          <t>nữ sinh việt chia sẻ bí quyết giành học bổng 100 đh melbourne</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>đàm hạnh chi cựu học sinh trường thpt amsterdam đã đạt gpa 9910 ielts 80 sat 15001600 để giành được học bổng 100 học phí từ đại học melbourne unimelb</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2295,19 +2576,22 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Nữ sinh Việt chia sẻ bí quyết giành học bổng 100% ĐH Melbourne</t>
-        </is>
+      <c r="B94" t="n">
+        <v>32</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Đàm Hạnh Chi, cựu học sinh trường THPT Amsterdam, đã đạt GPA 9.9/10, IELTS 8.0, SAT 1500/1600 để giành được học bổng 100% học phí từ Đại học Melbourne (Unimelb).</t>
+          <t>nữ sinh việt chia sẻ bí quyết giành học bổng 100 đh melbourne</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>đàm hạnh chi cựu học sinh trường thpt amsterdam đã đạt gpa 9910 ielts 80 sat 15001600 để giành được học bổng 100 học phí từ đại học melbourne unimelb</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2315,19 +2599,22 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Nữ sinh chia sẻ cách giành học bổng 100% từ ĐH La Trobe</t>
-        </is>
+      <c r="B95" t="n">
+        <v>33</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TP HCMNgô Hoàng Anh chia sẻ việc lên kế hoạch, cách viết bài luận hữu ích... để thành công chinh phục học bổng toàn phần của ĐH La Trobe.</t>
+          <t>nữ sinh chia sẻ cách giành học bổng 100 từ đh la trobe</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>tp hcmngô hoàng anh chia sẻ việc lên kế hoạch cách viết bài luận hữu ích để thành công chinh phục học bổng toàn phần của đh la trobe</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2335,19 +2622,22 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Nữ sinh chia sẻ cách giành học bổng 100% từ ĐH La Trobe</t>
-        </is>
+      <c r="B96" t="n">
+        <v>34</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TP HCMNgô Hoàng Anh chia sẻ việc lên kế hoạch, cách viết bài luận hữu ích... để thành công chinh phục học bổng toàn phần của ĐH La Trobe.</t>
+          <t>nữ sinh chia sẻ cách giành học bổng 100 từ đh la trobe</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>tp hcmngô hoàng anh chia sẻ việc lên kế hoạch cách viết bài luận hữu ích để thành công chinh phục học bổng toàn phần của đh la trobe</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2355,19 +2645,22 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Ai là tác giả truyện ngắn 'Hai đứa trẻ'?</t>
-        </is>
+      <c r="B97" t="n">
+        <v>35</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Thuộc nhóm "Tự lực văn đoàn", ông thường viết những truyện không có chuyện, khai thác thế giới nội tâm của nhân vật với xúc cảm mong manh, mơ hồ.</t>
+          <t>ai là tác giả truyện ngắn hai đứa trẻ</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>thuộc nhóm tự lực văn đoàn ông thường viết những truyện không có chuyện khai thác thế giới nội tâm của nhân vật với xúc cảm mong manh mơ hồ</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2375,19 +2668,22 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Ai là tác giả truyện ngắn 'Hai đứa trẻ'?</t>
-        </is>
+      <c r="B98" t="n">
+        <v>36</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Thuộc nhóm "Tự lực văn đoàn", ông thường viết những truyện không có chuyện, khai thác thế giới nội tâm của nhân vật với xúc cảm mong manh, mơ hồ.</t>
+          <t>ai là tác giả truyện ngắn hai đứa trẻ</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>thuộc nhóm tự lực văn đoàn ông thường viết những truyện không có chuyện khai thác thế giới nội tâm của nhân vật với xúc cảm mong manh mơ hồ</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2395,19 +2691,22 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Ai được ca ngợi là 'Tấm gương phản chiếu cách mạng Nga'?</t>
-        </is>
+      <c r="B99" t="n">
+        <v>37</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ông sinh năm 1828 trong gia đình quý tộc, từng gia nhập quân đội và là tác giả của nhiều tác phẩm phản ánh chân thực cách mạng Nga.</t>
+          <t>ai được ca ngợi là tấm gương phản chiếu cách mạng nga</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>ông sinh năm 1828 trong gia đình quý tộc từng gia nhập quân đội và là tác giả của nhiều tác phẩm phản ánh chân thực cách mạng nga</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2415,19 +2714,22 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Ai được ca ngợi là 'Tấm gương phản chiếu cách mạng Nga'?</t>
-        </is>
+      <c r="B100" t="n">
+        <v>38</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ông sinh năm 1828 trong gia đình quý tộc, từng gia nhập quân đội và là tác giả của nhiều tác phẩm phản ánh chân thực cách mạng Nga.</t>
+          <t>ai được ca ngợi là tấm gương phản chiếu cách mạng nga</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>ông sinh năm 1828 trong gia đình quý tộc từng gia nhập quân đội và là tác giả của nhiều tác phẩm phản ánh chân thực cách mạng nga</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2435,19 +2737,22 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>39</v>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>5 câu đố về những bài thơ xuân nổi tiếng</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Ngoài Thế Lữ, Nguyễn Bính, Xuân Diệu, hàng loạt nhà thơ trong phong trào Thơ Mới có tác phẩm hay về mùa xuân, được trích trong tập "Thi nhân Việt Nam" 1942.</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>ngoài thế lữ nguyễn bính xuân diệu hàng loạt nhà thơ trong phong trào thơ mới có tác phẩm hay về mùa xuân được trích trong tập thi nhân việt nam 1942</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2455,19 +2760,22 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>40</v>
+      </c>
+      <c r="C102" t="inlineStr">
         <is>
           <t>5 câu đố về những bài thơ xuân nổi tiếng</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Ngoài Thế Lữ, Nguyễn Bính, Xuân Diệu, hàng loạt nhà thơ trong phong trào Thơ Mới có tác phẩm hay về mùa xuân, được trích trong tập "Thi nhân Việt Nam" 1942.</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>ngoài thế lữ nguyễn bính xuân diệu hàng loạt nhà thơ trong phong trào thơ mới có tác phẩm hay về mùa xuân được trích trong tập thi nhân việt nam 1942</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2475,19 +2783,22 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Phương thức tuyển sinh vào lớp 1 và 6 tại Hà Nội</t>
-        </is>
+      <c r="B103" t="n">
+        <v>41</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Năm học 2021-2022, học sinh chuẩn bị vào lớp 1 và 6 sẽ phải xét tuyển hoặc thi tuyển trong tháng 6-7, sớm hơn năm ngoái khoảng một tháng.</t>
+          <t>phương thức tuyển sinh vào lớp 1 và 6 tại hà nội</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>năm học 20212022 học sinh chuẩn bị vào lớp 1 và 6 sẽ phải xét tuyển hoặc thi tuyển trong tháng 67 sớm hơn năm ngoái khoảng một tháng</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2495,19 +2806,22 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Phương thức tuyển sinh vào lớp 1 và 6 tại Hà Nội</t>
-        </is>
+      <c r="B104" t="n">
+        <v>42</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Năm học 2021-2022, học sinh chuẩn bị vào lớp 1 và 6 sẽ phải xét tuyển hoặc thi tuyển trong tháng 6-7, sớm hơn năm ngoái khoảng một tháng.</t>
+          <t>phương thức tuyển sinh vào lớp 1 và 6 tại hà nội</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>năm học 20212022 học sinh chuẩn bị vào lớp 1 và 6 sẽ phải xét tuyển hoặc thi tuyển trong tháng 67 sớm hơn năm ngoái khoảng một tháng</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2515,19 +2829,22 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Đại học Lâm nghiệp tuyển sinh theo bốn phương thức</t>
-        </is>
+      <c r="B105" t="n">
+        <v>43</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ngoài xét học bạ và điểm thi tốt nghiệp THPT, Đại học Lâm nghiệp tuyển sinh theo đơn đặt hàng, dựa vào bài thi riêng của Đại học Quốc gia Hà Nội.</t>
+          <t>đại học lâm nghiệp tuyển sinh theo bốn phương thức</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>ngoài xét học bạ và điểm thi tốt nghiệp thpt đại học lâm nghiệp tuyển sinh theo đơn đặt hàng dựa vào bài thi riêng của đại học quốc gia hà nội</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2535,19 +2852,22 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Đại học Lâm nghiệp tuyển sinh theo bốn phương thức</t>
-        </is>
+      <c r="B106" t="n">
+        <v>44</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ngoài xét học bạ và điểm thi tốt nghiệp THPT, Đại học Lâm nghiệp tuyển sinh theo đơn đặt hàng, dựa vào bài thi riêng của Đại học Quốc gia Hà Nội.</t>
+          <t>đại học lâm nghiệp tuyển sinh theo bốn phương thức</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>ngoài xét học bạ và điểm thi tốt nghiệp thpt đại học lâm nghiệp tuyển sinh theo đơn đặt hàng dựa vào bài thi riêng của đại học quốc gia hà nội</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2555,19 +2875,22 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Nhiều đại học bắt đầu nhận hồ sơ xét tuyển bằng học bạ</t>
-        </is>
+      <c r="B107" t="n">
+        <v>45</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>HÀ NỘIĐại học Điện lực, Học viện Chính sách và Phát triển bắt đầu nhận hồ sơ xét tuyển vào hệ đại học chính quy theo phương thức xét học bạ THPT.</t>
+          <t>nhiều đại học bắt đầu nhận hồ sơ xét tuyển bằng học bạ</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>hà nộiđại học điện lực học viện chính sách và phát triển bắt đầu nhận hồ sơ xét tuyển vào hệ đại học chính quy theo phương thức xét học bạ thpt</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2575,19 +2898,22 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Nhiều đại học bắt đầu nhận hồ sơ xét tuyển bằng học bạ</t>
-        </is>
+      <c r="B108" t="n">
+        <v>46</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HÀ NỘIĐại học Điện lực, Học viện Chính sách và Phát triển bắt đầu nhận hồ sơ xét tuyển vào hệ đại học chính quy theo phương thức xét học bạ THPT.</t>
+          <t>nhiều đại học bắt đầu nhận hồ sơ xét tuyển bằng học bạ</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>hà nộiđại học điện lực học viện chính sách và phát triển bắt đầu nhận hồ sơ xét tuyển vào hệ đại học chính quy theo phương thức xét học bạ thpt</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2595,19 +2921,22 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Bài tập ngữ pháp tiếng Anh</t>
-        </is>
+      <c r="B109" t="n">
+        <v>47</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"_____ I am with you, I can't stop smiling", bạn sẽ điền "Whatever", "However", "Whenever" hay "Wherever" vào chỗ trống trong câu trên?</t>
+          <t>bài tập ngữ pháp tiếng anh</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>_____ i am with you i cant stop smiling bạn sẽ điền whatever however whenever hay wherever vào chỗ trống trong câu trên</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2615,19 +2944,22 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Bài tập ngữ pháp tiếng Anh</t>
-        </is>
+      <c r="B110" t="n">
+        <v>48</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"_____ I am with you, I can't stop smiling", bạn sẽ điền "Whatever", "However", "Whenever" hay "Wherever" vào chỗ trống trong câu trên?</t>
+          <t>bài tập ngữ pháp tiếng anh</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>_____ i am with you i cant stop smiling bạn sẽ điền whatever however whenever hay wherever vào chỗ trống trong câu trên</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2635,19 +2967,22 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Các cặp từ gần nghĩa hay bị dùng lẫn trong tiếng Anh</t>
-        </is>
+      <c r="B111" t="n">
+        <v>49</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Hear" chỉ việc nghe thụ động, mang tính chất nhận biết âm thanh còn “listen” là nghe chủ động, có ý thức với âm thanh đó.</t>
+          <t>các cặp từ gần nghĩa hay bị dùng lẫn trong tiếng anh</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>hear chỉ việc nghe thụ động mang tính chất nhận biết âm thanh còn listen là nghe chủ động có ý thức với âm thanh đó</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2655,19 +2990,22 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Các cặp từ gần nghĩa hay bị dùng lẫn trong tiếng Anh</t>
-        </is>
+      <c r="B112" t="n">
+        <v>50</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Hear" chỉ việc nghe thụ động, mang tính chất nhận biết âm thanh còn “listen” là nghe chủ động, có ý thức với âm thanh đó.</t>
+          <t>các cặp từ gần nghĩa hay bị dùng lẫn trong tiếng anh</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>hear chỉ việc nghe thụ động mang tính chất nhận biết âm thanh còn listen là nghe chủ động có ý thức với âm thanh đó</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2675,19 +3013,22 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Phân biệt 'since', 'from' và 'for'</t>
-        </is>
+      <c r="B113" t="n">
+        <v>51</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"We haven't talked to them _____ they got married", bạn sẽ chọn "since", "from" hay "for" để điền vào chỗ trống trong câu trên?</t>
+          <t>phân biệt since from và for</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>we havent talked to them _____ they got married bạn sẽ chọn since from hay for để điền vào chỗ trống trong câu trên</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2695,19 +3036,22 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Phân biệt 'since', 'from' và 'for'</t>
-        </is>
+      <c r="B114" t="n">
+        <v>52</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"We haven't talked to them _____ they got married", bạn sẽ chọn "since", "from" hay "for" để điền vào chỗ trống trong câu trên?</t>
+          <t>phân biệt since from và for</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>we havent talked to them _____ they got married bạn sẽ chọn since from hay for để điền vào chỗ trống trong câu trên</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2715,19 +3059,22 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Yêu cầu về kỹ năng số trong thị trường việc làm 2021</t>
-        </is>
+      <c r="B115" t="n">
+        <v>53</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Theo LinkedIn, những công việc hấp dẫn nhất 2021 đều có thể làm từ xa, do đó, kỹ năng số sẽ trở thành lợi thế cho người lao động.</t>
+          <t>yêu cầu về kỹ năng số trong thị trường việc làm 2021</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>theo linkedin những công việc hấp dẫn nhất 2021 đều có thể làm từ xa do đó kỹ năng số sẽ trở thành lợi thế cho người lao động</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2735,19 +3082,22 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Yêu cầu về kỹ năng số trong thị trường việc làm 2021</t>
-        </is>
+      <c r="B116" t="n">
+        <v>54</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Theo LinkedIn, những công việc hấp dẫn nhất 2021 đều có thể làm từ xa, do đó, kỹ năng số sẽ trở thành lợi thế cho người lao động.</t>
+          <t>yêu cầu về kỹ năng số trong thị trường việc làm 2021</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>theo linkedin những công việc hấp dẫn nhất 2021 đều có thể làm từ xa do đó kỹ năng số sẽ trở thành lợi thế cho người lao động</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2755,19 +3105,22 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Cơ hội theo nghề IT từ chương trình tài trợ 100% học phí</t>
-        </is>
+      <c r="B117" t="n">
+        <v>55</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Hơn 500 bạn trẻ đăng ký nhận tài trợ học phí lập trình tại FUNiX, nắm bắt cơ hội trở thành lập trình viên sau 6 tháng.</t>
+          <t>cơ hội theo nghề it từ chương trình tài trợ 100 học phí</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>hơn 500 bạn trẻ đăng ký nhận tài trợ học phí lập trình tại funix nắm bắt cơ hội trở thành lập trình viên sau 6 tháng</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2775,19 +3128,22 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Cơ hội theo nghề IT từ chương trình tài trợ 100% học phí</t>
-        </is>
+      <c r="B118" t="n">
+        <v>56</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hơn 500 bạn trẻ đăng ký nhận tài trợ học phí lập trình tại FUNiX, nắm bắt cơ hội trở thành lập trình viên sau 6 tháng.</t>
+          <t>cơ hội theo nghề it từ chương trình tài trợ 100 học phí</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>hơn 500 bạn trẻ đăng ký nhận tài trợ học phí lập trình tại funix nắm bắt cơ hội trở thành lập trình viên sau 6 tháng</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2795,19 +3151,22 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Chàng trai 30 tuổi lập nghiệp lại từ đầu với IT</t>
-        </is>
+      <c r="B119" t="n">
+        <v>57</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TP HCMAnh Lê Quang Đức (1991) từ bỏ công việc quản trị bán hàng (sale manager) với mức lương cao để theo đuổi đam mê với công nghệ thông tin.</t>
+          <t>chàng trai 30 tuổi lập nghiệp lại từ đầu với it</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>tp hcmanh lê quang đức 1991 từ bỏ công việc quản trị bán hàng sale manager với mức lương cao để theo đuổi đam mê với công nghệ thông tin</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2815,19 +3174,22 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Chàng trai 30 tuổi lập nghiệp lại từ đầu với IT</t>
-        </is>
+      <c r="B120" t="n">
+        <v>58</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TP HCMAnh Lê Quang Đức (1991) từ bỏ công việc quản trị bán hàng (sale manager) với mức lương cao để theo đuổi đam mê với công nghệ thông tin.</t>
+          <t>chàng trai 30 tuổi lập nghiệp lại từ đầu với it</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>tp hcmanh lê quang đức 1991 từ bỏ công việc quản trị bán hàng sale manager với mức lương cao để theo đuổi đam mê với công nghệ thông tin</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2835,19 +3197,22 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Học sinh Hà Nội đăng ký nguyện vọng lớp 10 theo nơi cư trú</t>
-        </is>
+      <c r="B121" t="n">
+        <v>59</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sở Giáo dục và Đào tạo Hà Nội cho biết sẽ tạo điều kiện cho học sinh thi vào lớp 10 trường công lập đổi khu vực tuyển sinh theo nơi cư trú thực tế.</t>
+          <t>học sinh hà nội đăng ký nguyện vọng lớp 10 theo nơi cư trú</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>sở giáo dục và đào tạo hà nội cho biết sẽ tạo điều kiện cho học sinh thi vào lớp 10 trường công lập đổi khu vực tuyển sinh theo nơi cư trú thực tế</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2855,19 +3220,22 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Phân biệt 'look', 'see', 'watch' trong câu</t>
-        </is>
+      <c r="B122" t="n">
+        <v>60</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>"Look", "see", watch" đều chỉ hoạt động của mắt nhưng mức độ chủ động, tập trung là khác nhau.</t>
+          <t>phân biệt look see watch trong câu</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>look see watch đều chỉ hoạt động của mắt nhưng mức độ chủ động tập trung là khác nhau</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2875,19 +3243,22 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Trường nông thôn chật vật dạy online</t>
-        </is>
+      <c r="B123" t="n">
+        <v>61</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Trường THCS-THPT Thạnh An, huyện Cần Giờ, TP HCM, có 306 học sinh nhưng chỉ khoảng mười em có máy tính cá nhân, Internet chập chờn, việc học online rất khó.</t>
+          <t>trường nông thôn chật vật dạy online</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>trường thcsthpt thạnh an huyện cần giờ tp hcm có 306 học sinh nhưng chỉ khoảng mười em có máy tính cá nhân internet chập chờn việc học online rất khó</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2895,19 +3266,22 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Học sinh Australia học online như thế nào?</t>
-        </is>
+      <c r="B124" t="n">
+        <v>62</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Có hai con lớp 5 và 10, chị Trương Nguyễn Thoại Giang, hiện làm việc cho Chính phủ Australia, chia sẻ về cách học online ở quốc gia này.</t>
+          <t>học sinh australia học online như thế nào</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>có hai con lớp 5 và 10 chị trương nguyễn thoại giang hiện làm việc cho chính phủ australia chia sẻ về cách học online ở quốc gia này</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2915,19 +3289,22 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Thi Toán, Lý, Hóa bằng tiếng Anh vào lớp 10 song bằng</t>
-        </is>
+      <c r="B125" t="n">
+        <v>63</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Học sinh Hà Nội có nguyện vọng học lớp 10 chương trình đào tạo song bằng tú tài sẽ phải thi thêm Toán, Lý, Hóa bằng tiếng Anh và viết, nói tiếng Anh.</t>
+          <t>thi toán lý hóa bằng tiếng anh vào lớp 10 song bằng</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>học sinh hà nội có nguyện vọng học lớp 10 chương trình đào tạo song bằng tú tài sẽ phải thi thêm toán lý hóa bằng tiếng anh và viết nói tiếng anh</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2935,19 +3312,22 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Vẽ tranh 3D bằng cách lặp lại nét</t>
-        </is>
+      <c r="B126" t="n">
+        <v>64</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bằng cách lặp lại các nét thẳng nhiều lần theo một ý tưởng nhất định, rồi thêm một số thao tác đơn giản, bạn sẽ được bức tranh lạ mắt.</t>
+          <t>vẽ tranh 3d bằng cách lặp lại nét</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>bằng cách lặp lại các nét thẳng nhiều lần theo một ý tưởng nhất định rồi thêm một số thao tác đơn giản bạn sẽ được bức tranh lạ mắt</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2955,19 +3335,22 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Tìm người có hành vi đáng ngờ</t>
-        </is>
+      <c r="B127" t="n">
+        <v>65</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Mỗi bức tranh đều có một người đáng ngờ, đang giấu hoặc lấy trộm đồ tại cửa hàng. Liệu bạn có tinh mắt phát hiện ra trong 10 giây?</t>
+          <t>tìm người có hành vi đáng ngờ</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>mỗi bức tranh đều có một người đáng ngờ đang giấu hoặc lấy trộm đồ tại cửa hàng liệu bạn có tinh mắt phát hiện ra trong 10 giây</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2975,19 +3358,22 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Phụ huynh lo lắng trước thay đổi đăng ký nguyện vọng lớp 10</t>
-        </is>
+      <c r="B128" t="n">
+        <v>66</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>HÀ NỘITrước khả năng con trai không thể đăng ký nguyện vọng 1 vào lớp 10 trường THPT Kim Liên như dự định, chị Hà lo đến mất ngủ.</t>
+          <t>phụ huynh lo lắng trước thay đổi đăng ký nguyện vọng lớp 10</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>hà nộitrước khả năng con trai không thể đăng ký nguyện vọng 1 vào lớp 10 trường thpt kim liên như dự định chị hà lo đến mất ngủ</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -2995,19 +3381,22 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Trường học thành phố thích ứng nhanh với dạy online</t>
-        </is>
+      <c r="B129" t="n">
+        <v>67</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Thuần thục thao tác trên phần mềm, được trang bị wifi mạnh, cô Trịnh Thanh Quyên, giáo viên tiếng Anh trường THPT Nguyễn Du, dạy online trơn tru 90 phút.</t>
+          <t>trường học thành phố thích ứng nhanh với dạy online</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>thuần thục thao tác trên phần mềm được trang bị wifi mạnh cô trịnh thanh quyên giáo viên tiếng anh trường thpt nguyễn du dạy online trơn tru 90 phút</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3015,19 +3404,22 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Thầy giáo phải chuyển công tác vì tát học sinh</t>
-        </is>
+      <c r="B130" t="n">
+        <v>68</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>NGHỆ ANMột giáo viên trường THCS thị trấn huyện Quỳ Hợp đã phải chuyển trường vì tát vào mặt nam sinh lớp 9 khi không thuộc bài cũ.</t>
+          <t>thầy giáo phải chuyển công tác vì tát học sinh</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>nghệ anmột giáo viên trường thcs thị trấn huyện quỳ hợp đã phải chuyển trường vì tát vào mặt nam sinh lớp 9 khi không thuộc bài cũ</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3035,19 +3427,22 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Tuyên dương nam sinh trả lại hơn 30 triệu đồng</t>
-        </is>
+      <c r="B131" t="n">
+        <v>69</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HÀ TĨNHNguyễn Việt Thạch được tuyên dương vì nhặt túi xách đựng hơn 30 triệu đồng, đem đến giao nộp công an nhờ tìm người đánh rơi.</t>
+          <t>tuyên dương nam sinh trả lại hơn 30 triệu đồng</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>hà tĩnhnguyễn việt thạch được tuyên dương vì nhặt túi xách đựng hơn 30 triệu đồng đem đến giao nộp công an nhờ tìm người đánh rơi</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3055,19 +3450,22 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Điều kiện vào lớp 10 chuyên ở Hà Nội</t>
-        </is>
+      <c r="B132" t="n">
+        <v>70</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Thí sinh có nguyện vọng vào lớp 10 chuyên ở Hà Nội phải qua hai vòng, dự thi thêm môn chuyên vào ngày 31/5, bên cạnh ba môn thi chung.</t>
+          <t>điều kiện vào lớp 10 chuyên ở hà nội</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>thí sinh có nguyện vọng vào lớp 10 chuyên ở hà nội phải qua hai vòng dự thi thêm môn chuyên vào ngày 315 bên cạnh ba môn thi chung</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3075,19 +3473,22 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Đại học FPT dự kiến mua 100.000 liều vaccine Covid-19</t>
-        </is>
+      <c r="B133" t="n">
+        <v>71</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Từ cuối năm 2020, Đại học FPT đã lên kế hoạch mua 100.000 liều vaccine Covid-19 cho toàn bộ người dạy và học của trường, chi phí dao động 80-100 tỷ đồng.</t>
+          <t>đại học fpt dự kiến mua 100000 liều vaccine covid19</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>từ cuối năm 2020 đại học fpt đã lên kế hoạch mua 100000 liều vaccine covid19 cho toàn bộ người dạy và học của trường chi phí dao động 80100 tỷ đồng</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3095,19 +3496,22 @@
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Đáp án bài toán điền số Tết Tân Sửu</t>
-        </is>
+      <c r="B134" t="n">
+        <v>72</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Phương pháp chung giải bài toán là dựa vào đặc điểm ba chữ T xuất hiện biểu thị cùng một số khác 0 rồi dùng đánh giá để thu hẹp các khả năng.</t>
+          <t>đáp án bài toán điền số tết tân sửu</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>phương pháp chung giải bài toán là dựa vào đặc điểm ba chữ t xuất hiện biểu thị cùng một số khác 0 rồi dùng đánh giá để thu hẹp các khả năng</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3115,19 +3519,22 @@
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Thử thách tìm hình khác biệt</t>
-        </is>
+      <c r="B135" t="n">
+        <v>73</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Một hình nhân vật có biểu cảm hoặc hành động khác so với số còn lại, liệu bạn có thể tìm ra trong 10 giây?</t>
+          <t>thử thách tìm hình khác biệt</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>một hình nhân vật có biểu cảm hoặc hành động khác so với số còn lại liệu bạn có thể tìm ra trong 10 giây</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3135,19 +3542,22 @@
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Học sinh Hà Nội làm bốn bài thi vào lớp 10</t>
-        </is>
+      <c r="B136" t="n">
+        <v>74</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Kỳ thi tuyển sinh vào lớp 10 THPT công lập Hà Nội dự kiến diễn ra ngày 29-30/5 với bốn bài thi Toán, Ngữ văn, Ngoại ngữ và bài thứ tư công bố vào tháng 3.</t>
+          <t>học sinh hà nội làm bốn bài thi vào lớp 10</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>kỳ thi tuyển sinh vào lớp 10 thpt công lập hà nội dự kiến diễn ra ngày 29305 với bốn bài thi toán ngữ văn ngoại ngữ và bài thứ tư công bố vào tháng 3</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3155,19 +3565,22 @@
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Bí quyết giao tiếp tiếng Anh tự tin</t>
-        </is>
+      <c r="B137" t="n">
+        <v>75</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Thầy Quang Nguyen chia sẻ bí quyết giao tiếp tiếng Anh tốt, trong đó nhấn mạnh việc luyện nghe thật nhiều và đúng phương pháp.</t>
+          <t>bí quyết giao tiếp tiếng anh tự tin</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>thầy quang nguyen chia sẻ bí quyết giao tiếp tiếng anh tốt trong đó nhấn mạnh việc luyện nghe thật nhiều và đúng phương pháp</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3175,19 +3588,22 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Học sinh cuối cấp không dám lơ là với học online</t>
-        </is>
+      <c r="B138" t="n">
+        <v>76</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Chỉ còn cách kỳ thi tốt nghiệp THPT vài tháng, Nguyễn Bình lên kế hoạch tận dụng mọi kênh online để học trong thời gian nghỉ vì Covid-19.</t>
+          <t>học sinh cuối cấp không dám lơ là với học online</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>chỉ còn cách kỳ thi tốt nghiệp thpt vài tháng nguyễn bình lên kế hoạch tận dụng mọi kênh online để học trong thời gian nghỉ vì covid19</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3195,19 +3611,22 @@
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Cách xử lý khi trẻ đùa giỡn không đúng lúc</t>
-        </is>
+      <c r="B139" t="n">
+        <v>77</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Thay vì quát mắng con vì hài hước, đùa giỡn không đúng lúc, bạn hãy hỏi con cảm thấy thế nào, gợi ý cách khác để thể hiện cảm xúc.</t>
+          <t>cách xử lý khi trẻ đùa giỡn không đúng lúc</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>thay vì quát mắng con vì hài hước đùa giỡn không đúng lúc bạn hãy hỏi con cảm thấy thế nào gợi ý cách khác để thể hiện cảm xúc</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3215,19 +3634,22 @@
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Địa phương chủ động điều chỉnh kế hoạch học kỳ II</t>
-        </is>
+      <c r="B140" t="n">
+        <v>78</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Bộ Giáo dục và Đào tạo yêu cầu các địa phương tổ chức dạy học trực tuyến trong trường hợp học sinh nghỉ, chủ động điều chỉnh kế hoạch học kỳ II.</t>
+          <t>địa phương chủ động điều chỉnh kế hoạch học kỳ ii</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>bộ giáo dục và đào tạo yêu cầu các địa phương tổ chức dạy học trực tuyến trong trường hợp học sinh nghỉ chủ động điều chỉnh kế hoạch học kỳ ii</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3235,19 +3657,22 @@
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Dạy trẻ biến hóa với giấy màu</t>
-        </is>
+      <c r="B141" t="n">
+        <v>79</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Từ những tờ giấy màu và cách gấp, cắt dán hợp lý, bạn có thể dạy trẻ tạo ra nhiều con vật ngộ nghĩnh, sinh động.</t>
+          <t>dạy trẻ biến hóa với giấy màu</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>từ những tờ giấy màu và cách gấp cắt dán hợp lý bạn có thể dạy trẻ tạo ra nhiều con vật ngộ nghĩnh sinh động</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3255,19 +3680,22 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Lịch học sau Tết của học sinh cả nước</t>
-        </is>
+      <c r="B142" t="n">
+        <v>80</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Học sinh 15 tỉnh, thành tiếp tục ở nhà đến khi có thông báo mới, trong khi học sinh ở 14 địa phương khác đến trường từ ngày 17/2 (mùng 6 Tết Tân Sửu).</t>
+          <t>lịch học sau tết của học sinh cả nước</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>học sinh 15 tỉnh thành tiếp tục ở nhà đến khi có thông báo mới trong khi học sinh ở 14 địa phương khác đến trường từ ngày 172 mùng 6 tết tân sửu</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3275,19 +3703,22 @@
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Tìm điểm khác biệt trong tranh</t>
-        </is>
+      <c r="B143" t="n">
+        <v>81</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Trong 10 giây, liệu bạn có thể tìm ra quả táo, chiếc hộp hay lát bánh mì khác biệt với mấy chục hình còn lại?</t>
+          <t>tìm điểm khác biệt trong tranh</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>trong 10 giây liệu bạn có thể tìm ra quả táo chiếc hộp hay lát bánh mì khác biệt với mấy chục hình còn lại</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3295,19 +3726,22 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Cha mẹ lên kế hoạch học online lâu dài cùng con</t>
-        </is>
+      <c r="B144" t="n">
+        <v>82</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Mua cho con chiếc laptop mới, chuyển phòng học sang nơi có sóng wifi mạnh, chị Thu Lan, 43 tuổi, sẵn sàng cho hai con trai học online lâu dài.</t>
+          <t>cha mẹ lên kế hoạch học online lâu dài cùng con</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>mua cho con chiếc laptop mới chuyển phòng học sang nơi có sóng wifi mạnh chị thu lan 43 tuổi sẵn sàng cho hai con trai học online lâu dài</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3315,19 +3749,22 @@
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Dạy trẻ cách đứng lên bảo vệ mình</t>
-        </is>
+      <c r="B145" t="n">
+        <v>83</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Bạn cần trang bị cho trẻ kỹ năng quyết đoán, yêu cầu người khác dừng hành vi trêu chọc hoặc bắt nạt, sau đó rời đi nếu họ tiếp tục.</t>
+          <t>dạy trẻ cách đứng lên bảo vệ mình</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>bạn cần trang bị cho trẻ kỹ năng quyết đoán yêu cầu người khác dừng hành vi trêu chọc hoặc bắt nạt sau đó rời đi nếu họ tiếp tục</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3335,19 +3772,22 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Phó giáo sư sáng chế vật liệu xanh được thế giới công nhận</t>
-        </is>
+      <c r="B146" t="n">
+        <v>84</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>TP HCMGiấy báo, bao bì, rơm rạ, vỏ trấu... được PGS Nguyễn Trường Sơn, Đại học Bách khoa, sáng chế thành vật liệu siêu nhẹ, thân thiện với môi trường.</t>
+          <t>phó giáo sư sáng chế vật liệu xanh được thế giới công nhận</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>tp hcmgiấy báo bao bì rơm rạ vỏ trấu được pgs nguyễn trường sơn đại học bách khoa sáng chế thành vật liệu siêu nhẹ thân thiện với môi trường</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3355,19 +3795,22 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Trường mầm non sáng tạo biện pháp phòng Covid-19</t>
-        </is>
+      <c r="B147" t="n">
+        <v>85</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>COLOMBIAGiáo viên một trường mầm non cho trẻ khử khuẩn trong "tàu vũ trụ" khiến các em tò mò về những hành tinh.</t>
+          <t>trường mầm non sáng tạo biện pháp phòng covid19</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>colombiagiáo viên một trường mầm non cho trẻ khử khuẩn trong tàu vũ trụ khiến các em tò mò về những hành tinh</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3375,19 +3818,22 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Từ vựng tiếng Anh về công nghệ thông tin</t>
-        </is>
+      <c r="B148" t="n">
+        <v>86</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Trong lĩnh vực công nghệ thông tin, "monitor" là màn hình hiển thị còn "back up" mang nghĩa sao lưu dữ liệu.</t>
+          <t>từ vựng tiếng anh về công nghệ thông tin</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>trong lĩnh vực công nghệ thông tin monitor là màn hình hiển thị còn back up mang nghĩa sao lưu dữ liệu</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3395,19 +3841,22 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Thử thách tìm hình</t>
-        </is>
+      <c r="B149" t="n">
+        <v>87</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Liệu bạn có thể tìm ra chú gấu trúc, con cóc hay con thỏ ở mỗi bức tranh trong 10 giây?</t>
+          <t>thử thách tìm hình</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>liệu bạn có thể tìm ra chú gấu trúc con cóc hay con thỏ ở mỗi bức tranh trong 10 giây</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3415,19 +3864,22 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>CATS Academy Boston cấp học bổng toàn phần</t>
-        </is>
+      <c r="B150" t="n">
+        <v>88</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CATS Academy Boston cấp 15 suất học bổng Merit với mức tài trợ từ 20% đến 50% và 5 suất học bổng IVY toàn phần.</t>
+          <t>cats academy boston cấp học bổng toàn phần</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>cats academy boston cấp 15 suất học bổng merit với mức tài trợ từ 20 đến 50 và 5 suất học bổng ivy toàn phần</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3435,19 +3887,22 @@
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Nữ sinh Việt chia sẻ bí quyết giành học bổng 100% ĐH Melbourne</t>
-        </is>
+      <c r="B151" t="n">
+        <v>89</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Đàm Hạnh Chi, cựu học sinh trường THPT Amsterdam, đã đạt GPA 9.9/10, IELTS 8.0, SAT 1500/1600 để giành được học bổng 100% học phí từ Đại học Melbourne (Unimelb).</t>
+          <t>nữ sinh việt chia sẻ bí quyết giành học bổng 100 đh melbourne</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>đàm hạnh chi cựu học sinh trường thpt amsterdam đã đạt gpa 9910 ielts 80 sat 15001600 để giành được học bổng 100 học phí từ đại học melbourne unimelb</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3455,19 +3910,22 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Nữ sinh chia sẻ cách giành học bổng 100% từ ĐH La Trobe</t>
-        </is>
+      <c r="B152" t="n">
+        <v>90</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TP HCMNgô Hoàng Anh chia sẻ việc lên kế hoạch, cách viết bài luận hữu ích... để thành công chinh phục học bổng toàn phần của ĐH La Trobe.</t>
+          <t>nữ sinh chia sẻ cách giành học bổng 100 từ đh la trobe</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>tp hcmngô hoàng anh chia sẻ việc lên kế hoạch cách viết bài luận hữu ích để thành công chinh phục học bổng toàn phần của đh la trobe</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3475,19 +3933,22 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Ai là tác giả truyện ngắn 'Hai đứa trẻ'?</t>
-        </is>
+      <c r="B153" t="n">
+        <v>91</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Thuộc nhóm "Tự lực văn đoàn", ông thường viết những truyện không có chuyện, khai thác thế giới nội tâm của nhân vật với xúc cảm mong manh, mơ hồ.</t>
+          <t>ai là tác giả truyện ngắn hai đứa trẻ</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>thuộc nhóm tự lực văn đoàn ông thường viết những truyện không có chuyện khai thác thế giới nội tâm của nhân vật với xúc cảm mong manh mơ hồ</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3495,19 +3956,22 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Ai được ca ngợi là 'Tấm gương phản chiếu cách mạng Nga'?</t>
-        </is>
+      <c r="B154" t="n">
+        <v>92</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Ông sinh năm 1828 trong gia đình quý tộc, từng gia nhập quân đội và là tác giả của nhiều tác phẩm phản ánh chân thực cách mạng Nga.</t>
+          <t>ai được ca ngợi là tấm gương phản chiếu cách mạng nga</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Giáo dục</t>
+          <t>ông sinh năm 1828 trong gia đình quý tộc từng gia nhập quân đội và là tác giả của nhiều tác phẩm phản ánh chân thực cách mạng nga</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>giáo dục</t>
         </is>
       </c>
     </row>
@@ -3515,19 +3979,22 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Ông Quách Mạnh Hào: Không có phương án vừa lòng tất cả nhà đầu tư</t>
-        </is>
+      <c r="B155" t="n">
+        <v>0</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Theo TS Quách Mạnh Hào, cần sớm chọn phương án ít bất lợi nhất vì thay đổi chỉ là tạm thời "nhưng phải làm nhanh" để giải quyết việc nghẽn lệnh.</t>
+          <t>ông quách mạnh hào không có phương án vừa lòng tất cả nhà đầu tư</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>theo ts quách mạnh hào cần sớm chọn phương án ít bất lợi nhất vì thay đổi chỉ là tạm thời nhưng phải làm nhanh để giải quyết việc nghẽn lệnh</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3535,19 +4002,22 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Giá vàng thế giới, chứng khoán Mỹ cùng đi xuống</t>
-        </is>
+      <c r="B156" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Mỗi ounce vàng lần đầu xuống dưới 1.700 USD kể từ giữa năm ngoái, còn Wall Street mất điểm phiên thứ 3 liên tiếp.</t>
+          <t>giá vàng thế giới chứng khoán mỹ cùng đi xuống</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>mỗi ounce vàng lần đầu xuống dưới 1700 usd kể từ giữa năm ngoái còn wall street mất điểm phiên thứ 3 liên tiếp</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3555,19 +4025,22 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Doanh nghiệp tư nhân tìm sức bật mới</t>
-        </is>
+      <c r="B157" t="n">
+        <v>2</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Đại diện các tập đoàn tư nhân, chuyên gia kinh tế, lãnh đạo bộ, ngành... tham dự tọa đàm chiều 5/3 tại Hạ Long, Quảng Ninh sẽ đi tìm thêm bước đà trong bối cảnh mới.</t>
+          <t>doanh nghiệp tư nhân tìm sức bật mới</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>đại diện các tập đoàn tư nhân chuyên gia kinh tế lãnh đạo bộ ngành tham dự tọa đàm chiều 53 tại hạ long quảng ninh sẽ đi tìm thêm bước đà trong bối cảnh mới</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3575,19 +4048,22 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>HoSE nghiên cứu việc ngưng huỷ, sửa lệnh chứng khoán</t>
-        </is>
+      <c r="B158" t="n">
+        <v>3</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Nếu không cho phép huỷ, sửa lệnh, thanh khoản HoSE sẽ được cải thiện 30%. Giải pháp này có thể thực hiện ngay mà không cần can thiệp kỹ thuật.</t>
+          <t>hose nghiên cứu việc ngưng huỷ sửa lệnh chứng khoán</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>nếu không cho phép huỷ sửa lệnh thanh khoản hose sẽ được cải thiện 30 giải pháp này có thể thực hiện ngay mà không cần can thiệp kỹ thuật</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3595,19 +4071,22 @@
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Hai 8X khởi nghiệp làm 've chai công nghệ'</t>
-        </is>
+      <c r="B159" t="n">
+        <v>4</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Khi "xe ôm công nghệ" thành một nghề phổ biến ở Việt Nam, hai 8X yêu môi trường bỏ tiền túi làm ứng dụng kết nối "ve chai".</t>
+          <t>hai 8x khởi nghiệp làm ve chai công nghệ</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>khi xe ôm công nghệ thành một nghề phổ biến ở việt nam hai 8x yêu môi trường bỏ tiền túi làm ứng dụng kết nối ve chai</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3615,19 +4094,22 @@
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Đất Xanh Services nỗ lực vượt Covid-19</t>
-        </is>
+      <c r="B160" t="n">
+        <v>5</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Đất Xanh Services khẳng định vị thế một trong những đơn vị phân phối bất động sản hàng đầu Việt Nam kể cả trong giai đoạn ảnh hưởng bởi Covid-19.</t>
+          <t>đất xanh services nỗ lực vượt covid19</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>đất xanh services khẳng định vị thế một trong những đơn vị phân phối bất động sản hàng đầu việt nam kể cả trong giai đoạn ảnh hưởng bởi covid19</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3635,19 +4117,22 @@
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Thủ tướng đồng ý đề xuất tiếp tục gia hạn tiền thuế, thuê đất</t>
-        </is>
+      <c r="B161" t="n">
+        <v>6</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Thủ tướng đồng ý cho Bộ Tài chính xây dựng Nghị định gia hạn 115.000 tỷ đồng tiền nộp thuế, thuê đất.</t>
+          <t>thủ tướng đồng ý đề xuất tiếp tục gia hạn tiền thuế thuê đất</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>thủ tướng đồng ý cho bộ tài chính xây dựng nghị định gia hạn 115000 tỷ đồng tiền nộp thuế thuê đất</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3655,19 +4140,22 @@
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Đế chế casino lớn nhất thế giới bán hết sòng bài tại Las Vegas</t>
-        </is>
+      <c r="B162" t="n">
+        <v>7</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Công ty điều hành sòng bài và resort của cố tỷ phú Sheldon Adelson đang rao bán các tài sản ở Las Vegas để tập trung vào châu Á.</t>
+          <t>đế chế casino lớn nhất thế giới bán hết sòng bài tại las vegas</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>công ty điều hành sòng bài và resort của cố tỷ phú sheldon adelson đang rao bán các tài sản ở las vegas để tập trung vào châu á</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3675,19 +4163,22 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Động lực gần 3.000 tỷ USD của kinh tế toàn cầu</t>
-        </is>
+      <c r="B163" t="n">
+        <v>8</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Chính sách phong tỏa khiến người tiêu dùng nhiều nước tiết kiệm thêm 2.900 tỷ USD, tạo ra tiềm năng phục hồi lớn sau suy thoái.</t>
+          <t>động lực gần 3000 tỷ usd của kinh tế toàn cầu</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>chính sách phong tỏa khiến người tiêu dùng nhiều nước tiết kiệm thêm 2900 tỷ usd tạo ra tiềm năng phục hồi lớn sau suy thoái</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3695,19 +4186,22 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Giá vàng thế giới xuống đáy 9 tháng</t>
-        </is>
+      <c r="B164" t="n">
+        <v>9</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Lợi suất trái phiếu Mỹ và đồng đôla tăng khiến vàng mất sức hấp dẫn, kéo giá giảm gần 30 USD hôm qua.</t>
+          <t>giá vàng thế giới xuống đáy 9 tháng</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>lợi suất trái phiếu mỹ và đồng đôla tăng khiến vàng mất sức hấp dẫn kéo giá giảm gần 30 usd hôm qua</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3715,19 +4209,22 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Giá vàng thế giới xuống đáy 9 tháng</t>
-        </is>
+      <c r="B165" t="n">
+        <v>10</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Lợi suất trái phiếu Mỹ và đồng đôla tăng khiến vàng mất sức hấp dẫn, kéo giá giảm gần 30 USD hôm qua.</t>
+          <t>giá vàng thế giới xuống đáy 9 tháng</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>lợi suất trái phiếu mỹ và đồng đôla tăng khiến vàng mất sức hấp dẫn kéo giá giảm gần 30 usd hôm qua</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3735,19 +4232,22 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Cổ phiếu công nghệ kéo chứng khoán Mỹ đi xuống</t>
-        </is>
+      <c r="B166" t="n">
+        <v>11</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Các chỉ số chính của Wall Street giảm điểm do lợi suất trái phiếu Mỹ tăng, gây sức ép lên nhóm công nghệ.</t>
+          <t>cổ phiếu công nghệ kéo chứng khoán mỹ đi xuống</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>các chỉ số chính của wall street giảm điểm do lợi suất trái phiếu mỹ tăng gây sức ép lên nhóm công nghệ</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3755,19 +4255,22 @@
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Cổ phiếu công nghệ kéo chứng khoán Mỹ đi xuống</t>
-        </is>
+      <c r="B167" t="n">
+        <v>12</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Các chỉ số chính của Wall Street giảm điểm do lợi suất trái phiếu Mỹ tăng, gây sức ép lên nhóm công nghệ.</t>
+          <t>cổ phiếu công nghệ kéo chứng khoán mỹ đi xuống</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>các chỉ số chính của wall street giảm điểm do lợi suất trái phiếu mỹ tăng gây sức ép lên nhóm công nghệ</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3775,19 +4278,22 @@
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Nhà máy điện mặt trời của Sungrow đi vào hoạt động</t>
-        </is>
+      <c r="B168" t="n">
+        <v>13</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Sungrow công bố vận hành thương mại nhà máy điện năng lượng mặt trời 350 MW đặt tại huyện Lộc Ninh, tỉnh Bình Phước, Việt Nam.</t>
+          <t>nhà máy điện mặt trời của sungrow đi vào hoạt động</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>sungrow công bố vận hành thương mại nhà máy điện năng lượng mặt trời 350 mw đăt tại huyện lộc ninh tỉnh bình phước viêt nam</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3795,19 +4301,22 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Cách các tập đoàn tư nhân thu lãi lớn trong suy thoái</t>
-        </is>
+      <c r="B169" t="n">
+        <v>14</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Trong khi nhiều doanh nghiệp lao đao bởi Covid-19, Vingroup, Hòa Phát, FLC... và nhiều ông lớn vẫn ghi nhận kết quả kinh doanh khả quan, thậm chí báo lãi "khủng".</t>
+          <t>cách các tập đoàn tư nhân thu lãi lớn trong suy thoái</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>trong khi nhiều doanh nghiệp lao đao bởi covid19 vingroup hòa phát flc và nhiều ông lớn vẫn ghi nhận kết quả kinh doanh khả quan thậm chí báo lãi khủng</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3815,19 +4324,22 @@
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Cách các tập đoàn tư nhân thu lãi lớn trong suy thoái</t>
-        </is>
+      <c r="B170" t="n">
+        <v>15</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Trong khi nhiều doanh nghiệp lao đao bởi Covid-19, Vingroup, Hòa Phát, FLC... và nhiều ông lớn vẫn ghi nhận kết quả kinh doanh khả quan, thậm chí báo lãi "khủng".</t>
+          <t>cách các tập đoàn tư nhân thu lãi lớn trong suy thoái</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>trong khi nhiều doanh nghiệp lao đao bởi covid19 vingroup hòa phát flc và nhiều ông lớn vẫn ghi nhận kết quả kinh doanh khả quan thậm chí báo lãi khủng</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3835,19 +4347,22 @@
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Bamboo Airways tung vé ưu đãi cho nhiều chặng bay</t>
-        </is>
+      <c r="B171" t="n">
+        <v>16</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Hãng bay khai thác các đường bay mới đón đầu nhu cầu di chuyển trước dịp lễ 30/4-1/5, mở bán vé ưu đãi từ 36.000 đồng.</t>
+          <t>bamboo airways tung vé ưu đãi cho nhiều chặng bay</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>hãng bay khai thác các đường bay mới đón đầu nhu cầu di chuyển trước dịp lễ 30415 mở bán vé ưu đãi từ 36000 đồng</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3855,19 +4370,22 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Bamboo Airways tung vé ưu đãi cho nhiều chặng bay</t>
-        </is>
+      <c r="B172" t="n">
+        <v>17</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Hãng bay khai thác các đường bay mới đón đầu nhu cầu di chuyển trước dịp lễ 30/4-1/5, mở bán vé ưu đãi từ 36.000 đồng.</t>
+          <t>bamboo airways tung vé ưu đãi cho nhiều chặng bay</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>hãng bay khai thác các đường bay mới đón đầu nhu cầu di chuyển trước dịp lễ 30415 mở bán vé ưu đãi từ 36000 đồng</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3875,19 +4393,22 @@
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Lợi thế giúp Nam Phú Quốc thu hút giới đầu tư bất động sản</t>
-        </is>
+      <c r="B173" t="n">
+        <v>18</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Nam Phú Quốc nhận sự quan tâm củanhiều nhà đầu tư bởi quy tụ nhiều khu nghỉ dưỡng cao cấp và khu vui chơi giải trí nổi bật.</t>
+          <t>lợi thế giúp nam phú quốc thu hút giới đầu tư bất động sản</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>nam phú quốc nhận sự quan tâm củanhiều nhà đầu tư bởi quy tụ nhiều khu nghỉ dưỡng cao cấp và khu vui chơi giải trí nổi bật</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3895,19 +4416,22 @@
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Căn hộ nội đô khan hiếm dù nhu cầu cao</t>
-        </is>
+      <c r="B174" t="n">
+        <v>19</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Khi quỹ đất dần cạn kiệt, nguồn cung căn hộ tại nội đô Hà Nội trở nên khan hiếm, dù cho nhu cầu của thị trường luôn cao.</t>
+          <t>căn hộ nội đô khan hiếm dù nhu cầu cao</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>khi quỹ đất dần cạn kiệt nguồn cung căn hộ tại nội đô hà nội trở nên khan hiếm dù cho nhu cầu của thị trường luôn cao</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3915,19 +4439,22 @@
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Căn hộ nội đô khan hiếm dù nhu cầu cao</t>
-        </is>
+      <c r="B175" t="n">
+        <v>20</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Khi quỹ đất dần cạn kiệt, nguồn cung căn hộ tại nội đô Hà Nội trở nên khan hiếm, dù cho nhu cầu của thị trường luôn cao.</t>
+          <t>căn hộ nội đô khan hiếm dù nhu cầu cao</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>khi quỹ đất dần cạn kiệt nguồn cung căn hộ tại nội đô hà nội trở nên khan hiếm dù cho nhu cầu của thị trường luôn cao</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3935,19 +4462,22 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Startup có 3 'Forbes 30 under 30' nhận đầu tư 1 triệu USD</t>
-        </is>
+      <c r="B176" t="n">
+        <v>21</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Nền tảng công nghệ bất động sản Citics có sự tham gia của Trần Minh Long, Nguyễn Hải Ninh và Phạm Anh Đức vừa huy động được 1 triệu USD trong vòng pre-series A.</t>
+          <t>startup có 3 forbes 30 under 30 nhận đầu tư 1 triệu usd</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>nền tảng công nghệ bất động sản citics có sự tham gia của trần minh long nguyễn hải ninh và phạm anh đức vừa huy động được 1 triệu usd trong vòng preseries a</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3955,19 +4485,22 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Startup có 3 'Forbes 30 under 30' nhận đầu tư 1 triệu USD</t>
-        </is>
+      <c r="B177" t="n">
+        <v>22</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Nền tảng công nghệ bất động sản Citics có sự tham gia của Trần Minh Long, Nguyễn Hải Ninh và Phạm Anh Đức vừa huy động được 1 triệu USD trong vòng pre-series A.</t>
+          <t>startup có 3 forbes 30 under 30 nhận đầu tư 1 triệu usd</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>nền tảng công nghệ bất động sản citics có sự tham gia của trần minh long nguyễn hải ninh và phạm anh đức vừa huy động được 1 triệu usd trong vòng preseries a</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3975,19 +4508,22 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Nên mua vàng thay vì gửi tiết kiệm hàng tháng?</t>
-        </is>
+      <c r="B178" t="n">
+        <v>23</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Vợ mới có bầu, tôi định mỗi tháng có lương sẽ dành một ít mua vàng để tích lũy dần tới khi em bé chào đời thay vì gửi ngân hàng.</t>
+          <t>nên mua vàng thay vì gửi tiết kiệm hàng tháng</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>vợ mới có bầu tôi định mỗi tháng có lương sẽ dành một ít mua vàng để tích lũy dần tới khi em bé chào đời thay vì gửi ngân hàng</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -3995,19 +4531,22 @@
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Phó thống đốc: Bitcoin không hợp pháp</t>
-        </is>
+      <c r="B179" t="n">
+        <v>24</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Phó thống đốc Đào Minh Tú khẳng định Bitcoin và các loại tiền ảo khác hoàn toàn không phải là tiền điện tử, không được thực hiện chức năng của đồng tiền pháp lệnh ở Việt Nam.</t>
+          <t>phó thống đốc bitcoin không hợp pháp</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>phó thống đốc đào minh tú khẳng định bitcoin và các loại tiền ảo khác hoàn toàn không phải là tiền điện tử không được thực hiện chức năng của đồng tiền pháp lệnh ở việt nam</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4015,19 +4554,22 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Phó thống đốc: Bitcoin không hợp pháp</t>
-        </is>
+      <c r="B180" t="n">
+        <v>25</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Phó thống đốc Đào Minh Tú khẳng định Bitcoin và các loại tiền ảo khác hoàn toàn không phải là tiền điện tử, không được thực hiện chức năng của đồng tiền pháp lệnh ở Việt Nam.</t>
+          <t>phó thống đốc bitcoin không hợp pháp</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>phó thống đốc đào minh tú khẳng định bitcoin và các loại tiền ảo khác hoàn toàn không phải là tiền điện tử không được thực hiện chức năng của đồng tiền pháp lệnh ở việt nam</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4035,19 +4577,22 @@
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Những trường hợp nào không được bảo hiểm bồi thường?</t>
-        </is>
+      <c r="B181" t="n">
+        <v>26</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Vừa lập gia đình muốn mua bảo hiểm nhân thọ nhưng đang chưa rõ nên lưu ý gì và khi nào bị hãng bảo hiểm từ chối bồi thường.</t>
+          <t>những trường hợp nào không được bảo hiểm bồi thường</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>vừa lập gia đình muốn mua bảo hiểm nhân thọ nhưng đang chưa rõ nên lưu ý gì và khi nào bị hãng bảo hiểm từ chối bồi thường</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4055,19 +4600,22 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Những trường hợp nào không được bảo hiểm bồi thường?</t>
-        </is>
+      <c r="B182" t="n">
+        <v>27</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Vừa lập gia đình muốn mua bảo hiểm nhân thọ nhưng đang chưa rõ nên lưu ý gì và khi nào bị hãng bảo hiểm từ chối bồi thường.</t>
+          <t>những trường hợp nào không được bảo hiểm bồi thường</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>vừa lập gia đình muốn mua bảo hiểm nhân thọ nhưng đang chưa rõ nên lưu ý gì và khi nào bị hãng bảo hiểm từ chối bồi thường</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4075,19 +4623,22 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Bình hoa 8/3 có giá 65 triệu đồng</t>
-        </is>
+      <c r="B183" t="n">
+        <v>28</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Không thể gặp nhau do Covid-19, một người khách ở Mỹ đặt mua bình hoa 65 triệu đồng tặng vợ tại Việt Nam nhân dịp 8/3.</t>
+          <t>bình hoa 83 có giá 65 triệu đồng</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>không thể gặp nhau do covid19 một người khách ở mỹ đặt mua bình hoa 65 triệu đồng tặng vợ tại việt nam nhân dịp 83</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4095,19 +4646,22 @@
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Các thị trường áp dụng lô giao dịch cổ phiếu thế nào</t>
-        </is>
+      <c r="B184" t="n">
+        <v>29</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Lô tối thiểu 1.000 cổ phiếu từng được nhiều thị trường lớn áp dụng, nhưng là 5 năm trước. Xu hướng hiện nay là giảm dần lô giao dịch để thu hút nhà đầu tư nhỏ lẻ.</t>
+          <t>các thị trường áp dụng lô giao dịch cổ phiếu thế nào</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>lô tối thiểu 1000 cổ phiếu từng được nhiều thị trường lớn áp dụng nhưng là 5 năm trước xu hướng hiện nay là giảm dần lô giao dịch để thu hút nhà đầu tư nhỏ lẻ</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4115,19 +4669,22 @@
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Thanh khoản cao nhất một tháng dù hệ thống nghẽn lệnh</t>
-        </is>
+      <c r="B185" t="n">
+        <v>30</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Giá trị giao dịch trên sàn TP HCM hôm nay đạt 16.800 tỷ đồng, cao nhất từ đầu tháng 2 đến nay dù hiện tượng nghẽn lệnh xảy ra từ buổi sáng.</t>
+          <t>thanh khoản cao nhất một tháng dù hệ thống nghẽn lệnh</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>giá trị giao dịch trên sàn tp hcm hôm nay đạt 16800 tỷ đồng cao nhất từ đầu tháng 2 đến nay dù hiện tượng nghẽn lệnh xảy ra từ buổi sáng</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4135,19 +4692,22 @@
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Bất động sản năm nay đối mặt nhiều thách thức</t>
-        </is>
+      <c r="B186" t="n">
+        <v>31</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Dịch Covid-19 chưa thể kết thúc sớm, tác động xấu có thể kéo dài đến nhiều ngành nghề khiến bất động sản khó tránh khỏi những thách thức.</t>
+          <t>bất động sản năm nay đối mặt nhiều thách thức</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>dịch covid19 chưa thể kết thúc sớm tác động xấu có thể kéo dài đến nhiều ngành nghề khiến bất động sản khó tránh khỏi những thách thức</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4155,19 +4715,22 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Sếp Hancorp làm Cục trưởng quản lý nhà và thị trường bất động sản</t>
-        </is>
+      <c r="B187" t="n">
+        <v>32</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Ông Bùi Xuân Dũng, Chủ tịch HĐQT Hancorp được bổ nhiệm làm Cục trưởng Cục quản lý nhà và thị trường bất động sản.</t>
+          <t>sếp hancorp làm cục trưởng quản lý nhà và thị trường bất động sản</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>ông bùi xuân dũng chủ tịch hđqt hancorp được bổ nhiệm làm cục trưởng cục quản lý nhà và thị trường bất động sản</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4175,19 +4738,22 @@
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Eximbank đặt mục tiêu lợi nhuận tăng hơn 60%</t>
-        </is>
+      <c r="B188" t="n">
+        <v>33</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Mục tiêu lợi nhuận năm nay của Eximbank tăng hơn 60% lên 2.150 tỷ đồng sau một năm nhà băng này giảm sút cả cho vay và huy động.</t>
+          <t>eximbank đặt mục tiêu lợi nhuận tăng hơn 60</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>mục tiêu lợi nhuận năm nay của eximbank tăng hơn 60 lên 2150 tỷ đồng sau một năm nhà băng này giảm sút cả cho vay và huy động</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4195,19 +4761,22 @@
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Ngân hàng Shinhan Việt Nam có tổng giám đốc mới</t>
-        </is>
+      <c r="B189" t="n">
+        <v>34</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Ông Lee Taekyung, người đã gắn bó 29 năm ở Shinhan, đảm nhận vị trí tổng giám đốc từ 17/2.</t>
+          <t>ngân hàng shinhan việt nam có tổng giám đốc mới</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>ông lee taekyung người đã gắn bó 29 năm ở shinhan đảm nhận vị trí tổng giám đốc từ 172</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4215,19 +4784,22 @@
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>HoSE sắp đón thêm 1,2 tỷ cổ phiếu mới</t>
-        </is>
+      <c r="B190" t="n">
+        <v>35</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Giữa lúc hệ thống đang nghẽn, Sở Giao dịch chứng khoán TP HCM sẽ có thêm giao dịch của 1,2 tỷ cổ phiếu từ ba doanh nghiệp niêm yết.</t>
+          <t>hose sắp đón thêm 12 tỷ cổ phiếu mới</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>giữa lúc hệ thống đang nghẽn sở giao dịch chứng khoán tp hcm sẽ có thêm giao dịch của 12 tỷ cổ phiếu từ ba doanh nghiệp niêm yết</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4235,19 +4807,22 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Prudential Việt Nam phân phối bảo hiểm độc quyền tại MSB</t>
-        </is>
+      <c r="B191" t="n">
+        <v>36</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Prudential Việt Nam vừa ký kết gia hạn và mở rộng mối quan hệ hợp tác phân phối bảo hiểm độc quyền trong 15 năm tại MSB.</t>
+          <t>prudential việt nam phân phối bảo hiểm độc quyền tại msb</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>prudential việt nam vừa ký kết gia hạn và mở rộng mối quan hệ hợp tác phân phối bảo hiểm độc quyền trong 15 năm tại msb</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4255,19 +4830,22 @@
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Thương hiệu quản lý khách sạn nổi tiếng châu Á đến Mũi Né</t>
-        </is>
+      <c r="B192" t="n">
+        <v>37</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Centara Hotels &amp; Resorts, tập đoàn quản lý khách sạn nổi tiếng Thái Lan, là đơn vị vận hành khu nghỉ dưỡng NovaHills Mui Ne Resort &amp; Villas theo tiêu chuẩn 4 sao quốc tế.</t>
+          <t>thương hiệu quản lý khách sạn nổi tiếng châu á đến mũi né</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>centara hotels  resorts tập đoàn quản lý khách sạn nổi tiếng thái lan là đơn vị vận hành khu nghỉ dưỡng novahills mui ne resort  villas theo tiêu chuẩn 4 sao quốc tế</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4275,19 +4853,22 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Thái Vân Linh: 'Thất bại là trải nghiệm cần thiết để thành công'</t>
-        </is>
+      <c r="B193" t="n">
+        <v>38</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Trong talk Nguy Cơ 26, doanh nhân Thái Vân Linh chia sẻ những lần thất bại, lý do khởi nghiệp ở tuổi 44, và những giọt nước mắt hạnh phúc của một phụ nữ gia đình.</t>
+          <t>thái vân linh thất bại là trải nghiệm cần thiết để thành công</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>trong talk nguy cơ 26 doanh nhân thái vân linh chia sẻ những lần thất bại lý do khởi nghiệp ở tuổi 44 và những giọt nước mắt hạnh phúc của một phụ nữ gia đình</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4295,19 +4876,22 @@
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>ASOFT tặng 50 gói phần mềm miễn phí</t>
-        </is>
+      <c r="B194" t="n">
+        <v>39</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>50 gói phần mềm văn phòng điện tử và quản lý quan hệ khách hàng được ASOFT dành tặng cho các doanh nghiệp SME có quy mô từ 10 nhân sự trở lên.</t>
+          <t>asoft tặng 50 gói phần mềm miễn phí</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>50 gói phần mềm văn phòng điện tử và quản lý quan hệ khách hàng được asoft dành tặng cho các doanh nghiệp sme có quy mô từ 10 nhân sự trở lên</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4315,19 +4899,22 @@
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Chậm tiêm vaccine và kích thích nhỏ giọt trói chân kinh tế châu Âu</t>
-        </is>
+      <c r="B195" t="n">
+        <v>40</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Kinh tế châu Âu có thể quay về mức tiền khủng hoảng vào đầu năm 2023 - muộn hơn 6 tháng đến một năm so với Mỹ.</t>
+          <t>chậm tiêm vaccine và kích thích nhỏ giọt trói chân kinh tế châu âu</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>kinh tế châu âu có thể quay về mức tiền khủng hoảng vào đầu năm 2023  muộn hơn 6 tháng đến một năm so với mỹ</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4335,19 +4922,22 @@
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Ông Nguyễn Đức Tài: Không lo Thế giới Di Động bị thâu tóm</t>
-        </is>
+      <c r="B196" t="n">
+        <v>41</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Chủ tịch MWG cho rằng linh hồn của doanh nghiệp là năng lực quản lý, điều hành của ban lãnh đạo, không phụ thuộc vào quy mô nó lớn thế nào.</t>
+          <t>ông nguyễn đức tài không lo thế giới di động bị thâu tóm</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>chủ tịch mwg cho rằng linh hồn của doanh nghiệp là năng lực quản lý điều hành của ban lãnh đạo không phụ thuộc vào quy mô nó lớn thế nào</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4355,19 +4945,22 @@
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Nâng lô giao dịch lên 1.000: Chứng khoán thành sân chơi của nhà giàu</t>
-        </is>
+      <c r="B197" t="n">
+        <v>42</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Nếu ý tưởng nâng lô được áp dụng, nhà đầu tư phải cần tới số tiền bằng vài lượng vàng mới được đặt một lệnh mua cổ phiếu.</t>
+          <t>nâng lô giao dịch lên 1000 chứng khoán thành sân chơi của nhà giàu</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>nếu ý tưởng nâng lô được áp dụng nhà đầu tư phải cần tới số tiền bằng vài lượng vàng mới được đặt một lệnh mua cổ phiếu</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4375,19 +4968,22 @@
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Bộ Tài chính cảnh báo người chơi tiền ảo</t>
-        </is>
+      <c r="B198" t="n">
+        <v>43</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Việt Nam chưa có quy định pháp lý về giao dịch, kinh doanh tiền ảo nên người dân tham gia sẽ không được bảo vệ khi gặp rủi ro.</t>
+          <t>bộ tài chính cảnh báo người chơi tiền ảo</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>việt nam chưa có quy định pháp lý về giao dịch kinh doanh tiền ảo nên người dân tham gia sẽ không được bảo vệ khi gặp rủi ro</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4395,19 +4991,22 @@
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Loạt siêu thị Big C đổi tên</t>
-        </is>
+      <c r="B199" t="n">
+        <v>44</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Central Retail sẽ hoàn tất đổi tên các siêu thị thành Tops Market, đại siêu thị thành Go! trong năm nay, chấm dứt 22 năm tồn tại của thương hiệu Big C tại Việt Nam.</t>
+          <t>loạt siêu thị big c đổi tên</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>central retail sẽ hoàn tất đổi tên các siêu thị thành tops market đại siêu thị thành go trong năm nay chấm dứt 22 năm tồn tại của thương hiệu big c tại việt nam</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4415,19 +5014,22 @@
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Thế khó của Vietnamobile</t>
-        </is>
+      <c r="B200" t="n">
+        <v>45</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Với lượng băng tần hạn chế, Vietnamobile không chỉ chật vật phát triển dịch vụ mới mà còn đối mặt tình trạng ồ ạt "chảy máu" thuê bao.</t>
+          <t>thế khó của vietnamobile</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>với lượng băng tần hạn chế vietnamobile không chỉ chật vật phát triển dịch vụ mới mà còn đối mặt tình trạng ồ ạt chảy máu thuê bao</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4435,19 +5037,22 @@
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>PGBank muốn dừng sáp nhập với HDBank</t>
-        </is>
+      <c r="B201" t="n">
+        <v>46</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Việc sáp nhập với HDBank kéo dài suốt nhiều năm nhưng chưa thành, PGBank trình cổ đông phương án dừng sáp nhập.</t>
+          <t>pgbank muốn dừng sáp nhập với hdbank</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>việc sáp nhập với hdbank kéo dài suốt nhiều năm nhưng chưa thành pgbank trình cổ đông phương án dừng sáp nhập</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4455,19 +5060,22 @@
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Chứng khoán tiếp tục đi ngang</t>
-        </is>
+      <c r="B202" t="n">
+        <v>47</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Giống hôm qua, VN-Index hôm nay biến động mạnh trong phiên với biên độ hai chữ số, nhưng chốt phiên chỉ xấp xỉ tham chiếu.</t>
+          <t>chứng khoán tiếp tục đi ngang</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>giống hôm qua vnindex hôm nay biến động mạnh trong phiên với biên độ hai chữ số nhưng chốt phiên chỉ xấp xỉ tham chiếu</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4475,19 +5083,22 @@
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Trung - Mỹ - Âu cạnh tranh thống trị ngành AI</t>
-        </is>
+      <c r="B203" t="n">
+        <v>48</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Mỹ và châu Âu có cách riêng trong phát triển AI để giành lợi thế kinh tế, nhưng họ vẫn cần nhau để kiềm chế tham vọng của Trung Quốc.</t>
+          <t>trung  mỹ  âu cạnh tranh thống trị ngành ai</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>mỹ và châu âu có cách riêng trong phát triển ai để giành lợi thế kinh tế nhưng họ vẫn cần nhau để kiềm chế tham vọng của trung quốc</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4495,19 +5106,22 @@
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Mỹ áp thuế chống bán phá giá nhôm tấm của 18 nước</t>
-        </is>
+      <c r="B204" t="n">
+        <v>49</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Vài giờ sau khi có tân bộ trưởng, Bộ Thương mại Mỹ thông báo áp thuế chống bán phá giá nhôm tấm hợp kim nhập khẩu từ 18 thị trường.</t>
+          <t>mỹ áp thuế chống bán phá giá nhôm tấm của 18 nước</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>vài giờ sau khi có tân bộ trưởng bộ thương mại mỹ thông báo áp thuế chống bán phá giá nhôm tấm hợp kim nhập khẩu từ 18 thị trường</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4515,19 +5129,22 @@
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Doanh nghiệp chuyển từ HoSE sang HNX không cần xét lại hồ sơ</t>
-        </is>
+      <c r="B205" t="n">
+        <v>50</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Ủy ban chứng khoán yêu cầu hai sở và VSD đẩy nhanh xử lý chuyển cổ phiếu từ HoSE sang HNX để sớm giảm tải nghẽn giao dịch cho thị trường.</t>
+          <t>doanh nghiệp chuyển từ hose sang hnx không cần xét lại hồ sơ</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>ủy ban chứng khoán yêu cầu hai sở và vsd đẩy nhanh xử lý chuyển cổ phiếu từ hose sang hnx để sớm giảm tải nghẽn giao dịch cho thị trường</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4535,19 +5152,22 @@
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Đại gia công nghệ Trung Quốc phủ sóng văn phòng châu Á</t>
-        </is>
+      <c r="B206" t="n">
+        <v>51</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Các hãng công nghệ dẫn đầu bởi các tập đoàn từ Trung Quốc sẽ là động lực chính cho thị trường văn phòng cho thuê châu Á.</t>
+          <t>đại gia công nghệ trung quốc phủ sóng văn phòng châu á</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>các hãng công nghệ dẫn đầu bởi các tập đoàn từ trung quốc sẽ là động lực chính cho thị trường văn phòng cho thuê châu á</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4555,19 +5175,22 @@
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Giá vàng thế giới tăng, chứng khoán Mỹ giảm</t>
-        </is>
+      <c r="B207" t="n">
+        <v>52</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Kim loại quý đảo chiều, thoát đáy 8 tháng, trong khi chứng khoán Mỹ đi xuống sau phiên đầu tuần tăng mạnh.</t>
+          <t>giá vàng thế giới tăng chứng khoán mỹ giảm</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>kim loại quý đảo chiều thoát đáy 8 tháng trong khi chứng khoán mỹ đi xuống sau phiên đầu tuần tăng mạnh</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4575,19 +5198,22 @@
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Công ty hoá chất lấn sân bất động sản</t>
-        </is>
+      <c r="B208" t="n">
+        <v>53</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Tập đoàn Hoá chất Đức Giang (DGC) dự kiến năm nay giải ngân 640 tỷ đồng cho dự án tổ hợp công trình công cộng, trường học và nhà ở.</t>
+          <t>công ty hoá chất lấn sân bất động sản</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>tập đoàn hoá chất đức giang dgc dự kiến năm nay giải ngân 640 tỷ đồng cho dự án tổ hợp công trình công cộng trường học và nhà ở</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4595,19 +5221,22 @@
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Shark Linh muốn rút ngắn thời gian khởi nghiệp bằng kỹ năng</t>
-        </is>
+      <c r="B209" t="n">
+        <v>54</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Doanh nhân Thái Vân Linh thành lập công ty đào tạo về kỹ năng nhằm giúp giới trẻ Việt tận dụng mọi lợi thế sẵn có của bản thân trong quá trình khởi nghiệp.</t>
+          <t>shark linh muốn rút ngắn thời gian khởi nghiệp bằng kỹ năng</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>doanh nhân thái vân linh thành lập công ty đào tạo về kỹ năng nhằm giúp giới trẻ việt tận dụng mọi lợi thế sẵn có của bản thân trong quá trình khởi nghiệp</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4615,19 +5244,22 @@
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>VGS Shop đổi tên thành GS Shop</t>
-        </is>
+      <c r="B210" t="n">
+        <v>55</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Công ty mua sắm truyền hình (TV Shopping) VGS Shop chính thức đổi tên thành GS Shop từ ngày 1/3.</t>
+          <t>vgs shop đổi tên thành gs shop</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>công ty mua sắm truyền hình tv shopping vgs shop chính thức đổi tên thành gs shop từ ngày 13</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4635,19 +5267,22 @@
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Phụ nữ đang ở đâu trong nền kinh tế Mỹ</t>
-        </is>
+      <c r="B211" t="n">
+        <v>56</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Chiếm một nửa lực lượng lao động, có bằng cấp đại học song không nhiều phụ nữ Mỹ đảm nhiệm vị trí lãnh đạo doanh nghiệp.</t>
+          <t>phụ nữ đang ở đâu trong nền kinh tế mỹ</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>chiếm một nửa lực lượng lao động có bằng cấp đại học song không nhiều phụ nữ mỹ đảm nhiệm vị trí lãnh đạo doanh nghiệp</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4655,19 +5290,22 @@
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Không gian sống sinh thái, giàu trải nghiệm tại đảo Phượng Hoàng</t>
-        </is>
+      <c r="B212" t="n">
+        <v>57</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Không gian sống tại đảo Phượng Hoàng, Aqua City có thiết kế sang trọng, hài hòa thiên nhiên, mang đến trải nghiệm sống như nghỉ dưỡng mỗi ngày.</t>
+          <t>không gian sống sinh thái giàu trải nghiệm tại đảo phượng hoàng</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>không gian sống tại đảo phượng hoàng aqua city có thiết kế sang trọng hài hòa thiên nhiên mang đến trải nghiệm sống như nghỉ dưỡng mỗi ngày</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4675,19 +5313,22 @@
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Ai nên mua bảo hiểm nhân thọ?</t>
-        </is>
+      <c r="B213" t="n">
+        <v>58</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Phụ huynh có con nhỏ, trẻ em cần chăm sóc đặc biệt… nên mua bảo hiểm nhân thọ để phòng ngừa rủi ro, tích lũy tài chính, sống an yên.</t>
+          <t>ai nên mua bảo hiểm nhân thọ</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>phụ huynh có con nhỏ trẻ em cần chăm sóc đặc biệt nên mua bảo hiểm nhân thọ để phòng ngừa rủi ro tích lũy tài chính sống an yên</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4695,19 +5336,22 @@
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>CEO HoSE: Tăng lô giao dịch lên 1.000 cổ phiếu sẽ giảm nghẽn</t>
-        </is>
+      <c r="B214" t="n">
+        <v>59</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Tăng lô tối thiểu lên 1.000 cổ phiếu, theo đại diện HoSE, là giải pháp giảm số lệnh nhỏ vào hệ thống, từ đó trực tiếp làm giảm áp lực lên hệ thống xử lý.</t>
+          <t>ceo hose tăng lô giao dịch lên 1000 cổ phiếu sẽ giảm nghẽn</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Kinh doanh</t>
+          <t>tăng lô tối thiểu lên 1000 cổ phiếu theo đại diện hose là giải pháp giảm số lệnh nhỏ vào hệ thống từ đó trực tiếp làm giảm áp lực lên hệ thống xử lý</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4715,19 +5359,22 @@
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Phản xạ né đường đạn của nữ cảnh sát</t>
-        </is>
+      <c r="B215" t="n">
+        <v>0</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>MỸThấy nòng súng súng thò ra khỏi cửa, nữ cảnh sát cúi người né đạn rồi rút súng bắn trả chủ nhà.</t>
+          <t>phản xạ né đường đạn của nữ cảnh sát</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>mỹthấy nòng súng súng thò ra khỏi cửa nữ cảnh sát cúi người né đạn rồi rút súng bắn trả chủ nhà</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4735,19 +5382,22 @@
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Nguyên phó Chánh văn phòng UBND TP HCM tiếp tục bị khởi tố</t>
-        </is>
+      <c r="B216" t="n">
+        <v>1</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Ông Lê Văn Thanh, 59 tuổi, nguyên Phó Chánh văn phòng UBND TP HCM bị cáo buộc liên quan đến vụ án xảy ra tại Tổng Công ty Nông nghiệp Sài Gòn (Sagri).</t>
+          <t>nguyên phó chánh văn phòng ubnd tp hcm tiếp tục bị khởi tố</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>ông lê văn thanh 59 tuổi nguyên phó chánh văn phòng ubnd tp hcm bị cáo buộc liên quan đến vụ án xảy ra tại tổng công ty nông nghiệp sài gòn sagri</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4755,19 +5405,22 @@
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Sai phạm gây 380 điểm hư hỏng ở cao tốc Đà Nẵng - Quảng Ngãi</t>
-        </is>
+      <c r="B217" t="n">
+        <v>2</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Trung bình mỗi km của cao tốc Đà Nẵng - Quảng Ngãi có 6 điểm hỏng do thi công vật liệu không đủ tiêu chuẩn, không được nghiệm thu...</t>
+          <t>sai phạm gây 380 điểm hư hỏng ở cao tốc đà nẵng  quảng ngãi</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>trung bình mỗi km của cao tốc đà nẵng  quảng ngãi có 6 điểm hỏng do thi công vật liệu không đủ tiêu chuẩn không được nghiệm thu</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4775,19 +5428,22 @@
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Người đàn bà hơn 150 lần tổ chức bán dâm ở Đà Nẵng</t>
-        </is>
+      <c r="B218" t="n">
+        <v>3</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Đặng Thị Hương, 36 tuổi, nuôi gái bán dâm, lập đường dây môi giới gần 160 lần trong 13 ngày.</t>
+          <t>người đàn bà hơn 150 lần tổ chức bán dâm ở đà nẵng</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>đặng thị hương 36 tuổi nuôi gái bán dâm lập đường dây môi giới gần 160 lần trong 13 ngày</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4795,19 +5451,22 @@
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Đặt mật khẩu ATM theo ngày sinh, nhiều người mất tiền</t>
-        </is>
+      <c r="B219" t="n">
+        <v>4</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>BÌNH ĐỊNHLý Minh Tấn, 35 tuổi, trộm thẻ ATM và giấy tờ trong các ôtô rồi dò mật khẩu theo ngày sinh, rút tổng cộng gần 200 triệu đồng.</t>
+          <t>đặt mật khẩu atm theo ngày sinh nhiều người mất tiền</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>bình địnhlý minh tấn 35 tuổi trộm thẻ atm và giấy tờ trong các ôtô rồi dò mật khẩu theo ngày sinh rút tổng cộng gần 200 triệu đồng</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4815,19 +5474,22 @@
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Giang hồ nổ súng, hỗn chiến ở Cần Thơ</t>
-        </is>
+      <c r="B220" t="n">
+        <v>5</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Mâu thuẫn trong cờ bạc, Nguyễn Thanh Bình, 42 tuổi, dẫn nhóm người từ TP HCM đến quán cà phê ở Cần Thơ xông vào đâm chém băng giang hồ địa phương.</t>
+          <t>giang hồ nổ súng hỗn chiến ở cần thơ</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>mâu thuẫn trong cờ bạc nguyễn thanh bình 42 tuổi dẫn nhóm người từ tp hcm đến quán cà phê ở cần thơ xông vào đâm chém băng giang hồ địa phương</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4835,19 +5497,22 @@
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Kết luận trái ngược về cái chết của bị can trong Chí Hòa</t>
-        </is>
+      <c r="B221" t="n">
+        <v>6</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Công an TP HCM kết luận nguyên nhân tử vong của Dương Tấn Minh, 23 tuổi, tại trại tạm giam Chí Hoà, là "ngạt do hít sặc thức ăn vào đường thở".</t>
+          <t>kết luận trái ngược về cái chết của bị can trong chí hòa</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>công an tp hcm kết luận nguyên nhân tử vong của dương tấn minh 23 tuổi tại trại tạm giam chí hoà là ngạt do hít sặc thức ăn vào đường thở</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4855,19 +5520,22 @@
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Người mẹ ép các con ăn xin bị đề nghị truy tố</t>
-        </is>
+      <c r="B222" t="n">
+        <v>7</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>BÀ RỊA - VŨNG TÀUĐào Thị Gái cùng em trai bị đề nghị truy tố hai tội danh vì đã đánh đập các con, ép đi ăn xin mỗi ngày 900.000 đồng.</t>
+          <t>người mẹ ép các con ăn xin bị đề nghị truy tố</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>bà rịa  vũng tàuđào thị gái cùng em trai bị đề nghị truy tố hai tội danh vì đã đánh đập các con ép đi ăn xin mỗi ngày 900000 đồng</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4875,19 +5543,22 @@
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Bí ẩn trong hộp bánh quy</t>
-        </is>
+      <c r="B223" t="n">
+        <v>8</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>TRUNG QUỐCHung thủ trong cái chết của quả phụ họ Mạnh sẽ mãi là ẩn số cho tới khi ban chuyên án nhìn vào hộp bánh quy nạn nhân cất trong nhà.</t>
+          <t>bí ẩn trong hộp bánh quy</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>trung quốchung thủ trong cái chết của quả phụ họ mạnh sẽ mãi là ẩn số cho tới khi ban chuyên án nhìn vào hộp bánh quy nạn nhân cất trong nhà</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4895,19 +5566,22 @@
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Ba nữ sinh mắc bẫy kẻ hiếp dâm</t>
-        </is>
+      <c r="B224" t="n">
+        <v>9</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>TRUNG QUỐCTiểu Hoa muốn làm gia sư để có tiền giúp đỡ cha mẹ nhưng rơi ngay vào bẫy của kẻ hiếp dâm.</t>
+          <t>ba nữ sinh mắc bẫy kẻ hiếp dâm</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>trung quốctiểu hoa muốn làm gia sư để có tiền giúp đỡ cha mẹ nhưng rơi ngay vào bẫy của kẻ hiếp dâm</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4915,19 +5589,22 @@
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Danh sách trả thù của kẻ bị vợ bỏ</t>
-        </is>
+      <c r="B225" t="n">
+        <v>10</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>MỸDưới ngòi bút thù hận của gã đàn ông, tên của bốn nạn nhân dần xuất hiện trên tờ giấy, bắt đầu bằng Steven Pitt, chuyên gia tâm lý học pháp y.</t>
+          <t>danh sách trả thù của kẻ bị vợ bỏ</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>mỹdưới ngòi bút thù hận của gã đàn ông tên của bốn nạn nhân dần xuất hiện trên tờ giấy bắt đầu bằng steven pitt chuyên gia tâm lý học pháp y</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4935,19 +5612,22 @@
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Mưu kế của tình nhân</t>
-        </is>
+      <c r="B226" t="n">
+        <v>11</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MỸGail Fulton muốn cứu vãn hôn nhân sau lần chồng ngoại tình nhưng mọi cơ hội hàn gắn đều tiêu tan.</t>
+          <t>mưu kế của tình nhân</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>mỹgail fulton muốn cứu vãn hôn nhân sau lần chồng ngoại tình nhưng mọi cơ hội hàn gắn đều tiêu tan</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4955,19 +5635,22 @@
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Chồng chết, vợ có được lập di chúc đối với tài sản chung?</t>
-        </is>
+      <c r="B227" t="n">
+        <v>12</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Cha mẹ sinh được 2 người anh và tôi, tạo lập được căn nhà từ năm 1996. Sáu năm trước cha mất, giờ mẹ muốn lập di chúc để lại tài sản này cho tôi có được không? (Giang).</t>
+          <t>chồng chết vợ có được lập di chúc đối với tài sản chung</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>cha mẹ sinh được 2 người anh và tôi tạo lập được căn nhà từ năm 1996 sáu năm trước cha mất giờ mẹ muốn lập di chúc để lại tài sản này cho tôi có được không giang</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4975,19 +5658,22 @@
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Điều kiện đảm bảo an toàn của ban công nhà chung cư?</t>
-        </is>
+      <c r="B228" t="n">
+        <v>13</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Khi xây dựng nhà chung cư, pháp luật có bắt buộc điều kiện đảm bảo an toàn với ban công hay không? (Lý Thịnh)</t>
+          <t>điều kiện đảm bảo an toàn của ban công nhà chung cư</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>khi xây dựng nhà chung cư pháp luật có bắt buộc điều kiện đảm bảo an toàn với ban công hay không lý thịnh</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -4995,19 +5681,22 @@
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Nên mua nhà giấy tờ viết tay giá rẻ để cho thuê?</t>
-        </is>
+      <c r="B229" t="n">
+        <v>14</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Tôi thấy giá nhà giao dịch bằng giấy tờ viết tay chỉ bằng một nửa so với nhà có sổ đỏ nhưng khi cho thuê thì giá như nhau (Bảo Bình).</t>
+          <t>nên mua nhà giấy tờ viết tay giá rẻ để cho thuê</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>tôi thấy giá nhà giao dịch bằng giấy tờ viết tay chỉ bằng một nửa so với nhà có sổ đỏ nhưng khi cho thuê thì giá như nhau bảo bình</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5015,19 +5704,22 @@
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>4 trường hợp Nhà nước thu hồi đất của người dân</t>
-        </is>
+      <c r="B230" t="n">
+        <v>15</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Luật quy định thế nào về các trường hợp người dân bị nhà nước thu hồi đất? (Lệ Thy)</t>
+          <t>4 trường hợp nhà nước thu hồi đất của người dân</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>luật quy định thế nào về các trường hợp người dân bị nhà nước thu hồi đất lệ thy</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5035,19 +5727,22 @@
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Cựu chủ tịch thị trấn bị bắt</t>
-        </is>
+      <c r="B231" t="n">
+        <v>16</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>THANH HÓAÔng Phạm Hùng Dũng, cựu Chủ tịch UBND thị trấn Ngọc Lặc, huyện Ngọc Lặc bị bắt với cáo buộc cấu kết lập khống hồ sơ đất.</t>
+          <t>cựu chủ tịch thị trấn bị bắt</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>thanh hóaông phạm hùng dũng cựu chủ tịch ubnd thị trấn ngọc lặc huyện ngọc lặc bị bắt với cáo buộc cấu kết lập khống hồ sơ đất</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5055,19 +5750,22 @@
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Nguyên Chánh thanh tra Sở Tài chính TP HCM bị bắt</t>
-        </is>
+      <c r="B232" t="n">
+        <v>17</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Bà Lê Thị Thanh Tuyền, nguyên Chánh thanh tra Sở Tài chính TP HCM, và nhiều người bị bắt với cáo buộc sai phạm trong đấu thầu sửa chữa 7 trường học.</t>
+          <t>nguyên chánh thanh tra sở tài chính tp hcm bị bắt</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>bà lê thị thanh tuyền nguyên chánh thanh tra sở tài chính tp hcm và nhiều người bị bắt với cáo buộc sai phạm trong đấu thầu sửa chữa 7 trường học</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5075,19 +5773,22 @@
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Ném vỡ kính ôtô đỗ bên đường</t>
-        </is>
+      <c r="B233" t="n">
+        <v>18</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>HÀ TĨNHNguyễn Ngọc Tiến sau khi uống rượu đã cầm gạch ném vỡ kính ôtô đỗ bên đường, dù không mâu thuẫn với chủ xe.</t>
+          <t>ném vỡ kính ôtô đỗ bên đường</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>hà tĩnhnguyễn ngọc tiến sau khi uống rượu đã cầm gạch ném vỡ kính ôtô đỗ bên đường dù không mâu thuẫn với chủ xe</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5095,19 +5796,22 @@
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Giám đốc ăn chặn tiền của người nghèo</t>
-        </is>
+      <c r="B234" t="n">
+        <v>19</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>GIA LAILý Kim Thành, cựu Giám đốc HTX Lơ Ku, bị bắt vì cáo buộc ăn chặn gần 90 triệu đồng tiền ngân sách hỗ trợ cây giống cho người nghèo, ngày 3/3.</t>
+          <t>giám đốc ăn chặn tiền của người nghèo</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>gia lailý kim thành cựu giám đốc htx lơ ku bị bắt vì cáo buộc ăn chặn gần 90 triệu đồng tiền ngân sách hỗ trợ cây giống cho người nghèo ngày 33</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5115,19 +5819,22 @@
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Chủ mưu cướp ngân hàng: 'Doạ bắn em trai nếu không tham gia'</t>
-        </is>
+      <c r="B235" t="n">
+        <v>20</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>KIÊN GIANGTrịnh Đình Hào, 21 tuổi, bắn một phát chỉ thiên (súng bắn đạn cao su) buộc cậu em Trịnh Đình Phú phải cùng đi cướp nếu không muốn "ăn đạn".</t>
+          <t>chủ mưu cướp ngân hàng doạ bắn em trai nếu không tham gia</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>kiên giangtrịnh đình hào 21 tuổi bắn một phát chỉ thiên súng bắn đạn cao su buộc cậu em trịnh đình phú phải cùng đi cướp nếu không muốn ăn đạn</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5135,19 +5842,22 @@
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Cựu đại úy công an lừa thuê ôtô tự lái</t>
-        </is>
+      <c r="B236" t="n">
+        <v>21</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>HÀ NỘIBị can Nguyễn Văn Chiến, 36 tuổi, cựu đại úy Trường Trung cấp Cảnh sát nhân dân VI, bị truy tố về tội Lừa đảo chiếm đoạt tài sản, khung hình phạt thấp nhất 12 năm tù.</t>
+          <t>cựu đại úy công an lừa thuê ôtô tự lái</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>hà nộibị can nguyễn văn chiến 36 tuổi cựu đại úy trường trung cấp cảnh sát nhân dân vi bị truy tố về tội lừa đảo chiếm đoạt tài sản khung hình phạt thấp nhất 12 năm tù</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5155,19 +5865,22 @@
       <c r="A237" s="1" t="n">
         <v>235</v>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Tung tin giả 'được lấy nhiều chồng'</t>
-        </is>
+      <c r="B237" t="n">
+        <v>22</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>THỪA THIÊN - HUẾ Phan Nguyễn Thanh Nguyên, 22 tuổi bị phạt 5 triệu đồng vì đăng tin thất thiệt 'một vợ lấy được nhiều chồng để giải quyết tình trạng dư thừa nam giới'.</t>
+          <t>tung tin giả được lấy nhiều chồng</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>thừa thiên  huế phan nguyễn thanh nguyên 22 tuổi bị phạt 5 triệu đồng vì đăng tin thất thiệt một vợ lấy được nhiều chồng để giải quyết tình trạng dư thừa nam giới</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5175,19 +5888,22 @@
       <c r="A238" s="1" t="n">
         <v>236</v>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Chủ mưu phi tang xác đồng nghiệp bị tuyên tử hình</t>
-        </is>
+      <c r="B238" t="n">
+        <v>23</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>TP HCMNhân viên bảo vệ Nguyễn Hoàng Phi, 24 tuổi, gọi bạn đến giết đồng nghiệp cướp tài sản, phi tang xác.</t>
+          <t>chủ mưu phi tang xác đồng nghiệp bị tuyên tử hình</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>tp hcmnhân viên bảo vệ nguyễn hoàng phi 24 tuổi gọi bạn đến giết đồng nghiệp cướp tài sản phi tang xác</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5195,19 +5911,22 @@
       <c r="A239" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Ẩu đả do tranh cãi về rượu ngâm</t>
-        </is>
+      <c r="B239" t="n">
+        <v>24</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>HÀ TĨNHLê Quang Thành cầm tuýp sắt gây thương tích 43% cho anh Phan Tiến Việt, sau tranh cãi nguyên liệu ngâm rượu tại buổi tân gia.</t>
+          <t>ẩu đả do tranh cãi về rượu ngâm</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>hà tĩnhlê quang thành cầm tuýp sắt gây thương tích 43 cho anh phan tiến việt sau tranh cãi nguyên liệu ngâm rượu tại buổi tân gia</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5215,19 +5934,22 @@
       <c r="A240" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Thiệt hại trong vụ tiếp viên hàng không làm lây lan Covid-19</t>
-        </is>
+      <c r="B240" t="n">
+        <v>25</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>TP HCMDương Tấn Hậu, tiếp viên hãng Vietnam Airlines, lây Covid-19 cho 3 người đã khiến chính quyền phải chi gần 4,5 tỷ đồng để xét nghiệm và cách ly hơn 2.000 người.</t>
+          <t>thiệt hại trong vụ tiếp viên hàng không làm lây lan covid19</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>tp hcmdương tấn hậu tiếp viên hãng vietnam airlines lây covid19 cho 3 người đã khiến chính quyền phải chi gần 45 tỷ đồng để xét nghiệm và cách ly hơn 2000 người</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5235,19 +5957,22 @@
       <c r="A241" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Ném dao phay từ tầng cao xuống đất</t>
-        </is>
+      <c r="B241" t="n">
+        <v>26</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>TRUNG QUỐCBà Từ thành người đầu tiên bị phạt tù ở quốc gia này vì ném dao từ nhà cao tầng xuống đất, dù không gây hậu quả.</t>
+          <t>ném dao phay từ tầng cao xuống đất</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>trung quốcbà từ thành người đầu tiên bị phạt tù ở quốc gia này vì ném dao từ nhà cao tầng xuống đất dù không gây hậu quả</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5255,19 +5980,22 @@
       <c r="A242" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Tiệm thuốc tây 6 lần bị tạt mắm tôm, sơn</t>
-        </is>
+      <c r="B242" t="n">
+        <v>27</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>TP HCMCửa hàng thuốc tây của bà Nguyễn Thanh Mai tại quận 8 trong hai tháng qua liên tục bị tạt sơn, mắm tôm, nghi do món nợ của người em họ.</t>
+          <t>tiệm thuốc tây 6 lần bị tạt mắm tôm sơn</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>tp hcmcửa hàng thuốc tây của bà nguyễn thanh mai tại quận 8 trong hai tháng qua liên tục bị tạt sơn mắm tôm nghi do món nợ của người em họ</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5275,19 +6003,22 @@
       <c r="A243" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Lĩnh 7 năm tù vì dâm ô 4 nam sinh</t>
-        </is>
+      <c r="B243" t="n">
+        <v>28</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>TÂY NINHCựu giáo viên Nguyễn Hoàng Nhựt, 39 tuổi, bị tuyên 7 năm tù về hai tội do xâm phạm tình dục 4 nam sinh lớp 9.</t>
+          <t>lĩnh 7 năm tù vì dâm ô 4 nam sinh</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>tây ninhcựu giáo viên nguyễn hoàng nhựt 39 tuổi bị tuyên 7 năm tù về hai tội do xâm phạm tình dục 4 nam sinh lớp 9</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5295,19 +6026,22 @@
       <c r="A244" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>36 người bị điều tra trong vụ án cao tốc Đà Nẵng - Quảng Ngãi</t>
-        </is>
+      <c r="B244" t="n">
+        <v>29</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Hai phó tổng giám đốc VEC Nguyễn Mạnh Hùng, Lê Quang Hào cùng 34 bị can bị đề nghị truy tố do sai phạm ở dự án cao tốc Đà Nẵng - Quảng Ngãi.</t>
+          <t>36 người bị điều tra trong vụ án cao tốc đà nẵng  quảng ngãi</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>hai phó tổng giám đốc vec nguyễn mạnh hùng lê quang hào cùng 34 bị can bị đề nghị truy tố do sai phạm ở dự án cao tốc đà nẵng  quảng ngãi</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5315,19 +6049,22 @@
       <c r="A245" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Thanh niên chạy xe bốc đầu bị phạt gần 11 triệu đồng</t>
-        </is>
+      <c r="B245" t="n">
+        <v>30</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>BÀ RỊA - VŨNG TÀUChạy xe bốc đầu khoảng 100 m trên đường ven biển Bãi Trước, TP Vũng Tàu, Trần Hoàng Thông, 20 tuổi, ở phường Nguyễn An Ninh, bị phạt 10,8 triệu đồng.</t>
+          <t>thanh niên chạy xe bốc đầu bị phạt gần 11 triệu đồng</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>bà rịa  vũng tàuchạy xe bốc đầu khoảng 100 m trên đường ven biển bãi trước tp vũng tàu trần hoàng thông 20 tuổi ở phường nguyễn an ninh bị phạt 108 triệu đồng</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5335,19 +6072,22 @@
       <c r="A246" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Tiếp viên hàng không 'làm lây lan nCoV' bị đề nghị truy tố</t>
-        </is>
+      <c r="B246" t="n">
+        <v>31</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>TP HCMDương Tấn Hậu, 29 tuổi, tiếp viên hàng không Vietnam Airlines bị cáo buộc không tuân theo quy định cách ly, làm lây lan nCoV cho 3 người.</t>
+          <t>tiếp viên hàng không làm lây lan ncov bị đề nghị truy tố</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>tp hcmdương tấn hậu 29 tuổi tiếp viên hàng không vietnam airlines bị cáo buộc không tuân theo quy định cách ly làm lây lan ncov cho 3 người</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5355,19 +6095,22 @@
       <c r="A247" s="1" t="n">
         <v>245</v>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Đình chỉ vụ án tố cáo chiếm đoạt tài sản trong gia đình đại gia</t>
-        </is>
+      <c r="B247" t="n">
+        <v>32</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Bộ Công an sau gần 2 năm xác minh đã đình chỉ điều tra vụ án lạm dụng tín nhiệm chiếm đoạt tài sản liên quan gia đình cố đại gia ngân hàng Trần Thị Hường (Tư Hường).</t>
+          <t>đình chỉ vụ án tố cáo chiếm đoạt tài sản trong gia đình đại gia</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>bộ công an sau gần 2 năm xác minh đã đình chỉ điều tra vụ án lạm dụng tín nhiệm chiếm đoạt tài sản liên quan gia đình cố đại gia ngân hàng trần thị hường tư hường</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5375,19 +6118,22 @@
       <c r="A248" s="1" t="n">
         <v>246</v>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Ngân hàng ở Hà Tiên bị cướp</t>
-        </is>
+      <c r="B248" t="n">
+        <v>33</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>KIÊN GIANGTrịnh Đình Hào, 21 tuổi, cùng Trịnh Đình Phú, 18 tuổi, bịt khẩu trang xông vào chi nhánh ngân hàng ở TP Hà Tiên rút súng đe dọa, cướp tiền.</t>
+          <t>ngân hàng ở hà tiên bị cướp</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>kiên giangtrịnh đình hào 21 tuổi cùng trịnh đình phú 18 tuổi bịt khẩu trang xông vào chi nhánh ngân hàng ở tp hà tiên rút súng đe dọa cướp tiền</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5395,19 +6141,22 @@
       <c r="A249" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Bộ Công an thông tin việc 'khen thưởng' trong vụ án Trịnh Xuân Thanh</t>
-        </is>
+      <c r="B249" t="n">
+        <v>34</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Kết quả xử lý vụ án Trịnh Xuân Thanh là nhờ "thành tích của nhiều đơn vị tham gia", theo người phát ngôn Bộ Công an.</t>
+          <t>bộ công an thông tin việc khen thưởng trong vụ án trịnh xuân thanh</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>kết quả xử lý vụ án trịnh xuân thanh là nhờ thành tích của nhiều đơn vị tham gia theo người phát ngôn bộ công an</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5415,19 +6164,22 @@
       <c r="A250" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Thuê thợ làm chìa khóa, ăn trộm xe bán tải</t>
-        </is>
+      <c r="B250" t="n">
+        <v>35</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>HÀ TĨNHChang Yu Jui (39 tuổi, người Đài Loan) lĩnh 12 năm tù vì mượn và ăn trộm 2 ôtô của công ty cũ ở thị xã Kỳ Anh đem cầm cố lấy hàng trăm triệu đồng.</t>
+          <t>thuê thợ làm chìa khóa ăn trộm xe bán tải</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>hà tĩnhchang yu jui 39 tuổi người đài loan lĩnh 12 năm tù vì mượn và ăn trộm 2 ôtô của công ty cũ ở thị xã kỳ anh đem cầm cố lấy hàng trăm triệu đồng</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5435,19 +6187,22 @@
       <c r="A251" s="1" t="n">
         <v>249</v>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Trộm chó trong 15 giây</t>
-        </is>
+      <c r="B251" t="n">
+        <v>36</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>HÀ TĨNHTrần Đức Ngọc, Đinh Tiến Công và Nguyễn Văn Đức bị xét xử vì lập đường dây trộm chó, bán lấy tiền mua ma túy.</t>
+          <t>trộm chó trong 15 giây</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>hà tĩnhtrần đức ngọc đinh tiến công và nguyễn văn đức bị xét xử vì lập đường dây trộm chó bán lấy tiền mua ma túy</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5455,19 +6210,22 @@
       <c r="A252" s="1" t="n">
         <v>250</v>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Xâm hại bé gái 4 tuổi khi trông hộ</t>
-        </is>
+      <c r="B252" t="n">
+        <v>37</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>HÀ NỘIVũ Đào bị phạt 12 năm tù do nhân lúc không có người ở nhà đã có hành vi đồi bại với bé gái 4 tuổi.</t>
+          <t>xâm hại bé gái 4 tuổi khi trông hộ</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>hà nộivũ đào bị phạt 12 năm tù do nhân lúc không có người ở nhà đã có hành vi đồi bại với bé gái 4 tuổi</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5475,19 +6233,22 @@
       <c r="A253" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Bé trai 12 tuổi kiện đòi được đổi sang họ mẹ</t>
-        </is>
+      <c r="B253" t="n">
+        <v>38</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>TRUNG QUỐCTiểu Hướng, 12 tuổi, kiện bố để đòi quyền đổi sang họ mẹ vì đã quen dùng cái tên này trong đời sống thường ngày.</t>
+          <t>bé trai 12 tuổi kiện đòi được đổi sang họ mẹ</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>trung quốctiểu hướng 12 tuổi kiện bố để đòi quyền đổi sang họ mẹ vì đã quen dùng cái tên này trong đời sống thường ngày</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5495,19 +6256,22 @@
       <c r="A254" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Trốn cách ly để gặp bố lần cuối</t>
-        </is>
+      <c r="B254" t="n">
+        <v>39</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Một phụ nữ 33 tuổi bị tòa án Hàn Quốc tuyên phạt nhẹ hơn mức bình thường sau khi trốn cách ly để gặp mặt bố lần cuối.</t>
+          <t>trốn cách ly để gặp bố lần cuối</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>một phụ nữ 33 tuổi bị tòa án hàn quốc tuyên phạt nhẹ hơn mức bình thường sau khi trốn cách ly để gặp mặt bố lần cuối</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5515,19 +6279,22 @@
       <c r="A255" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Đoạt mạng bạn nhậu</t>
-        </is>
+      <c r="B255" t="n">
+        <v>40</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>HÀ TĨNHNguyễn Tiến Đại, 36 tuổi, cầm dao chém chết anh Lê Văn Phương, 41 tuổi sau mâu thuẫn trên bàn nhậu, lúc 21h ngày 1/3.</t>
+          <t>đoạt mạng bạn nhậu</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>hà tĩnhnguyễn tiến đại 36 tuổi cầm dao chém chết anh lê văn phương 41 tuổi sau mâu thuẫn trên bàn nhậu lúc 21h ngày 13</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5535,19 +6302,22 @@
       <c r="A256" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Băng 'giang hồ áo cam' bị đề nghị truy tố</t>
-        </is>
+      <c r="B256" t="n">
+        <v>41</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>TP HCM86 người ẩu đả, gây náo loạn đường phố giữa năm 2020 bị Công an TP HCM đề nghị VKS cùng cấp truy tố hàng loạt tội danh, ngày 2/3.</t>
+          <t>băng giang hồ áo cam bị đề nghị truy tố</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>tp hcm86 người ẩu đả gây náo loạn đường phố giữa năm 2020 bị công an tp hcm đề nghị vks cùng cấp truy tố hàng loạt tội danh ngày 23</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5555,19 +6325,22 @@
       <c r="A257" s="1" t="n">
         <v>255</v>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Tiền hỗ trợ người nghèo nghi bị xà xẻo</t>
-        </is>
+      <c r="B257" t="n">
+        <v>42</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>GIA LAIÔng Lý Kim Thành, cựu Giám đốc HTX Lơ Ku, bị cho là tự ý giữ lại gần 89 triệu đồng tiền ngân sách hỗ trợ cây giống cho người nghèo.</t>
+          <t>tiền hỗ trợ người nghèo nghi bị xà xẻo</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>gia laiông lý kim thành cựu giám đốc htx lơ ku bị cho là tự ý giữ lại gần 89 triệu đồng tiền ngân sách hỗ trợ cây giống cho người nghèo</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5575,19 +6348,22 @@
       <c r="A258" s="1" t="n">
         <v>256</v>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>'Sập bẫy' khách mua dâm</t>
-        </is>
+      <c r="B258" t="n">
+        <v>43</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>TP HCMBùi Văn Đoàn, 29 tuổi, dụ cô gái bán dâm giá cao đến khách sạn ở quận 1 để "vui vẻ" rồi trói nạn nhân, cướp tài sản.</t>
+          <t>sập bẫy khách mua dâm</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>tp hcmbùi văn đoàn 29 tuổi dụ cô gái bán dâm giá cao đến khách sạn ở quận 1 để vui vẻ rồi trói nạn nhân cướp tài sản</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5595,19 +6371,22 @@
       <c r="A259" s="1" t="n">
         <v>257</v>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Cựu giám đốc chi nhánh văn phòng đăng ký đất đai Huế bị bắt</t>
-        </is>
+      <c r="B259" t="n">
+        <v>44</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>THỪA THIÊN - HUẾÔng Hồ Trí Quý, 41 tuổi, cựu giám đốc chi nhánh văn phòng đăng ký đất đai Huế bị cáo buộc thiếu trách nhiệm gây hậu quả nghiêm trọng.</t>
+          <t>cựu giám đốc chi nhánh văn phòng đăng ký đất đai huế bị bắt</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>thừa thiên  huếông hồ trí quý 41 tuổi cựu giám đốc chi nhánh văn phòng đăng ký đất đai huế bị cáo buộc thiếu trách nhiệm gây hậu quả nghiêm trọng</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5615,19 +6394,22 @@
       <c r="A260" s="1" t="n">
         <v>258</v>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Nghi phạm sát hại nghệ sĩ Vũ Mạnh Dũng bị đề nghị truy tố</t>
-        </is>
+      <c r="B260" t="n">
+        <v>45</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>HÀ NỘIDương Quang Bình, 44 tuổi, bị cáo buộc đã dùng dao sát hại em rể là nghệ sĩ ưu tú Vũ Mạnh Dũng.</t>
+          <t>nghi phạm sát hại nghệ sĩ vũ mạnh dũng bị đề nghị truy tố</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>hà nộidương quang bình 44 tuổi bị cáo buộc đã dùng dao sát hại em rể là nghệ sĩ ưu tú vũ mạnh dũng</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5635,19 +6417,22 @@
       <c r="A261" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Giám đốc Sở Y tế Cần Thơ bị khởi tố</t>
-        </is>
+      <c r="B261" t="n">
+        <v>46</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Ông Cao Minh Chu, Giám đốc Sở Y tế Cần Thơ, và người tiền nhiệm Bùi Thị Lệ Phi, cùng hàng loạt người bị cáo buộc sai phạm trong đấu thầu mua thiết bị y tế, ngày 1/3.</t>
+          <t>giám đốc sở y tế cần thơ bị khởi tố</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Pháp luật</t>
+          <t>ông cao minh chu giám đốc sở y tế cần thơ và người tiền nhiệm bùi thị lệ phi cùng hàng loạt người bị cáo buộc sai phạm trong đấu thầu mua thiết bị y tế ngày 13</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>pháp luật</t>
         </is>
       </c>
     </row>
@@ -5655,19 +6440,22 @@
       <c r="A262" s="1" t="n">
         <v>260</v>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Vùng dịch Covid-19 lớn nhất thế giới hạ nhiệt</t>
-        </is>
+      <c r="B262" t="n">
+        <v>0</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Số lượng người tại Mỹ nhập viện vì Covid-19 đang ở mức thấp nhất kể từ đầu tháng 11/2020, đem lại các tín hiệu lạc quan ở vùng dịch này.</t>
+          <t>vùng dịch covid19 lớn nhất thế giới hạ nhiệt</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>số lượng người tại mỹ nhập viện vì covid19 đang ở mức thấp nhất kể từ đầu tháng 112020 đem lại các tín hiệu lạc quan ở vùng dịch này</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5675,19 +6463,22 @@
       <c r="A263" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Một phụ nữ Hải Dương nghi mắc Covid-19</t>
-        </is>
+      <c r="B263" t="n">
+        <v>1</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>HẢI DƯƠNGBan chỉ đạo phòng chống dịch trưa 24/2 ghi nhận một phụ nữ 55 tuổi, từng bán hàng ở chợ địa phương, nghi mắc Covid-19.</t>
+          <t>một phụ nữ hải dương nghi mắc covid19</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>hải dươngban chỉ đạo phòng chống dịch trưa 242 ghi nhận một phụ nữ 55 tuổi từng bán hàng ở chợ địa phương nghi mắc covid19</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5695,19 +6486,22 @@
       <c r="A264" s="1" t="n">
         <v>262</v>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Người Nhật tử vong ở Hà Nội nhiễm biến chủng nCoV mới</t>
-        </is>
+      <c r="B264" t="n">
+        <v>2</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Kết quả giải trình tự gene "bệnh nhân 2229" (người Nhật tử vong tại Hà Nội), nhiễm biến thể nCoV nhóm 20C, lần đầu xuất hiện ở Việt Nam.</t>
+          <t>người nhật tử vong ở hà nội nhiễm biến chủng ncov mới</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>kết quả giải trình tự gene bệnh nhân 2229 người nhật tử vong tại hà nội nhiễm biến thể ncov nhóm 20c lần đầu xuất hiện ở việt nam</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5715,19 +6509,22 @@
       <c r="A265" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Bộ trưởng Y tế: 'Việt Nam không thiếu vaccine Covid-19'</t>
-        </is>
+      <c r="B265" t="n">
+        <v>3</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Bộ trưởng Y tế Nguyễn Thanh Long sáng 24/2 cho biết năm nay Việt Nam dự kiến nhận 30 triệu liều vaccine Covid-19 từ Liên minh Covax, 30 triệu liều của AstraZeneca và 30 triệu liều Pfizer.</t>
+          <t>bộ trưởng y tế việt nam không thiếu vaccine covid19</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>bộ trưởng y tế nguyễn thanh long sáng 242 cho biết năm nay việt nam dự kiến nhận 30 triệu liều vaccine covid19 từ liên minh covax 30 triệu liều của astrazeneca và 30 triệu liều pfizer</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5735,19 +6532,22 @@
       <c r="A266" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Hà Nội 8 ngày không lây nhiễm cộng đồng</t>
-        </is>
+      <c r="B266" t="n">
+        <v>4</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Giới chức đánh giá Hà Nội đã cơ bản kiểm soát được chuỗi lây nhiễm nCoV cộng đồng, sau 8 ngày không ghi nhận ca nhiễm mới.</t>
+          <t>hà nội 8 ngày không lây nhiễm cộng đồng</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>giới chức đánh giá hà nội đã cơ bản kiểm soát được chuỗi lây nhiễm ncov cộng đồng sau 8 ngày không ghi nhận ca nhiễm mới</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5755,19 +6555,22 @@
       <c r="A267" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>5 thủy thủ chờ vào Vũng Tàu dương tính nCoV</t>
-        </is>
+      <c r="B267" t="n">
+        <v>5</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>BÀ RỊA - VŨNG TÀUSau khi một thuyền viên chết, cơ quan chức năng xét nghiệm những người trên tàu Ocean Amazing, phát hiện 5 người dương tính nCoV.</t>
+          <t>5 thủy thủ chờ vào vũng tàu dương tính ncov</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>bà rịa  vũng tàusau khi một thuyền viên chết cơ quan chức năng xét nghiệm những người trên tàu ocean amazing phát hiện 5 người dương tính ncov</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5775,19 +6578,22 @@
       <c r="A268" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Tìm ra nguồn lây nhiễm liên quan 2 điều dưỡng Hải Phòng</t>
-        </is>
+      <c r="B268" t="n">
+        <v>6</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Sở Y tế Hải Phòng xác định nguồn lây chuỗi bệnh nhân Covid-19 liên quan hai điều dưỡng Bệnh viện Giao thông Vận tải, là từ huyện Cẩm Giàng, tỉnh Hải Dương.</t>
+          <t>tìm ra nguồn lây nhiễm liên quan 2 điều dưỡng hải phòng</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>sở y tế hải phòng xác định nguồn lây chuỗi bệnh nhân covid19 liên quan hai điều dưỡng bệnh viện giao thông vận tải là từ huyện cẩm giàng tỉnh hải dương</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5795,19 +6601,22 @@
       <c r="A269" s="1" t="n">
         <v>267</v>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>117.600 liều vaccine Covid-19 đầu tiên về Việt Nam</t>
-        </is>
+      <c r="B269" t="n">
+        <v>7</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Sáng 24/2, 117.600 liều vaccine Covid-19 của AstraZeneca về đến sân bay Tân Sơn Nhất, phục vụ nhu cầu phòng chống dịch cấp bách hiện nay.</t>
+          <t>117600 liều vaccine covid19 đầu tiên về việt nam</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>sáng 242 117600 liều vaccine covid19 của astrazeneca về đến sân bay tân sơn nhất phục vụ nhu cầu phòng chống dịch cấp bách hiện nay</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5815,19 +6624,22 @@
       <c r="A270" s="1" t="n">
         <v>268</v>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Bé gái uống nhầm dầu thắp đèn</t>
-        </is>
+      <c r="B270" t="n">
+        <v>8</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>TP HCMBé gái 15 tháng tuổi, ngụ quận Bình Tân, uống nhầm dầu thắp đèn, mẹ móc họng cho ói khiến bé suy hô hấp, tổn thương phổi.</t>
+          <t>bé gái uống nhầm dầu thắp đèn</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>tp hcmbé gái 15 tháng tuổi ngụ quận bình tân uống nhầm dầu thắp đèn mẹ móc họng cho ói khiến bé suy hô hấp tổn thương phổi</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5835,19 +6647,22 @@
       <c r="A271" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Ăn Tết quên uống thuốc tim, người phụ nữ đột quỵ</t>
-        </is>
+      <c r="B271" t="n">
+        <v>9</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>PHÚ THỌNgười phụ nữ 59 tuổi đột ngột méo miệng, nói khó, choáng váng và liệt hoàn toàn nửa người trái, chiều 23/2.</t>
+          <t>ăn tết quên uống thuốc tim người phụ nữ đột quỵ</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>phú thọngười phụ nữ 59 tuổi đột ngột méo miệng nói khó choáng váng và liệt hoàn toàn nửa người trái chiều 232</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5855,19 +6670,22 @@
       <c r="A272" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Hải Dương thêm 2 ca Covid-19</t>
-        </is>
+      <c r="B272" t="n">
+        <v>10</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Bộ Y tế sáng 24/2 ghi nhận 2 ca dương tính nCoV ở Hải Dương, nâng tổng số ca nhiễm ở tỉnh này lên 627.</t>
+          <t>hải dương thêm 2 ca covid19</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>bộ y tế sáng 242 ghi nhận 2 ca dương tính ncov ở hải dương nâng tổng số ca nhiễm ở tỉnh này lên 627</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5875,19 +6693,22 @@
       <c r="A273" s="1" t="n">
         <v>271</v>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Bài tập lấy lại cơ bụng 6 múi</t>
-        </is>
+      <c r="B273" t="n">
+        <v>11</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Huấn luyện viên Hoàng Hải Đăng hướng dẫn 6 động tác giảm mỡ, tăng cơ bụng, không cần tạ hay vận động quá sức khiến bụng bị to và thô.</t>
+          <t>bài tập lấy lại cơ bụng 6 múi</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>huấn luyện viên hoàng hải đăng hướng dẫn 6 động tác giảm mỡ tăng cơ bụng không cần tạ hay vận động quá sức khiến bung bị to và thô</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5895,19 +6716,22 @@
       <c r="A274" s="1" t="n">
         <v>272</v>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Càng lây nhiễm nhiều, nCoV càng sinh đột biến</t>
-        </is>
+      <c r="B274" t="n">
+        <v>12</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>MỸGiới chuyên gia cho rằng sự kết hợp của tỷ lệ lây truyền cao và cộng đồng được miễn dịch một phần sẽ thúc đẩy nCoV biến đổi để thích nghi.</t>
+          <t>càng lây nhiễm nhiều ncov càng sinh đột biến</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>mỹgiới chuyên gia cho rằng sự kết hợp của tỷ lệ lây truyền cao và cộng đồng được miễn dịch một phần sẽ thúc đẩy ncov biến đổi để thích nghi</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5915,19 +6739,22 @@
       <c r="A275" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Cô gái ung thư xương bay vào vũ trụ</t>
-        </is>
+      <c r="B275" t="n">
+        <v>13</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>MỸHayley Arceneaux, 29 tuổi, từng mắc ung thư xương, sẽ là người Mỹ trẻ nhất bay vào không gian trong chuyến du hành của SpaceX, diễn ra cuối năm.</t>
+          <t>cô gái ung thư xương bay vào vũ trụ</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>mỹhayley arceneaux 29 tuôi từng mắc ung thư xương sẽ là người mỹ trẻ nhất bay vào không gian trong chuyến du hành của spacex diễn ra cuối năm</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5935,19 +6762,22 @@
       <c r="A276" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" t="n">
+        <v>14</v>
+      </c>
+      <c r="C276" t="inlineStr">
         <is>
           <t>143 phòng khám lưu động tầm soát bệnh tim cho trẻ</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Hơn 51.000 trẻ em vùng sâu thuộc 14 tỉnh được các bác sĩ tim mạch khám tầm soát tại 143 phòng khám lưu động, trong năm 2021.</t>
-        </is>
-      </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>hơn 51000 trẻ em vùng sâu thuộc 14 tỉnh được các bác sĩ tim mạch khám tầm soát tại 143 phòng khám lưu động trong năm 2021</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5955,19 +6785,22 @@
       <c r="A277" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Thái Lan nhận 200.000 liều vaccine Covid-19 đầu tiên</t>
-        </is>
+      <c r="B277" t="n">
+        <v>15</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Thái Lan nhận 200.000 liều vaccine Covid-19 đầu tiên của công ty Sinovac Biotech (Trung Quốc) sản xuất vào hôm nay và bắt đầu tiêm chủng trong vài ngày tới.</t>
+          <t>thái lan nhận 200000 liều vaccine covid19 đầu tiên</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>thái lan nhận 200000 liều vaccine covid19 đầu tiên của công ty sinovac biotech trung quốc sản xuất vào hôm nay và bắt đầu tiêm chủng trong vài ngày tới</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5975,19 +6808,22 @@
       <c r="A278" s="1" t="n">
         <v>276</v>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Vaccine Pfizer có thể bảo quản ở nhiệt độ cao hơn</t>
-        </is>
+      <c r="B278" t="n">
+        <v>16</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Vaccine Pfizer/BioNTech có thể bảo quản ở âm 25 độ C đến âm 15 độ C trong hai tuần, thay vì âm 80 độ C đến âm 60 độ C như công bố trước đó.</t>
+          <t>vaccine pfizer có thể bảo quản ở nhiệt độ cao hơn</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>vaccine pfizerbiontech có thể bảo quản ở âm 25 độ c đến âm 15 độ c trong hai tuần thay vì âm 80 độ c đến âm 60 độ c như công bố trước đó</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -5995,19 +6831,22 @@
       <c r="A279" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Mỹ thiếu khỉ thử nghiệm vaccine Covid-19</t>
-        </is>
+      <c r="B279" t="n">
+        <v>17</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Các công ty Mỹ không đủ nguồn cung khỉ đuôi dài để thử nghiệm vaccine khi Covid-19 bùng phát và hiện tại là cải tiến vaccine nhằm "đuổi kịp" biến thể.</t>
+          <t>mỹ thiếu khỉ thử nghiệm vaccine covid19</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>các công ty mỹ không đủ nguồn cung khỉ đuôi dài để thử nghiệm vaccine khi covid19 bùng phát và hiện tại là cải tiến vaccine nhằm đuổi kịp biến thể</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6015,19 +6854,22 @@
       <c r="A280" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Ngáy to nguy hiểm</t>
-        </is>
+      <c r="B280" t="n">
+        <v>18</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Nếu tiếng ngáy không chỉ to mà còn nghe như thể bạn bị nghẹt thở, có thể là triệu chứng của bệnh ngưng thở khi ngủ.</t>
+          <t>ngáy to nguy hiểm</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>nêu tiêng ngay không chi to ma con nghe như thê ban bi nghet thơ co thê la triêu chưng cua bênh ngưng thơ khi ngu</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6035,19 +6877,22 @@
       <c r="A281" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Tìm người tới 15 nơi có Covid-19 Hải Dương</t>
-        </is>
+      <c r="B281" t="n">
+        <v>19</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Công an tỉnh Hải Dương tối 23/2 thông báo khẩn cấp tìm người từng đến 15 địa điểm liên quan các ca Covid-19 mới.</t>
+          <t>tìm người tới 15 nơi có covid19 hải dương</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>công an tỉnh hải dương tối 232 thông báo khẩn cấp tìm người từng đến 15 địa điểm liên quan các ca covid19 mới</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6055,19 +6900,22 @@
       <c r="A282" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Bác sĩ Sài Gòn hiến máu</t>
-        </is>
+      <c r="B282" t="n">
+        <v>20</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Hơn 200 y bác sĩ Bệnh viện Thống Nhất ngày 23/2 hiến hơn 60.000 ml, tương đương khoảng 240 đơn vị máu.</t>
+          <t>bác sĩ sài gòn hiến máu</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>hơn 200 y bác sĩ bệnh viện thống nhất ngày 232 hiến hơn 60000 ml tương đương khoảng 240 đơn vị máu</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6075,19 +6923,22 @@
       <c r="A283" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Vaccine Pfizer, Oxford chặn được Covid-19</t>
-        </is>
+      <c r="B283" t="n">
+        <v>21</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Chương trình tiêm chủng tại Scotland chứng minh vaccine Pfizer và Oxford hiệu quả trong ngăn ngừa bệnh nặng và nguy cơ nhập viện do Covid-19.</t>
+          <t>vaccine pfizer oxford chặn được covid19</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>chương trình tiêm chủng tại scotland chứng minh vaccine pfizer và oxford hiệu quả trong ngăn ngừa bệnh nặng và nguy cơ nhập viện do covid19</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6095,19 +6946,22 @@
       <c r="A284" s="1" t="n">
         <v>282</v>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>5 người Hải Dương, một Quảng Ninh mắc Covid-19</t>
-        </is>
+      <c r="B284" t="n">
+        <v>22</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Bộ Y tế chiều 23/2 ghi nhận 6 ca dương tính nCoV, trong đó Hải Dương 5 và Quảng Ninh một.</t>
+          <t>5 người hải dương một quảng ninh mắc covid19</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>bộ y tế chiều 232 ghi nhận 6 ca dương tính ncov trong đó hải dương 5 và quảng ninh một</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6115,19 +6969,22 @@
       <c r="A285" s="1" t="n">
         <v>283</v>
       </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Bệnh nhân Covid-19 nguy kịch ở Hải Dương hồi phục dần</t>
-        </is>
+      <c r="B285" t="n">
+        <v>23</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>HẢI DƯƠNGNam bệnh nhân 60 tuổi từng nguy kịch sau một đêm điều trị tại Bệnh viện dã chiến số 2, sáng 23/2 được rút ống nội khí quản.</t>
+          <t>bệnh nhân covid19 nguy kịch ở hải dương hồi phục dần</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>hải dươngnam bệnh nhân 60 tuổi từng nguy kịch sau một đêm điều trị tại bệnh viện dã chiến số 2 sáng 232 được rút ống nội khí quản</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6135,19 +6992,22 @@
       <c r="A286" s="1" t="n">
         <v>284</v>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>28 bệnh nhân liên quan Tân Sơn Nhất khỏi Covid-19</t>
-        </is>
+      <c r="B286" t="n">
+        <v>24</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Hai người liên quan cụm dịch sân bay Tân Sơn Nhất điều trị tại Bệnh viện Dã chiến Củ Chi, ngày 23/2 được tuyên bố khỏi Covid-19.</t>
+          <t>28 bệnh nhân liên quan tân sơn nhất khỏi covid19</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>hai người liên quan cụm dịch sân bay tân sơn nhất điều trị tại bệnh viện dã chiến củ chi ngày 232 được tuyên bố khỏi covid19</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6155,19 +7015,22 @@
       <c r="A287" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Hải Dương đề nghị Ấn Độ viện trợ vaccine Covid-19</t>
-        </is>
+      <c r="B287" t="n">
+        <v>25</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>UBND tỉnh Hải Dương ngày 22/2 gửi công văn tới đại sứ quán Ấn Độ tại Việt Nam, đề nghị chính phủ Ấn Độ viện trợ vaccine Covid-19.</t>
+          <t>hải dương đề nghị ấn độ viện trợ vaccine covid19</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>ubnd tỉnh hải dương ngày 222 gửi công văn tới đại sứ quán ấn độ tại việt nam đề nghị chính phủ ấn độ viện trợ vaccine covid19</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6175,19 +7038,22 @@
       <c r="A288" s="1" t="n">
         <v>286</v>
       </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Hai người Hải Dương bán cá ở chợ nghi mắc Covid-19</t>
-        </is>
+      <c r="B288" t="n">
+        <v>26</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Ban chỉ đạo phòng chống dịch TP Hải Dương trưa 23/2 ghi nhận thêm 2 ca dương tính nCoV, là người làm nghề bán cá tại chợ Tân Kim.</t>
+          <t>hai người hải dương bán cá ở chợ nghi mắc covid19</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>ban chỉ đạo phòng chống dịch tp hải dương trưa 232 ghi nhận thêm 2 ca dương tính ncov là người làm nghề bán cá tại chợ tân kim</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6195,19 +7061,22 @@
       <c r="A289" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>'Vũng lầy' Covid-19 với Đức</t>
-        </is>
+      <c r="B289" t="n">
+        <v>27</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Số ca nhiễm mới mỗi ngày khoảng 10.000, chương trình tiêm chủng lúng túng, phong tỏa kéo dài trong hỗn loạn, Đức như sa lầy trong đại dịch.</t>
+          <t>vũng lầy covid19 với đức</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>số ca nhiễm mới mỗi ngày khoảng 10000 chương trình tiêm chủng lúng túng phong tỏa kéo dài trong hỗn loạn đức như sa lầy trong đại dịch</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6215,19 +7084,22 @@
       <c r="A290" s="1" t="n">
         <v>288</v>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Hải Dương phân nhóm xét nghiệm theo nguy cơ</t>
-        </is>
+      <c r="B290" t="n">
+        <v>28</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Ban chỉ đạo chống dịch tỉnh Hải Dương chia các địa phương trên địa bàn thành 4 nhóm để xét nghiệm sàng lọc trên diện rộng.</t>
+          <t>hải dương phân nhóm xét nghiệm theo nguy cơ</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>ban chỉ đạo chống dịch tỉnh hải dương chia các địa phương trên địa bàn thành 4 nhóm để xét nghiệm sàng lọc trên diện rộng</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6235,19 +7107,22 @@
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Hải Phòng tiếp tục tìm người tới các địa điểm có Covid-19</t>
-        </is>
+      <c r="B291" t="n">
+        <v>29</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Sở Y tế Hải Phòng trưa 23/2 tiếp tục thông báo khẩn tìm người từng đến 19 địa điểm liên quan chuỗi lây nhiễm mới với hai điều dưỡng.</t>
+          <t>hải phòng tiếp tục tìm người tới các địa điểm có covid19</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>sở y tế hải phòng trưa 232 tiếp tục thông báo khẩn tìm người từng đến 19 địa điểm liên quan chuỗi lây nhiễm mới với hai điều dưỡng</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6255,19 +7130,22 @@
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Sống với di chứng Covid-19</t>
-        </is>
+      <c r="B292" t="n">
+        <v>30</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>MỸEd Hornick, khoanh tròn ngày 23/1 trên cuốn lịch với dòng ghi chú “Kỷ niệm một năm kinh hoàng nhiễm nCoV”.</t>
+          <t>sống với di chứng covid19</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>mỹed hornick khoanh tròn ngày 231 trên cuốn lịch với dòng ghi chú kỷ niệm một năm kinh hoàng nhiễm ncov</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6275,19 +7153,22 @@
       <c r="A293" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Liên tục ói ra máu</t>
-        </is>
+      <c r="B293" t="n">
+        <v>31</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>TÂY NINHNgười phụ nữ lớn tuổi bị vỡ mạch máu hành tá tràng, ói ra máu nhiều lần suốt một tháng qua, dẫn đến sốc mất máu, nguy cơ tử vong.</t>
+          <t>liên tục ói ra máu</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>tây ninhngười phụ nữ lớn tuổi bị vỡ mạch máu hành tá tràng ói ra máu nhiều lần suốt một tháng qua dẫn đến sốc mất máu nguy cơ tử vong</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6295,19 +7176,22 @@
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Người chồng hồi sinh từ quả thận của vợ</t>
-        </is>
+      <c r="B294" t="n">
+        <v>32</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>MỸAnh James Reeser, 48 tuổi, Nam Dakota, trở lại cuộc sống mới nhờ quả thận người vợ Lindy hiến tặng.</t>
+          <t>người chồng hồi sinh từ quả thận của vợ</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>mỹanh james reeser 48 tuổi nam dakota trở lại cuộc sống mới nhờ quả thận người vợ lindy hiến tặng</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6315,19 +7199,22 @@
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Một người Gia Lai tái dương tính sau xuất viện</t>
-        </is>
+      <c r="B295" t="n">
+        <v>33</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>"Bệnh nhân 1696" ở thị xã Ayun Pa, kết quả xét nghiệm ngày 27/2 tái dương tính sau 7 ngày được công bố khỏi Covid-19.</t>
+          <t>một người gia lai tái dương tính sau xuất viện</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>bệnh nhân 1696 ở thị xã ayun pa kết quả xét nghiệm ngày 272 tái dương tính sau 7 ngày được công bố khỏi covid19</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6335,19 +7222,22 @@
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Những người truy vết dịch tễ</t>
-        </is>
+      <c r="B296" t="n">
+        <v>34</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>TP HCM4h sáng, anh Đoàn Văn Công, 36 tuổi, phó trưởng khoa Xét nghiệm và Chẩn đoán hình ảnh, Trung tâm Y tế quận Bình Thạnh, giật mình tỉnh dậy sau hồi chuông báo thức lớn.</t>
+          <t>những người truy vết dịch tễ</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>tp hcm4h sáng anh đoàn văn công 36 tuổi phó trưởng khoa xét nghiệm và chẩn đoán hình ảnh trung tâm y tế quận bình thạnh giật mình tỉnh dậy sau hồi chuông báo thức lớn</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6355,19 +7245,22 @@
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Sáng 28/2 không thêm ca Covid-19</t>
-        </is>
+      <c r="B297" t="n">
+        <v>35</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Bộ Y tế sáng nay không ghi nhận thêm ca dương tính nCoV. Tổng ca nhiễm cộng đồng 837 trong hơn một tháng qua.</t>
+          <t>sáng 282 không thêm ca covid19</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>bộ y tế sáng nay không ghi nhận thêm ca dương tính ncov tổng ca nhiễm cộng đồng 837 trong hơn một tháng qua</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6375,19 +7268,22 @@
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Nhận diện cơn đau nửa đầu Migraine</t>
-        </is>
+      <c r="B298" t="n">
+        <v>36</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Migraine là bệnh thường gặp ở mọi người, với triệu chứng đặc trưng là đau nhức nửa đầu, buồn nôn, chóng mặt, sợ ánh sáng và tiếng ồn.</t>
+          <t>nhận diện cơn đau nửa đầu migraine</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>migraine là bệnh thường gặp ở mọi người với triệu chứng đặc trưng là đau nhức nửa đầu buồn nôn chóng mặt sợ ánh sáng và tiếng ồn</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6395,19 +7291,22 @@
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Bài tập cho đôi chân phái mạnh</t>
-        </is>
+      <c r="B299" t="n">
+        <v>37</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Huấn luyện viên Shin Phamm hướng dẫn 5 động tác tập dành cho chân, bắp đùi mà không cần dùng tạ.</t>
+          <t>bài tập cho đôi chân phái mạnh</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>huấn luyện viên shin phamm hướng dẫn 5 động tác tập dành cho chân bắp đùi mà không cần dùng tạ</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6415,19 +7314,22 @@
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Vỡ nhiệt kế, bé gái bị nhiễm độc thủy ngân</t>
-        </is>
+      <c r="B300" t="n">
+        <v>38</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>HÀ NỘIVẩy chiếc nhiệt kế thủy ngân trước khi đo, không may nhiệt kế vỡ chọc vào tay bé gái 11 tuổi tạo ra vết thương ở ngón trỏ trái.</t>
+          <t>vỡ nhiệt kế bé gái bị nhiễm độc thủy ngân</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>hà nộivẩy chiếc nhiệt kế thủy ngân trước khi đo không may nhiệt kế vỡ chọc vào tay bé gái 11 tuổi tạo ra vết thương ở ngón trỏ trái</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6435,19 +7337,22 @@
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Thái Lan bắt đầu tiêm vaccine Covid-19</t>
-        </is>
+      <c r="B301" t="n">
+        <v>39</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Thái Lan ngày 28/2 bắt đầu triển khai chương trình chủng ngừa Covid-19 với vaccine của Công nghệ sinh học Sinovac, Trung Quốc.</t>
+          <t>thái lan bắt đầu tiêm vaccine covid19</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>thái lan ngày 282 bắt đầu triển khai chương trình chủng ngừa covid19 với vaccine của công nghệ sinh học sinovac trung quốc</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6455,19 +7360,22 @@
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Giải thể bệnh viện dã chiến số 1 Hải Dương</t>
-        </is>
+      <c r="B302" t="n">
+        <v>40</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Ông Nguyễn Dương Thái, Chủ tịch UBND tỉnh Hải Dương, ngày 27/2 ký văn bản quyết định giải thể Bệnh viện dã chiến số 1 đặt tại Trung tâm Y tế Chí Linh.</t>
+          <t>giải thể bệnh viện dã chiến số 1 hải dương</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>ông nguyễn dương thái chủ tịch ubnd tỉnh hải dương ngày 272 ký văn bản quyết định giải thể bệnh viện dã chiến số 1 đặt tại trung tâm y tế chí linh</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6475,19 +7383,22 @@
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Bộ trưởng Y tế: 'Vaccine Covivac Việt Nam hiệu lực bảo vệ tốt'</t>
-        </is>
+      <c r="B303" t="n">
+        <v>41</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Vaccine Covivac đã được nghiên cứu tại Việt Nam, Ấn Độ và Mỹ, kết quả đồng nhất, đều cho thấy vaccine có hiệu quả ngừa Covid-19, theo Bộ trưởng Y tế Nguyễn Thanh Long.</t>
+          <t>bộ trưởng y tế vaccine covivac việt nam hiệu lực bảo vệ tốt</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>vaccine covivac đã được nghiên cứu tại việt nam ấn độ và mỹ kết quả đồng nhất đều cho thấy vaccine có hiệu quả ngừa covid19 theo bộ trưởng y tế nguyễn thanh long</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6495,19 +7406,22 @@
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Hải Dương thêm 6 ca Covid-19</t>
-        </is>
+      <c r="B304" t="n">
+        <v>42</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Bộ Y tế chiều 27/2 ghi nhận 6 ca dương tính nCoV đều ở Hải Dương, nâng tổng số ca nhiễm ở tỉnh này lên 653.</t>
+          <t>hải dương thêm 6 ca covid19</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>bộ y tế chiều 272 ghi nhận 6 ca dương tính ncov đều ở hải dương nâng tổng số ca nhiễm ở tỉnh này lên 653</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6515,19 +7429,22 @@
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Hơn 3.000 mẫu người Hải Phòng xét nghiệm âm tính</t>
-        </is>
+      <c r="B305" t="n">
+        <v>43</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>HẢI PHÒNG692 mẫu F1 xét nghiệm âm tính lần một, 2.534 mẫu trong khu phong tỏa liên quan ba ca Covid-19 âm tính lần hai.</t>
+          <t>hơn 3000 mẫu người hải phòng xét nghiệm âm tính</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>hải phòng692 mẫu f1 xét nghiệm âm tính lần một 2534 mẫu trong khu phong tỏa liên quan ba ca covid19 âm tính lần hai</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6535,19 +7452,22 @@
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Một liều vaccine Pfizer giảm nCoV lây truyền</t>
-        </is>
+      <c r="B306" t="n">
+        <v>44</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Nghiên cứu mới nhất của Anh cho thấy một liều vaccine Covid-19 của Pfizer-BioNTech giúp giảm số ca nhiễm nCoV không có triệu chứng và nguy cơ lây truyền virus.</t>
+          <t>một liều vaccine pfizer giảm ncov lây truyền</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>nghiên cứu mới nhất của anh cho thấy một liều vaccine covid19 của pfizerbiontech giúp giảm số ca nhiễm ncov không có triệu chứng và nguy cơ lây truyền virus</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6555,19 +7475,22 @@
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Người ung thư có nên tiêm vaccine Covid-19?</t>
-        </is>
+      <c r="B307" t="n">
+        <v>45</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Người ung thư đang điều trị có thể tiêm vaccine Covid-19 miễn là không có chống chỉ định hay dị ứng với bất cứ thành phần nào của thuốc.</t>
+          <t>người ung thư có nên tiêm vaccine covid19</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>người ung thư đang điều trị có thể tiêm vaccine covid19 miễn là không có chống chỉ định hay dị ứng với bất cứ thành phần nào của thuốc</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6575,19 +7498,22 @@
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Bộ trưởng Y tế: 'Đánh giá chất lượng lô vaccine AstraZeneca'</t>
-        </is>
+      <c r="B308" t="n">
+        <v>46</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Việt Nam đang cùng Hàn Quốc đánh giá chất lượng lô vaccine Covid-19 AstraZeneca trước khi triển khai tiêm rộng rãi cho người dân để đảm bảo an toàn tuyệt đối, theo Bộ trưởng Y tế Nguyễn Thanh Long.</t>
+          <t>bộ trưởng y tế đánh giá chất lượng lô vaccine astrazeneca</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>việt nam đang cùng hàn quốc đánh giá chất lượng lô vaccine covid19 astrazeneca trước khi triển khai tiêm rộng rãi cho người dân để đảm bảo an toàn tuyệt đối theo bộ trưởng y tế nguyễn thanh long</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6595,19 +7521,22 @@
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Vợ chồng bác sĩ đón con trai chào đời ngày 27/2</t>
-        </is>
+      <c r="B309" t="n">
+        <v>47</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Bác sĩ La Thị Phương Thảo vỡ ối thời điểm bắt đầu ngày Thầy thuốc Việt Nam 27/2, sinh thường bé trai lúc 1h35 tại Bệnh viện Từ Dũ.</t>
+          <t>vợ chồng bác sĩ đón con trai chào đời ngày 272</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>bác sĩ la thị phương thảo vỡ ối thời điểm bắt đầu ngày thầy thuốc việt nam 272 sinh thường bé trai lúc 1h35 tại bệnh viện từ dũ</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6615,19 +7544,22 @@
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>'Hoa tiêu' thầm lặng</t>
-        </is>
+      <c r="B310" t="n">
+        <v>48</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>TP HCMTrong chẩn đoán và can thiệp các bệnh tim, mạch máu bằng DSA, kỹ thuật viên hình ảnh là "hoa tiêu" dẫn đường, hỗ trợ bác sĩ đưa ra quyết định chính xác, nhanh chóng.</t>
+          <t>hoa tiêu thầm lặng</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>tp hcmtrong chẩn đoán và can thiệp các bệnh tim mạch máu bằng dsa kỹ thuật viên hình ảnh là hoa tiêu dẫn đường hỗ trợ bác sĩ đưa ra quyết định chính xác nhanh chóng</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6635,19 +7567,22 @@
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>17 giờ giải ra một tỷ trình tự gene nCoV ở TP HCM</t>
-        </is>
+      <c r="B311" t="n">
+        <v>49</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Khi nam thanh niên từ Hải Dương vào TP HCM được xác định dương tính, mẫu bệnh phẩm được chuyển ngay đến Đơn vị Nghiên cứu lâm sàng Đại học Oxford (OUCRU) tại thành phố.</t>
+          <t>17 giờ giải ra một tỷ trình tự gene ncov ở tp hcm</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>khi nam thanh niên từ hải dương vào tp hcm được xác định dương tính mẫu bệnh phẩm được chuyển ngay đến đơn vị nghiên cứu lâm sàng đại học oxford oucru tại thành phố</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6655,19 +7590,22 @@
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Chiếc máy phẫu thuật nội soi mua bằng tiền sắm ôtô</t>
-        </is>
+      <c r="B312" t="n">
+        <v>50</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>HÀ NỘINhững năm 90, giá một máy phẫu thuật nội soi khoảng 700 triệu đồng, số tiền rất lớn thời ấy. Bác sĩ Trần Bình Giang mới học nội soi từ Pháp, muốn đưa máy về Việt Nam, nhưng câu hỏi đầu tiên là "tiền đâu?".</t>
+          <t>chiếc máy phẫu thuật nội soi mua bằng tiền sắm ôtô</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>hà nộinhững năm 90 giá một máy phẫu thuật nội soi khoảng 700 triệu đồng số tiền rất lớn thời ấy bác sĩ trần bình giang mới học nội soi từ pháp muốn đưa máy về việt nam nhưng câu hỏi đầu tiên là tiền đâu</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6675,19 +7613,22 @@
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Một tháng chặn đứng Covid-19</t>
-        </is>
+      <c r="B313" t="n">
+        <v>51</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Hơn hai tuần trước Tết, Covid-19 tái bùng phát từ Hải Dương, Quảng Ninh rồi nhanh chóng lan rộng 13 tỉnh thành, số lượng ca nhiễm cộng đồng cao nhất trong các đợt dịch.</t>
+          <t>một tháng chặn đứng covid19</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>hơn hai tuần trước tết covid19 tái bùng phát từ hải dương quảng ninh rồi nhanh chóng lan rộng 13 tỉnh thành số lượng ca nhiễm cộng đồng cao nhất trong các đợt dịch</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6695,19 +7636,22 @@
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Sáng 27/2 không thêm ca Covid-19</t>
-        </is>
+      <c r="B314" t="n">
+        <v>52</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Bộ Y tế sáng 27/2 không ghi nhận ca dương tính nCoV. Tổng ca nhiễm cộng đồng 30 ngày qua 831.</t>
+          <t>sáng 272 không thêm ca covid19</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>bộ y tế sáng 272 không ghi nhận ca dương tính ncov tổng ca nhiễm cộng đồng 30 ngày qua 831</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6715,19 +7659,22 @@
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Ăn cơm trắng đúng cách</t>
-        </is>
+      <c r="B315" t="n">
+        <v>53</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Chuyên gia Singapore chỉ cách ăn gạo trắng đúng cách, là ăn rau trước, đến thịt, cơm, giúp giảm chỉ số đường huyết, ngăn bệnh tiểu đường type 2.</t>
+          <t>ăn cơm trắng đúng cách</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>chuyên gia singapore chỉ cách ăn gạo trắng đúng cách là ăn rau trước đến thịt cơm giúp giảm chỉ số đường huyết ngăn bệnh tiểu đường type 2</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6735,19 +7682,22 @@
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Trận chiến Covid-19 của một bác sĩ dân tộc Jrai</t>
-        </is>
+      <c r="B316" t="n">
+        <v>54</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Suốt 17 ngày đêm cách ly, điều trị 70 bệnh nhân là F0 và F1 Covid-19, bác sĩ Siu Ru và đồng nghiệp có lúc kiệt sức.</t>
+          <t>trận chiến covid19 của một bác sĩ dân tộc jrai</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>suốt 17 ngày đêm cách ly điều trị 70 bệnh nhân là f0 và f1 covid19 bác sĩ siu ru và đồng nghiệp có lúc kiệt sức</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6755,19 +7705,22 @@
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Bé trai bị ôtô đâm nguy kịch</t>
-        </is>
+      <c r="B317" t="n">
+        <v>55</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>TP HCMBé trai 8 tuổi, ngồi sau xe máy mẹ chở, bị ôtô tải đâm, rách phức tạp vùng tầng sinh môn, chấn thương thận, phổi, lá lách, gãy xương chậu...</t>
+          <t>bé trai bị ôtô đâm nguy kịch</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>tp hcmbé trai 8 tuổi ngồi sau xe máy mẹ chở bị ôtô tải đâm rách phức tạp vùng tầng sinh môn chấn thương thận phổi lá lách gãy xương chậu</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6775,19 +7728,22 @@
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>Bỏng nặng do nổ bình gas mini</t>
-        </is>
+      <c r="B318" t="n">
+        <v>56</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>QUẢNG NINHNgười đàn ông 32 tuổi, ở TP Uông Bí, đang kiểm tra bình gas thì bình phát nổ, bỏng nặng vùng mặt.</t>
+          <t>bỏng nặng do nổ bình gas mini</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>quảng ninhngười đàn ông 32 tuổi ở tp uông bí đang kiểm tra bình gas thì bình phát nổ bỏng nặng vùng mặt</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6795,19 +7751,22 @@
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
-      <c r="B319" t="inlineStr">
+      <c r="B319" t="n">
+        <v>57</v>
+      </c>
+      <c r="C319" t="inlineStr">
         <is>
           <t>45 phút cứu sống cô gái bị vỡ gan</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>CẦN THƠCô gái 19 tuổi, ở Sóc Trăng, bị tai nạn giao thông vỡ gan phức tạp, đa chấn thương nặng, sốc mất máu, gãy xương đùi…</t>
-        </is>
-      </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>cần thơcô gái 19 tuổi ở sóc trăng bị tai nạn giao thông vỡ gan phức tạp đa chấn thương nặng sốc mất máu gãy xương đùi</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6815,19 +7774,22 @@
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Người hoàn thành cách ly tập trung cần lưu ý gì?</t>
-        </is>
+      <c r="B320" t="n">
+        <v>58</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>HCDC yêu cầu người kết thúc cách ly tập trung có thể đi học, đi làm nhưng hạn chế tụ tập đông người, phải về nơi cư trú đã khai báo.</t>
+          <t>người hoàn thành cách ly tập trung cần lưu ý gì</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>hcdc yêu cầu người kết thúc cách ly tập trung có thể đi học đi làm nhưng hạn chế tụ tập đông người phải về nơi cư trú đã khai báo</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
@@ -6835,19 +7797,22 @@
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Cứu sống chuyên gia Hàn Quốc vừa đột quỵ vừa nhồi máu cơ tim</t>
-        </is>
+      <c r="B321" t="n">
+        <v>59</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>TÂY NINHNgười đàn ông Hàn Quốc, 60 tuổi, được đưa đến Bệnh viện Đa khoa Xuyên Á Tây Ninh trong tình trạng nhồi máu não, nhồi máu cơ tim cấp.</t>
+          <t>cứu sống chuyên gia hàn quốc vừa đột quỵ vừa nhồi máu cơ tim</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Sức khỏe</t>
+          <t>tây ninhngười đàn ông hàn quốc 60 tuổi được đưa đến bệnh viện đa khoa xuyên á tây ninh trong tình trạng nhồi máu não nhồi máu cơ tim cấp</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>sức khỏe</t>
         </is>
       </c>
     </row>
